--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
-  <si>
-    <t>OZON ООО АНМАКС</t>
-  </si>
-  <si>
-    <t>Дата начала: 2024-04-01 ; Дата окончания : 2024-04-07</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+  <si>
+    <t>OZON ИП ЗЕЛ</t>
+  </si>
+  <si>
+    <t>Дата начала: 2024-05-01 ; Дата окончания : 2024-05-31</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,43 +53,40 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-Ч</t>
+    <t>82400-ч</t>
   </si>
   <si>
     <t>420x420x120</t>
   </si>
   <si>
-    <t>82400-К</t>
-  </si>
-  <si>
-    <t>82400-З</t>
-  </si>
-  <si>
-    <t>82401-Ч</t>
+    <t>82400-к</t>
+  </si>
+  <si>
+    <t>82400-з</t>
+  </si>
+  <si>
+    <t>82401-ч</t>
   </si>
   <si>
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-чн</t>
-  </si>
-  <si>
-    <t>82401-К</t>
-  </si>
-  <si>
-    <t>82401-З</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
+    <t>82401-к</t>
+  </si>
+  <si>
+    <t>82401-з</t>
+  </si>
+  <si>
+    <t>82402-ч</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
-    <t>82402-К</t>
-  </si>
-  <si>
-    <t>82402-З</t>
+    <t>82402-к</t>
+  </si>
+  <si>
+    <t>82402-з</t>
   </si>
   <si>
     <t>1840-30</t>
@@ -104,58 +101,25 @@
     <t>250x40x25</t>
   </si>
   <si>
-    <t>0x0x0</t>
-  </si>
-  <si>
-    <t>7280-К-6</t>
+    <t>7280-к-6</t>
   </si>
   <si>
     <t>1010x280x90</t>
   </si>
   <si>
-    <t>7280-К-6-18</t>
-  </si>
-  <si>
-    <t>7260-К-8</t>
+    <t>7280-к-6-18</t>
+  </si>
+  <si>
+    <t>7260-к-8</t>
   </si>
   <si>
     <t>7260-К-8-24</t>
   </si>
   <si>
-    <t>7245-К-10</t>
-  </si>
-  <si>
-    <t>7245-К-10-30</t>
-  </si>
-  <si>
-    <t>7280-К-8</t>
-  </si>
-  <si>
-    <t>7260-К-12</t>
-  </si>
-  <si>
-    <t>7245-К-16</t>
-  </si>
-  <si>
-    <t>8910-30</t>
-  </si>
-  <si>
-    <t>ANM.39*59</t>
-  </si>
-  <si>
-    <t>600x400x30</t>
-  </si>
-  <si>
-    <t>ANM.49*99</t>
-  </si>
-  <si>
-    <t>1000x500x30</t>
-  </si>
-  <si>
-    <t>503А-10</t>
-  </si>
-  <si>
-    <t>SKU = 1471610355</t>
+    <t>7245-к-10</t>
+  </si>
+  <si>
+    <t>7245-к-10-30</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -544,7 +508,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -614,28 +578,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>46</v>
+        <v>1862</v>
       </c>
       <c r="D5" s="2">
-        <v>11952.78</v>
+        <v>752582.96</v>
       </c>
       <c r="E5" s="2">
-        <v>259.84</v>
+        <v>404.18</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>9.84</v>
+        <v>154.18</v>
       </c>
       <c r="H5" s="2">
-        <v>452.64</v>
+        <v>287083.16</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>501.46</v>
+        <v>676.91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -646,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>52</v>
+        <v>557</v>
       </c>
       <c r="D6" s="2">
-        <v>20080.83</v>
+        <v>228932.64</v>
       </c>
       <c r="E6" s="2">
-        <v>386.17</v>
+        <v>411.01</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>86.17</v>
+        <v>111.01</v>
       </c>
       <c r="H6" s="2">
-        <v>4480.84</v>
+        <v>61832.57</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>741</v>
+        <v>712.24</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -678,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2">
-        <v>1523.87</v>
+        <v>30674.32</v>
       </c>
       <c r="E7" s="2">
-        <v>380.97</v>
+        <v>378.7</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>80.97</v>
+        <v>78.7</v>
       </c>
       <c r="H7" s="2">
-        <v>323.88</v>
+        <v>6374.7</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="2">
-        <v>780</v>
+        <v>685.69</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -710,28 +674,28 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>17</v>
+        <v>930</v>
       </c>
       <c r="D8" s="2">
-        <v>4145.9</v>
+        <v>435271.92</v>
       </c>
       <c r="E8" s="2">
-        <v>243.88</v>
+        <v>468.03</v>
       </c>
       <c r="F8" s="2">
         <v>300</v>
       </c>
       <c r="G8" s="2">
-        <v>-56.12</v>
+        <v>168.03</v>
       </c>
       <c r="H8" s="2">
-        <v>-954.04</v>
+        <v>156267.9</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="2">
-        <v>935.29</v>
+        <v>825.32</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -742,28 +706,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>725</v>
       </c>
       <c r="D9" s="2">
-        <v>1588.88</v>
+        <v>341310.15</v>
       </c>
       <c r="E9" s="2">
-        <v>529.63</v>
+        <v>470.77</v>
       </c>
       <c r="F9" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>229.63</v>
+        <v>120.77</v>
       </c>
       <c r="H9" s="2">
-        <v>688.89</v>
+        <v>87558.25</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="2">
-        <v>1001</v>
+        <v>821.34</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -774,28 +738,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="D10" s="2">
-        <v>18705.76</v>
+        <v>92761.17</v>
       </c>
       <c r="E10" s="2">
-        <v>519.6</v>
+        <v>441.72</v>
       </c>
       <c r="F10" s="2">
         <v>350</v>
       </c>
       <c r="G10" s="2">
-        <v>169.6</v>
+        <v>91.72</v>
       </c>
       <c r="H10" s="2">
-        <v>6105.6</v>
+        <v>19261.2</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="2">
-        <v>983.69</v>
+        <v>820.33</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -806,28 +770,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2">
-        <v>12157.97</v>
+        <v>28644.12</v>
       </c>
       <c r="E11" s="2">
-        <v>506.58</v>
+        <v>716.1</v>
       </c>
       <c r="F11" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="G11" s="2">
-        <v>156.58</v>
+        <v>316.1</v>
       </c>
       <c r="H11" s="2">
-        <v>3757.92</v>
+        <v>12644</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2">
-        <v>999.25</v>
+        <v>1394.4</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -835,31 +799,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2">
+        <v>21770.55</v>
+      </c>
+      <c r="E12" s="2">
+        <v>659.71</v>
+      </c>
+      <c r="F12" s="2">
+        <v>450</v>
+      </c>
+      <c r="G12" s="2">
+        <v>209.71</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6920.43</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2">
-        <v>24215.01</v>
-      </c>
-      <c r="E12" s="2">
-        <v>781.13</v>
-      </c>
-      <c r="F12" s="2">
-        <v>400</v>
-      </c>
-      <c r="G12" s="2">
-        <v>381.13</v>
-      </c>
-      <c r="H12" s="2">
-        <v>11815.03</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J12" s="2">
-        <v>1585.52</v>
+        <v>1490.33</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -870,28 +834,28 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2">
-        <v>6344.26</v>
+        <v>17290.3</v>
       </c>
       <c r="E13" s="2">
-        <v>704.92</v>
+        <v>823.35</v>
       </c>
       <c r="F13" s="2">
         <v>450</v>
       </c>
       <c r="G13" s="2">
-        <v>254.92</v>
+        <v>373.35</v>
       </c>
       <c r="H13" s="2">
-        <v>2294.28</v>
+        <v>7840.35</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="2">
-        <v>1457.56</v>
+        <v>1460.14</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -902,28 +866,28 @@
         <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2">
-        <v>12226.5</v>
+        <v>48586.87</v>
       </c>
       <c r="E14" s="2">
-        <v>643.5</v>
+        <v>545.92</v>
       </c>
       <c r="F14" s="2">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>193.5</v>
+        <v>295.92</v>
       </c>
       <c r="H14" s="2">
-        <v>3676.5</v>
+        <v>26336.88</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2">
-        <v>1380.21</v>
+        <v>862.22</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -931,31 +895,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="D15" s="2">
-        <v>5210.39</v>
+        <v>36407.04</v>
       </c>
       <c r="E15" s="2">
-        <v>578.93</v>
+        <v>350.07</v>
       </c>
       <c r="F15" s="2">
         <v>250</v>
       </c>
       <c r="G15" s="2">
-        <v>328.93</v>
+        <v>100.07</v>
       </c>
       <c r="H15" s="2">
-        <v>2960.37</v>
+        <v>10407.28</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2">
-        <v>945.78</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -963,121 +927,127 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2">
-        <v>1865.01</v>
+        <v>28210.27</v>
       </c>
       <c r="E16" s="2">
-        <v>373</v>
+        <v>1226.53</v>
       </c>
       <c r="F16" s="2">
-        <v>250</v>
+        <v>780</v>
       </c>
       <c r="G16" s="2">
-        <v>123</v>
+        <v>446.53</v>
       </c>
       <c r="H16" s="2">
-        <v>615</v>
+        <v>10270.19</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2">
-        <v>650</v>
+        <v>1789.04</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
-        <v>7245</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>162</v>
+      </c>
       <c r="D17" s="2">
-        <v>-2.44</v>
+        <v>221794.41</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1369.1</v>
       </c>
       <c r="F17" s="2">
-        <v>105</v>
+        <v>960</v>
       </c>
       <c r="G17" s="2">
-        <v>-105</v>
+        <v>409.1</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>66274.2</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>2047.31</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="2">
-        <v>7260</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <v>55</v>
+      </c>
       <c r="D18" s="2">
-        <v>-18.04</v>
+        <v>70963.82</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>1290.25</v>
       </c>
       <c r="F18" s="2">
-        <v>115</v>
+        <v>920</v>
       </c>
       <c r="G18" s="2">
-        <v>-115</v>
+        <v>370.25</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>20363.75</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="2">
-        <v>7280</v>
-      </c>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2">
+        <v>73</v>
+      </c>
       <c r="D19" s="2">
-        <v>-1142.36</v>
+        <v>110540.9</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>1514.26</v>
       </c>
       <c r="F19" s="2">
-        <v>130</v>
+        <v>1160</v>
       </c>
       <c r="G19" s="2">
-        <v>-130</v>
+        <v>354.26</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>25860.98</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J19" s="2">
-        <v>0</v>
+        <v>2247.51</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1085,31 +1055,31 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2">
-        <v>51537.39</v>
+        <v>117796.9</v>
       </c>
       <c r="E20" s="2">
-        <v>972.4</v>
+        <v>1369.73</v>
       </c>
       <c r="F20" s="2">
-        <v>780</v>
+        <v>1050</v>
       </c>
       <c r="G20" s="2">
-        <v>192.4</v>
+        <v>319.73</v>
       </c>
       <c r="H20" s="2">
-        <v>10197.2</v>
+        <v>27496.78</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J20" s="2">
-        <v>1750</v>
+        <v>1974.41</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1117,466 +1087,84 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
+        <v>116</v>
+      </c>
+      <c r="D21" s="2">
+        <v>199310.4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1718.19</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1350</v>
+      </c>
+      <c r="G21" s="2">
+        <v>368.19</v>
+      </c>
+      <c r="H21" s="2">
+        <v>42710.04</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2476.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>2782848.74</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>875502.66</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="2">
-        <v>42619.26</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1217.69</v>
-      </c>
-      <c r="F21" s="2">
-        <v>960</v>
-      </c>
-      <c r="G21" s="2">
-        <v>257.69</v>
-      </c>
-      <c r="H21" s="2">
-        <v>9019.15</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="2">
-        <v>2099.77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2">
-        <v>17462.74</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1091.42</v>
-      </c>
-      <c r="F22" s="2">
-        <v>920</v>
-      </c>
-      <c r="G22" s="2">
-        <v>171.42</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2742.72</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2">
-        <v>8</v>
-      </c>
       <c r="D23" s="2">
-        <v>11254.35</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1406.79</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1160</v>
-      </c>
-      <c r="G23" s="2">
-        <v>246.79</v>
+        <v>2782848.74</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="H23" s="2">
-        <v>1974.32</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="2">
-        <v>2300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <v>-20.71</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1050</v>
-      </c>
-      <c r="G24" s="2">
-        <v>-1050</v>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="2">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2">
-        <v>29801.86</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1753.05</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1350</v>
-      </c>
-      <c r="G25" s="2">
-        <v>403.05</v>
-      </c>
-      <c r="H25" s="2">
-        <v>6851.85</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="2">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="2">
-        <v>17</v>
-      </c>
-      <c r="D26" s="2">
-        <v>25902.22</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1523.66</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1040</v>
-      </c>
-      <c r="G26" s="2">
-        <v>483.66</v>
-      </c>
-      <c r="H26" s="2">
-        <v>8222.22</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="2">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2">
-        <v>18383.19</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1838.32</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1380</v>
-      </c>
-      <c r="G27" s="2">
-        <v>458.32</v>
-      </c>
-      <c r="H27" s="2">
-        <v>4583.2</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="2">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="2">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1666.7</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1666.7</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1680</v>
-      </c>
-      <c r="G28" s="2">
-        <v>-13.3</v>
-      </c>
-      <c r="H28" s="2">
-        <v>-13.3</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="2">
-        <v>2964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="2">
-        <v>32</v>
-      </c>
-      <c r="D29" s="2">
-        <v>15960.47</v>
-      </c>
-      <c r="E29" s="2">
-        <v>498.76</v>
-      </c>
-      <c r="F29" s="2">
-        <v>250</v>
-      </c>
-      <c r="G29" s="2">
-        <v>248.76</v>
-      </c>
-      <c r="H29" s="2">
-        <v>7960.32</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="2">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="2">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="2">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2">
-        <v>13177.73</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2196.29</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G30" s="2">
-        <v>196.29</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1177.74</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="2">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="2">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="2">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2">
-        <v>34733.69</v>
-      </c>
-      <c r="E31" s="2">
-        <v>3859.3</v>
-      </c>
-      <c r="F31" s="2">
-        <v>3000</v>
-      </c>
-      <c r="G31" s="2">
-        <v>859.3</v>
-      </c>
-      <c r="H31" s="2">
-        <v>7733.7</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" s="2">
-        <v>5781</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="2">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>13193.98</v>
-      </c>
-      <c r="E32" s="2">
-        <v>13193.98</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="2">
-        <v>17850</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1656.65</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1656.65</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="2">
-        <v>2773</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3">
-        <v>396183.84</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3">
-        <v>96666.03</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="2">
-        <v>396183.84</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="2">
-        <v>96666.03</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+        <v>875502.66</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
-  <si>
-    <t>OZON ООО АНМАКС</t>
-  </si>
-  <si>
-    <t>Дата начала: 2024-04-01 ; Дата окончания : 2024-04-30</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+  <si>
+    <t>OZON ИП ЗЕЛ</t>
+  </si>
+  <si>
+    <t>Дата начала: 2024-05-01 ; Дата окончания : 2024-05-31</t>
   </si>
   <si>
     <t>пп</t>
@@ -51,6 +51,75 @@
   </si>
   <si>
     <t>Средняя цена на маркете</t>
+  </si>
+  <si>
+    <t>82400-ч</t>
+  </si>
+  <si>
+    <t>420x420x120</t>
+  </si>
+  <si>
+    <t>82400-к</t>
+  </si>
+  <si>
+    <t>82400-з</t>
+  </si>
+  <si>
+    <t>82401-ч</t>
+  </si>
+  <si>
+    <t>550x550x140</t>
+  </si>
+  <si>
+    <t>82401-к</t>
+  </si>
+  <si>
+    <t>82401-з</t>
+  </si>
+  <si>
+    <t>82402-ч</t>
+  </si>
+  <si>
+    <t>600x600x180</t>
+  </si>
+  <si>
+    <t>82402-к</t>
+  </si>
+  <si>
+    <t>82402-з</t>
+  </si>
+  <si>
+    <t>1840-30</t>
+  </si>
+  <si>
+    <t>280x110x110</t>
+  </si>
+  <si>
+    <t>1940-10</t>
+  </si>
+  <si>
+    <t>250x40x25</t>
+  </si>
+  <si>
+    <t>7280-к-6</t>
+  </si>
+  <si>
+    <t>1010x280x90</t>
+  </si>
+  <si>
+    <t>7280-к-6-18</t>
+  </si>
+  <si>
+    <t>7260-к-8</t>
+  </si>
+  <si>
+    <t>7260-К-8-24</t>
+  </si>
+  <si>
+    <t>7245-к-10</t>
+  </si>
+  <si>
+    <t>7245-к-10-30</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -131,10 +200,10 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -439,7 +508,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -502,56 +571,600 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1862</v>
+      </c>
       <c r="D5" s="2">
+        <v>752582.96</v>
+      </c>
+      <c r="E5" s="2">
+        <v>404.18</v>
+      </c>
+      <c r="F5" s="2">
+        <v>250</v>
+      </c>
+      <c r="G5" s="2">
+        <v>154.18</v>
+      </c>
+      <c r="H5" s="2">
+        <v>287083.16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2">
+        <v>676.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>557</v>
+      </c>
+      <c r="D6" s="2">
+        <v>228932.64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>411.01</v>
+      </c>
+      <c r="F6" s="2">
+        <v>300</v>
+      </c>
+      <c r="G6" s="2">
+        <v>111.01</v>
+      </c>
+      <c r="H6" s="2">
+        <v>61832.57</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2">
+        <v>712.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>81</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30674.32</v>
+      </c>
+      <c r="E7" s="2">
+        <v>378.7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>300</v>
+      </c>
+      <c r="G7" s="2">
+        <v>78.7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6374.7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2">
+        <v>685.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>930</v>
+      </c>
+      <c r="D8" s="2">
+        <v>435271.92</v>
+      </c>
+      <c r="E8" s="2">
+        <v>468.03</v>
+      </c>
+      <c r="F8" s="2">
+        <v>300</v>
+      </c>
+      <c r="G8" s="2">
+        <v>168.03</v>
+      </c>
+      <c r="H8" s="2">
+        <v>156267.9</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2">
+        <v>825.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>725</v>
+      </c>
+      <c r="D9" s="2">
+        <v>341310.15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>470.77</v>
+      </c>
+      <c r="F9" s="2">
+        <v>350</v>
+      </c>
+      <c r="G9" s="2">
+        <v>120.77</v>
+      </c>
+      <c r="H9" s="2">
+        <v>87558.25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2">
+        <v>821.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>210</v>
+      </c>
+      <c r="D10" s="2">
+        <v>92761.17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>441.72</v>
+      </c>
+      <c r="F10" s="2">
+        <v>350</v>
+      </c>
+      <c r="G10" s="2">
+        <v>91.72</v>
+      </c>
+      <c r="H10" s="2">
+        <v>19261.2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2">
+        <v>820.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2">
+        <v>28644.12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>716.1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>400</v>
+      </c>
+      <c r="G11" s="2">
+        <v>316.1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>12644</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1394.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2">
+        <v>21770.55</v>
+      </c>
+      <c r="E12" s="2">
+        <v>659.71</v>
+      </c>
+      <c r="F12" s="2">
+        <v>450</v>
+      </c>
+      <c r="G12" s="2">
+        <v>209.71</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6920.43</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1490.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17290.3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>823.35</v>
+      </c>
+      <c r="F13" s="2">
+        <v>450</v>
+      </c>
+      <c r="G13" s="2">
+        <v>373.35</v>
+      </c>
+      <c r="H13" s="2">
+        <v>7840.35</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1460.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2">
+        <v>89</v>
+      </c>
+      <c r="D14" s="2">
+        <v>48586.87</v>
+      </c>
+      <c r="E14" s="2">
+        <v>545.92</v>
+      </c>
+      <c r="F14" s="2">
+        <v>250</v>
+      </c>
+      <c r="G14" s="2">
+        <v>295.92</v>
+      </c>
+      <c r="H14" s="2">
+        <v>26336.88</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2">
+        <v>862.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>104</v>
+      </c>
+      <c r="D15" s="2">
+        <v>36407.04</v>
+      </c>
+      <c r="E15" s="2">
+        <v>350.07</v>
+      </c>
+      <c r="F15" s="2">
+        <v>250</v>
+      </c>
+      <c r="G15" s="2">
+        <v>100.07</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10407.28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2">
+        <v>28210.27</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1226.53</v>
+      </c>
+      <c r="F16" s="2">
+        <v>780</v>
+      </c>
+      <c r="G16" s="2">
+        <v>446.53</v>
+      </c>
+      <c r="H16" s="2">
+        <v>10270.19</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1789.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>162</v>
+      </c>
+      <c r="D17" s="2">
+        <v>221794.41</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1369.1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>960</v>
+      </c>
+      <c r="G17" s="2">
+        <v>409.1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>66274.2</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2047.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2">
+        <v>70963.82</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1290.25</v>
+      </c>
+      <c r="F18" s="2">
+        <v>920</v>
+      </c>
+      <c r="G18" s="2">
+        <v>370.25</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20363.75</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2">
+        <v>110540.9</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1514.26</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1160</v>
+      </c>
+      <c r="G19" s="2">
+        <v>354.26</v>
+      </c>
+      <c r="H19" s="2">
+        <v>25860.98</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2247.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>86</v>
+      </c>
+      <c r="D20" s="2">
+        <v>117796.9</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1369.73</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1050</v>
+      </c>
+      <c r="G20" s="2">
+        <v>319.73</v>
+      </c>
+      <c r="H20" s="2">
+        <v>27496.78</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1974.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2">
+        <v>116</v>
+      </c>
+      <c r="D21" s="2">
+        <v>199310.4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1718.19</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1350</v>
+      </c>
+      <c r="G21" s="2">
+        <v>368.19</v>
+      </c>
+      <c r="H21" s="2">
+        <v>42710.04</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2476.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>2782848.74</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>875502.66</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2782848.74</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="2">
+        <v>875502.66</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
-  <si>
-    <t>OZON ИП ЗЕЛ</t>
-  </si>
-  <si>
-    <t>Дата начала: 2024-05-01 ; Дата окончания : 2024-05-31</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+  <si>
+    <t>OZON ООО АНМАКС</t>
+  </si>
+  <si>
+    <t>Дата начала: 2024-06-16 ; Дата окончания : 2024-06-19</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,40 +53,34 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-ч</t>
+    <t>82400-Ч</t>
   </si>
   <si>
     <t>420x420x120</t>
   </si>
   <si>
-    <t>82400-к</t>
-  </si>
-  <si>
-    <t>82400-з</t>
-  </si>
-  <si>
-    <t>82401-ч</t>
+    <t>82400-К</t>
+  </si>
+  <si>
+    <t>82401-чн</t>
   </si>
   <si>
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-к</t>
-  </si>
-  <si>
-    <t>82401-з</t>
-  </si>
-  <si>
-    <t>82402-ч</t>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>82401-З</t>
+  </si>
+  <si>
+    <t>82402-Ч</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
-    <t>82402-к</t>
-  </si>
-  <si>
-    <t>82402-з</t>
+    <t>82402-К</t>
   </si>
   <si>
     <t>1840-30</t>
@@ -101,25 +95,52 @@
     <t>250x40x25</t>
   </si>
   <si>
-    <t>7280-к-6</t>
+    <t>7280-К-6</t>
   </si>
   <si>
     <t>1010x280x90</t>
   </si>
   <si>
-    <t>7280-к-6-18</t>
-  </si>
-  <si>
-    <t>7260-к-8</t>
+    <t>7280-К-6-18</t>
+  </si>
+  <si>
+    <t>7260-К-8</t>
   </si>
   <si>
     <t>7260-К-8-24</t>
   </si>
   <si>
-    <t>7245-к-10</t>
-  </si>
-  <si>
-    <t>7245-к-10-30</t>
+    <t>7245-К-10</t>
+  </si>
+  <si>
+    <t>7245-К-10-30</t>
+  </si>
+  <si>
+    <t>7260-К-12</t>
+  </si>
+  <si>
+    <t>0x0x0</t>
+  </si>
+  <si>
+    <t>7262-КП</t>
+  </si>
+  <si>
+    <t>1010x150x150</t>
+  </si>
+  <si>
+    <t>8910-30</t>
+  </si>
+  <si>
+    <t>ANM.39*59</t>
+  </si>
+  <si>
+    <t>600x400x30</t>
+  </si>
+  <si>
+    <t>ANM.49*99</t>
+  </si>
+  <si>
+    <t>1000x500x30</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -508,7 +529,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -578,28 +599,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>1862</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2">
-        <v>752582.96</v>
+        <v>32301.16</v>
       </c>
       <c r="E5" s="2">
-        <v>404.18</v>
+        <v>398.78</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>154.18</v>
+        <v>148.78</v>
       </c>
       <c r="H5" s="2">
-        <v>287083.16</v>
+        <v>12051.18</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>676.91</v>
+        <v>711.62</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -610,28 +631,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>557</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>228932.64</v>
+        <v>7316.21</v>
       </c>
       <c r="E6" s="2">
-        <v>411.01</v>
+        <v>365.81</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>111.01</v>
+        <v>65.81</v>
       </c>
       <c r="H6" s="2">
-        <v>61832.57</v>
+        <v>1316.2</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>712.24</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -642,28 +663,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2">
-        <v>30674.32</v>
+        <v>37300.5</v>
       </c>
       <c r="E7" s="2">
-        <v>378.7</v>
+        <v>540.59</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>78.7</v>
+        <v>240.59</v>
       </c>
       <c r="H7" s="2">
-        <v>6374.7</v>
+        <v>16600.71</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>685.69</v>
+        <v>959.84</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -671,31 +692,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>105</v>
+      </c>
+      <c r="D8" s="2">
+        <v>58067.18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>553.02</v>
+      </c>
+      <c r="F8" s="2">
+        <v>350</v>
+      </c>
+      <c r="G8" s="2">
+        <v>203.02</v>
+      </c>
+      <c r="H8" s="2">
+        <v>21317.1</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
-        <v>930</v>
-      </c>
-      <c r="D8" s="2">
-        <v>435271.92</v>
-      </c>
-      <c r="E8" s="2">
-        <v>468.03</v>
-      </c>
-      <c r="F8" s="2">
-        <v>300</v>
-      </c>
-      <c r="G8" s="2">
-        <v>168.03</v>
-      </c>
-      <c r="H8" s="2">
-        <v>156267.9</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="J8" s="2">
-        <v>825.32</v>
+        <v>1014.1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -706,28 +727,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>725</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2">
-        <v>341310.15</v>
+        <v>22872.06</v>
       </c>
       <c r="E9" s="2">
-        <v>470.77</v>
+        <v>497.22</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>120.77</v>
+        <v>147.22</v>
       </c>
       <c r="H9" s="2">
-        <v>87558.25</v>
+        <v>6772.12</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>821.34</v>
+        <v>932.61</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -738,28 +759,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>92761.17</v>
+        <v>1747.74</v>
       </c>
       <c r="E10" s="2">
-        <v>441.72</v>
+        <v>873.87</v>
       </c>
       <c r="F10" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="G10" s="2">
-        <v>91.72</v>
+        <v>473.87</v>
       </c>
       <c r="H10" s="2">
-        <v>19261.2</v>
+        <v>947.74</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2">
-        <v>820.33</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -767,31 +788,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1917.14</v>
+      </c>
+      <c r="E11" s="2">
+        <v>479.29</v>
+      </c>
+      <c r="F11" s="2">
+        <v>450</v>
+      </c>
+      <c r="G11" s="2">
+        <v>29.29</v>
+      </c>
+      <c r="H11" s="2">
+        <v>117.16</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2">
-        <v>28644.12</v>
-      </c>
-      <c r="E11" s="2">
-        <v>716.1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>400</v>
-      </c>
-      <c r="G11" s="2">
-        <v>316.1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>12644</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="J11" s="2">
-        <v>1394.4</v>
+        <v>1577.25</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -802,28 +823,28 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
-        <v>21770.55</v>
+        <v>7842.63</v>
       </c>
       <c r="E12" s="2">
-        <v>659.71</v>
+        <v>522.84</v>
       </c>
       <c r="F12" s="2">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="G12" s="2">
-        <v>209.71</v>
+        <v>272.84</v>
       </c>
       <c r="H12" s="2">
-        <v>6920.43</v>
+        <v>4092.6</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2">
-        <v>1490.33</v>
+        <v>823.33</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -831,31 +852,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>17290.3</v>
+        <v>4252.3</v>
       </c>
       <c r="E13" s="2">
-        <v>823.35</v>
+        <v>354.36</v>
       </c>
       <c r="F13" s="2">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>373.35</v>
+        <v>104.36</v>
       </c>
       <c r="H13" s="2">
-        <v>7840.35</v>
+        <v>1252.32</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J13" s="2">
-        <v>1460.14</v>
+        <v>653.42</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -863,31 +884,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
-        <v>48586.87</v>
+        <v>36409.59</v>
       </c>
       <c r="E14" s="2">
-        <v>545.92</v>
+        <v>1174.5</v>
       </c>
       <c r="F14" s="2">
-        <v>250</v>
+        <v>780</v>
       </c>
       <c r="G14" s="2">
-        <v>295.92</v>
+        <v>394.5</v>
       </c>
       <c r="H14" s="2">
-        <v>26336.88</v>
+        <v>12229.5</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2">
-        <v>862.22</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -895,31 +916,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2">
-        <v>36407.04</v>
+        <v>15583.74</v>
       </c>
       <c r="E15" s="2">
-        <v>350.07</v>
+        <v>1298.65</v>
       </c>
       <c r="F15" s="2">
-        <v>250</v>
+        <v>960</v>
       </c>
       <c r="G15" s="2">
-        <v>100.07</v>
+        <v>338.65</v>
       </c>
       <c r="H15" s="2">
-        <v>10407.28</v>
+        <v>4063.8</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="2">
-        <v>594</v>
+        <v>2184.17</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -927,31 +948,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
-        <v>28210.27</v>
+        <v>24401.16</v>
       </c>
       <c r="E16" s="2">
-        <v>1226.53</v>
+        <v>1355.62</v>
       </c>
       <c r="F16" s="2">
-        <v>780</v>
+        <v>920</v>
       </c>
       <c r="G16" s="2">
-        <v>446.53</v>
+        <v>435.62</v>
       </c>
       <c r="H16" s="2">
-        <v>10270.19</v>
+        <v>7841.16</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2">
-        <v>1789.04</v>
+        <v>2158.33</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -962,28 +983,28 @@
         <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
-        <v>221794.41</v>
+        <v>31791.47</v>
       </c>
       <c r="E17" s="2">
-        <v>1369.1</v>
+        <v>1513.88</v>
       </c>
       <c r="F17" s="2">
-        <v>960</v>
+        <v>1160</v>
       </c>
       <c r="G17" s="2">
-        <v>409.1</v>
+        <v>353.88</v>
       </c>
       <c r="H17" s="2">
-        <v>66274.2</v>
+        <v>7431.48</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J17" s="2">
-        <v>2047.31</v>
+        <v>2410.95</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -994,28 +1015,28 @@
         <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2">
-        <v>70963.82</v>
+        <v>10115.9</v>
       </c>
       <c r="E18" s="2">
-        <v>1290.25</v>
+        <v>1685.98</v>
       </c>
       <c r="F18" s="2">
-        <v>920</v>
+        <v>1050</v>
       </c>
       <c r="G18" s="2">
-        <v>370.25</v>
+        <v>635.98</v>
       </c>
       <c r="H18" s="2">
-        <v>20363.75</v>
+        <v>3815.88</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J18" s="2">
-        <v>1881</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1026,28 +1047,28 @@
         <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
-        <v>110540.9</v>
+        <v>36003.33</v>
       </c>
       <c r="E19" s="2">
-        <v>1514.26</v>
+        <v>1800.17</v>
       </c>
       <c r="F19" s="2">
-        <v>1160</v>
+        <v>1350</v>
       </c>
       <c r="G19" s="2">
-        <v>354.26</v>
+        <v>450.17</v>
       </c>
       <c r="H19" s="2">
-        <v>25860.98</v>
+        <v>9003.4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J19" s="2">
-        <v>2247.51</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1057,29 +1078,27 @@
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2">
-        <v>86</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>117796.9</v>
+        <v>-25.63</v>
       </c>
       <c r="E20" s="2">
-        <v>1369.73</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1050</v>
+        <v>1380</v>
       </c>
       <c r="G20" s="2">
-        <v>319.73</v>
+        <v>-1380</v>
       </c>
       <c r="H20" s="2">
-        <v>27496.78</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J20" s="2">
-        <v>1974.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1087,84 +1106,176 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2">
-        <v>116</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <v>199310.4</v>
+        <v>107.98</v>
       </c>
       <c r="E21" s="2">
-        <v>1718.19</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>1350</v>
+        <v>650</v>
       </c>
       <c r="G21" s="2">
-        <v>368.19</v>
+        <v>-650</v>
       </c>
       <c r="H21" s="2">
-        <v>42710.04</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J21" s="2">
-        <v>2476.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <v>2782848.74</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <v>875502.66</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9317.93</v>
+      </c>
+      <c r="E22" s="2">
+        <v>517.66</v>
+      </c>
+      <c r="F22" s="2">
+        <v>250</v>
+      </c>
+      <c r="G22" s="2">
+        <v>267.66</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4817.88</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="2">
+        <v>828</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1" t="s">
-        <v>35</v>
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>2782848.74</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>36</v>
+        <v>4758.46</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2379.23</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="2">
+        <v>379.23</v>
       </c>
       <c r="H23" s="2">
+        <v>758.46</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>-153.93</v>
+      </c>
+      <c r="E24" s="2">
         <v>0</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1" t="s">
-        <v>37</v>
+      <c r="F24" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-3000</v>
       </c>
       <c r="H24" s="2">
-        <v>875502.66</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>341926.92</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>114428.69</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2">
+        <v>341926.92</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="2">
+        <v>114428.69</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>OZON ООО АНМАКС</t>
   </si>
   <si>
-    <t>Дата начала: 2024-06-16 ; Дата окончания : 2024-06-19</t>
+    <t>Дата начала: 2024-07-01 ; Дата окончания : 2024-07-24</t>
   </si>
   <si>
     <t>пп</t>
@@ -83,6 +83,9 @@
     <t>82402-К</t>
   </si>
   <si>
+    <t>82402-З</t>
+  </si>
+  <si>
     <t>1840-30</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
   </si>
   <si>
     <t>1000x500x30</t>
+  </si>
+  <si>
+    <t>SKU = 1620799676</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -529,7 +535,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -599,28 +605,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>81</v>
+        <v>596</v>
       </c>
       <c r="D5" s="2">
-        <v>32301.16</v>
+        <v>223824.26</v>
       </c>
       <c r="E5" s="2">
-        <v>398.78</v>
+        <v>375.54</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>148.78</v>
+        <v>125.54</v>
       </c>
       <c r="H5" s="2">
-        <v>12051.18</v>
+        <v>74821.84</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>711.62</v>
+        <v>756.31</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -630,29 +636,27 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2">
-        <v>20</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>7316.21</v>
+        <v>-1341</v>
       </c>
       <c r="E6" s="2">
-        <v>365.81</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>65.81</v>
+        <v>-300</v>
       </c>
       <c r="H6" s="2">
-        <v>1316.2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -663,28 +667,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>69</v>
+        <v>1026</v>
       </c>
       <c r="D7" s="2">
-        <v>37300.5</v>
+        <v>513357.81</v>
       </c>
       <c r="E7" s="2">
-        <v>540.59</v>
+        <v>500.35</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>240.59</v>
+        <v>200.35</v>
       </c>
       <c r="H7" s="2">
-        <v>16600.71</v>
+        <v>205559.1</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>959.84</v>
+        <v>977.02</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -695,28 +699,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>105</v>
+        <v>523</v>
       </c>
       <c r="D8" s="2">
-        <v>58067.18</v>
+        <v>237609.91</v>
       </c>
       <c r="E8" s="2">
-        <v>553.02</v>
+        <v>454.32</v>
       </c>
       <c r="F8" s="2">
         <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>203.02</v>
+        <v>104.32</v>
       </c>
       <c r="H8" s="2">
-        <v>21317.1</v>
+        <v>54559.36</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>1014.1</v>
+        <v>983.87</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -727,28 +731,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>22872.06</v>
+        <v>542.88</v>
       </c>
       <c r="E9" s="2">
-        <v>497.22</v>
+        <v>542.88</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>147.22</v>
+        <v>192.88</v>
       </c>
       <c r="H9" s="2">
-        <v>6772.12</v>
+        <v>192.88</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>932.61</v>
+        <v>975</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -759,28 +763,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>1747.74</v>
+        <v>4662.65</v>
       </c>
       <c r="E10" s="2">
-        <v>873.87</v>
+        <v>666.09</v>
       </c>
       <c r="F10" s="2">
         <v>400</v>
       </c>
       <c r="G10" s="2">
-        <v>473.87</v>
+        <v>266.09</v>
       </c>
       <c r="H10" s="2">
-        <v>947.74</v>
+        <v>1862.63</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="2">
-        <v>1750</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -791,28 +795,28 @@
         <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
-        <v>1917.14</v>
+        <v>11460.38</v>
       </c>
       <c r="E11" s="2">
-        <v>479.29</v>
+        <v>818.6</v>
       </c>
       <c r="F11" s="2">
         <v>450</v>
       </c>
       <c r="G11" s="2">
-        <v>29.29</v>
+        <v>368.6</v>
       </c>
       <c r="H11" s="2">
-        <v>117.16</v>
+        <v>5160.4</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="2">
-        <v>1577.25</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -822,29 +826,27 @@
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2">
-        <v>15</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>7842.63</v>
+        <v>-16.64</v>
       </c>
       <c r="E12" s="2">
-        <v>522.84</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>272.84</v>
+        <v>-450</v>
       </c>
       <c r="H12" s="2">
-        <v>4092.6</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
-        <v>823.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -852,31 +854,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2">
-        <v>4252.3</v>
+        <v>66582.13</v>
       </c>
       <c r="E13" s="2">
-        <v>354.36</v>
+        <v>569.08</v>
       </c>
       <c r="F13" s="2">
         <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>104.36</v>
+        <v>319.08</v>
       </c>
       <c r="H13" s="2">
-        <v>1252.32</v>
+        <v>37332.36</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2">
-        <v>653.42</v>
+        <v>947.7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -884,31 +886,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>141</v>
+      </c>
+      <c r="D14" s="2">
+        <v>54102.37</v>
+      </c>
+      <c r="E14" s="2">
+        <v>383.7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>250</v>
+      </c>
+      <c r="G14" s="2">
+        <v>133.7</v>
+      </c>
+      <c r="H14" s="2">
+        <v>18851.7</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2">
-        <v>36409.59</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1174.5</v>
-      </c>
-      <c r="F14" s="2">
-        <v>780</v>
-      </c>
-      <c r="G14" s="2">
-        <v>394.5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>12229.5</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J14" s="2">
-        <v>1930</v>
+        <v>669.81</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -916,31 +918,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <v>185</v>
+      </c>
+      <c r="D15" s="2">
+        <v>201424.27</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1088.78</v>
+      </c>
+      <c r="F15" s="2">
+        <v>780</v>
+      </c>
+      <c r="G15" s="2">
+        <v>308.78</v>
+      </c>
+      <c r="H15" s="2">
+        <v>57124.3</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2">
-        <v>15583.74</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1298.65</v>
-      </c>
-      <c r="F15" s="2">
-        <v>960</v>
-      </c>
-      <c r="G15" s="2">
-        <v>338.65</v>
-      </c>
-      <c r="H15" s="2">
-        <v>4063.8</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J15" s="2">
-        <v>2184.17</v>
+        <v>2042.69</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -951,28 +953,28 @@
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="D16" s="2">
-        <v>24401.16</v>
+        <v>277053.74</v>
       </c>
       <c r="E16" s="2">
-        <v>1355.62</v>
+        <v>1265.09</v>
       </c>
       <c r="F16" s="2">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="G16" s="2">
-        <v>435.62</v>
+        <v>305.09</v>
       </c>
       <c r="H16" s="2">
-        <v>7841.16</v>
+        <v>66814.71</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2">
-        <v>2158.33</v>
+        <v>2260.58</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -983,28 +985,28 @@
         <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2">
-        <v>31791.47</v>
+        <v>106039.76</v>
       </c>
       <c r="E17" s="2">
-        <v>1513.88</v>
+        <v>1247.53</v>
       </c>
       <c r="F17" s="2">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="G17" s="2">
-        <v>353.88</v>
+        <v>327.53</v>
       </c>
       <c r="H17" s="2">
-        <v>7431.48</v>
+        <v>27840.05</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J17" s="2">
-        <v>2410.95</v>
+        <v>2248.94</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1015,28 +1017,28 @@
         <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>6</v>
+        <v>238</v>
       </c>
       <c r="D18" s="2">
-        <v>10115.9</v>
+        <v>331099.85</v>
       </c>
       <c r="E18" s="2">
-        <v>1685.98</v>
+        <v>1391.18</v>
       </c>
       <c r="F18" s="2">
-        <v>1050</v>
+        <v>1160</v>
       </c>
       <c r="G18" s="2">
-        <v>635.98</v>
+        <v>231.18</v>
       </c>
       <c r="H18" s="2">
-        <v>3815.88</v>
+        <v>55020.84</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J18" s="2">
-        <v>2650</v>
+        <v>2463.95</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1047,28 +1049,28 @@
         <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2">
-        <v>36003.33</v>
+        <v>90053.33</v>
       </c>
       <c r="E19" s="2">
-        <v>1800.17</v>
+        <v>1526.33</v>
       </c>
       <c r="F19" s="2">
-        <v>1350</v>
+        <v>1050</v>
       </c>
       <c r="G19" s="2">
-        <v>450.17</v>
+        <v>476.33</v>
       </c>
       <c r="H19" s="2">
-        <v>9003.4</v>
+        <v>28103.47</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J19" s="2">
-        <v>2768</v>
+        <v>2648.17</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1078,27 +1080,29 @@
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>181</v>
+      </c>
       <c r="D20" s="2">
-        <v>-25.63</v>
+        <v>293576.65</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>1621.97</v>
       </c>
       <c r="F20" s="2">
-        <v>1380</v>
+        <v>1350</v>
       </c>
       <c r="G20" s="2">
-        <v>-1380</v>
+        <v>271.97</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>49226.57</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>2854.5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1106,26 +1110,26 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <v>107.98</v>
+        <v>-1045.31</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>650</v>
+        <v>1380</v>
       </c>
       <c r="G21" s="2">
-        <v>-650</v>
+        <v>-1380</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -1136,31 +1140,31 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2">
         <v>37</v>
       </c>
-      <c r="C22" s="2">
-        <v>18</v>
-      </c>
       <c r="D22" s="2">
-        <v>9317.93</v>
+        <v>29192.72</v>
       </c>
       <c r="E22" s="2">
-        <v>517.66</v>
+        <v>788.99</v>
       </c>
       <c r="F22" s="2">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="G22" s="2">
-        <v>267.66</v>
+        <v>138.99</v>
       </c>
       <c r="H22" s="2">
-        <v>4817.88</v>
+        <v>5142.63</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J22" s="2">
-        <v>828</v>
+        <v>1598.97</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1171,28 +1175,28 @@
         <v>38</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2">
-        <v>4758.46</v>
+        <v>65977.8</v>
       </c>
       <c r="E23" s="2">
-        <v>2379.23</v>
+        <v>511.46</v>
       </c>
       <c r="F23" s="2">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G23" s="2">
-        <v>379.23</v>
+        <v>261.46</v>
       </c>
       <c r="H23" s="2">
-        <v>758.46</v>
+        <v>33728.34</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J23" s="2">
-        <v>3497</v>
+        <v>855.28</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1200,82 +1204,148 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
+        <v>32259.13</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2481.47</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>481.47</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6259.11</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <v>-153.93</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="J24" s="2">
+        <v>3807.54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2">
+        <v>73380.93</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4586.31</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1586.31</v>
+      </c>
+      <c r="H25" s="2">
+        <v>25380.96</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2">
+        <v>14862.06</v>
+      </c>
+      <c r="E26" s="2">
+        <v>928.88</v>
+      </c>
+      <c r="F26" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="2">
-        <v>3000</v>
-      </c>
-      <c r="G24" s="2">
-        <v>-3000</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="G26" s="2">
         <v>0</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
-        <v>341926.92</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3">
-        <v>114428.69</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="2">
-        <v>341926.92</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1496.25</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>2624659.68</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>752981.25</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="2">
-        <v>114428.69</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="D28" s="2">
+        <v>2624659.68</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="2">
+        <v>752981.25</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
-  <si>
-    <t>OZON ООО АНМАКС</t>
-  </si>
-  <si>
-    <t>Дата начала: 2024-07-01 ; Дата окончания : 2024-07-24</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+  <si>
+    <t>OZON ИП ЗЕЛ</t>
+  </si>
+  <si>
+    <t>Дата начала: 2024-08-01 ; Дата окончания : 2024-08-29</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,37 +53,34 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-Ч</t>
+    <t>82400-ч</t>
   </si>
   <si>
     <t>420x420x120</t>
   </si>
   <si>
-    <t>82400-К</t>
-  </si>
-  <si>
-    <t>82401-чн</t>
+    <t>82401-ч</t>
   </si>
   <si>
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-К</t>
-  </si>
-  <si>
-    <t>82401-З</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
+    <t>82401-к</t>
+  </si>
+  <si>
+    <t>82401-з</t>
+  </si>
+  <si>
+    <t>82402-ч</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
-    <t>82402-К</t>
-  </si>
-  <si>
-    <t>82402-З</t>
+    <t>82402-к</t>
+  </si>
+  <si>
+    <t>82402-з</t>
   </si>
   <si>
     <t>1840-30</t>
@@ -98,34 +95,28 @@
     <t>250x40x25</t>
   </si>
   <si>
-    <t>7280-К-6</t>
+    <t>7280-к-6</t>
   </si>
   <si>
     <t>1010x280x90</t>
   </si>
   <si>
-    <t>7280-К-6-18</t>
-  </si>
-  <si>
-    <t>7260-К-8</t>
+    <t>7280-к-6-18</t>
+  </si>
+  <si>
+    <t>7260-к-8</t>
   </si>
   <si>
     <t>7260-К-8-24</t>
   </si>
   <si>
-    <t>7245-К-10</t>
-  </si>
-  <si>
-    <t>7245-К-10-30</t>
-  </si>
-  <si>
-    <t>7260-К-12</t>
-  </si>
-  <si>
-    <t>0x0x0</t>
-  </si>
-  <si>
-    <t>7262-КП</t>
+    <t>7245-к-10</t>
+  </si>
+  <si>
+    <t>7245-к-10-30</t>
+  </si>
+  <si>
+    <t>7262-кп</t>
   </si>
   <si>
     <t>1010x150x150</t>
@@ -134,19 +125,7 @@
     <t>8910-30</t>
   </si>
   <si>
-    <t>ANM.39*59</t>
-  </si>
-  <si>
-    <t>600x400x30</t>
-  </si>
-  <si>
-    <t>ANM.49*99</t>
-  </si>
-  <si>
-    <t>1000x500x30</t>
-  </si>
-  <si>
-    <t>SKU = 1620799676</t>
+    <t>380x380x75</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -535,7 +514,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -605,28 +584,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>596</v>
+        <v>1092</v>
       </c>
       <c r="D5" s="2">
-        <v>223824.26</v>
+        <v>503559.8</v>
       </c>
       <c r="E5" s="2">
-        <v>375.54</v>
+        <v>461.14</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>125.54</v>
+        <v>211.14</v>
       </c>
       <c r="H5" s="2">
-        <v>74821.84</v>
+        <v>230564.88</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>756.31</v>
+        <v>825.69</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -636,27 +615,29 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>719</v>
+      </c>
       <c r="D6" s="2">
-        <v>-1341</v>
+        <v>333299.11</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>463.56</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>-300</v>
+        <v>163.56</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>117599.64</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>925.46</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -664,31 +645,31 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>546</v>
+      </c>
+      <c r="D7" s="2">
+        <v>259307.89</v>
+      </c>
+      <c r="E7" s="2">
+        <v>474.92</v>
+      </c>
+      <c r="F7" s="2">
+        <v>350</v>
+      </c>
+      <c r="G7" s="2">
+        <v>124.92</v>
+      </c>
+      <c r="H7" s="2">
+        <v>68206.32</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
-        <v>1026</v>
-      </c>
-      <c r="D7" s="2">
-        <v>513357.81</v>
-      </c>
-      <c r="E7" s="2">
-        <v>500.35</v>
-      </c>
-      <c r="F7" s="2">
-        <v>300</v>
-      </c>
-      <c r="G7" s="2">
-        <v>200.35</v>
-      </c>
-      <c r="H7" s="2">
-        <v>205559.1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" s="2">
-        <v>977.02</v>
+        <v>939.08</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -699,28 +680,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>523</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
-        <v>237609.91</v>
+        <v>10947.13</v>
       </c>
       <c r="E8" s="2">
-        <v>454.32</v>
+        <v>521.29</v>
       </c>
       <c r="F8" s="2">
         <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>104.32</v>
+        <v>171.29</v>
       </c>
       <c r="H8" s="2">
-        <v>54559.36</v>
+        <v>3597.09</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2">
-        <v>983.87</v>
+        <v>992.33</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -731,28 +712,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>542.88</v>
+        <v>7618.62</v>
       </c>
       <c r="E9" s="2">
-        <v>542.88</v>
+        <v>846.51</v>
       </c>
       <c r="F9" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="G9" s="2">
-        <v>192.88</v>
+        <v>446.51</v>
       </c>
       <c r="H9" s="2">
-        <v>192.88</v>
+        <v>4018.59</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J9" s="2">
-        <v>975</v>
+        <v>1708.89</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -760,31 +741,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>67</v>
+      </c>
+      <c r="D10" s="2">
+        <v>54763.95</v>
+      </c>
+      <c r="E10" s="2">
+        <v>817.37</v>
+      </c>
+      <c r="F10" s="2">
+        <v>450</v>
+      </c>
+      <c r="G10" s="2">
+        <v>367.37</v>
+      </c>
+      <c r="H10" s="2">
+        <v>24613.79</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4662.65</v>
-      </c>
-      <c r="E10" s="2">
-        <v>666.09</v>
-      </c>
-      <c r="F10" s="2">
-        <v>400</v>
-      </c>
-      <c r="G10" s="2">
-        <v>266.09</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1862.63</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="J10" s="2">
-        <v>1850</v>
+        <v>1638.18</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -795,28 +776,28 @@
         <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>11460.38</v>
+        <v>2340.44</v>
       </c>
       <c r="E11" s="2">
-        <v>818.6</v>
+        <v>585.11</v>
       </c>
       <c r="F11" s="2">
         <v>450</v>
       </c>
       <c r="G11" s="2">
-        <v>368.6</v>
+        <v>135.11</v>
       </c>
       <c r="H11" s="2">
-        <v>5160.4</v>
+        <v>540.44</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="2">
-        <v>1850</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -826,27 +807,29 @@
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>57</v>
+      </c>
       <c r="D12" s="2">
-        <v>-16.64</v>
+        <v>26385.28</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>462.9</v>
       </c>
       <c r="F12" s="2">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="G12" s="2">
-        <v>-450</v>
+        <v>212.9</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>12135.3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>813.65</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -854,31 +837,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2">
-        <v>66582.13</v>
+        <v>29883.27</v>
       </c>
       <c r="E13" s="2">
-        <v>569.08</v>
+        <v>355.75</v>
       </c>
       <c r="F13" s="2">
         <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>319.08</v>
+        <v>105.75</v>
       </c>
       <c r="H13" s="2">
-        <v>37332.36</v>
+        <v>8883</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="2">
-        <v>947.7</v>
+        <v>659.51</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -886,31 +869,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
-        <v>54102.37</v>
+        <v>23720.84</v>
       </c>
       <c r="E14" s="2">
-        <v>383.7</v>
+        <v>1248.47</v>
       </c>
       <c r="F14" s="2">
-        <v>250</v>
+        <v>880</v>
       </c>
       <c r="G14" s="2">
-        <v>133.7</v>
+        <v>368.47</v>
       </c>
       <c r="H14" s="2">
-        <v>18851.7</v>
+        <v>7000.93</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2">
-        <v>669.81</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -918,31 +901,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <v>215</v>
+      </c>
+      <c r="D15" s="2">
+        <v>264440.64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1229.96</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>229.96</v>
+      </c>
+      <c r="H15" s="2">
+        <v>49441.4</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2">
-        <v>185</v>
-      </c>
-      <c r="D15" s="2">
-        <v>201424.27</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1088.78</v>
-      </c>
-      <c r="F15" s="2">
-        <v>780</v>
-      </c>
-      <c r="G15" s="2">
-        <v>308.78</v>
-      </c>
-      <c r="H15" s="2">
-        <v>57124.3</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="J15" s="2">
-        <v>2042.69</v>
+        <v>2071.08</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -953,28 +936,28 @@
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2">
-        <v>277053.74</v>
+        <v>52878.65</v>
       </c>
       <c r="E16" s="2">
-        <v>1265.09</v>
+        <v>1289.72</v>
       </c>
       <c r="F16" s="2">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="G16" s="2">
-        <v>305.09</v>
+        <v>269.72</v>
       </c>
       <c r="H16" s="2">
-        <v>66814.71</v>
+        <v>11058.52</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2">
-        <v>2260.58</v>
+        <v>2118.54</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -985,28 +968,28 @@
         <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2">
-        <v>106039.76</v>
+        <v>76716.08</v>
       </c>
       <c r="E17" s="2">
-        <v>1247.53</v>
+        <v>1504.24</v>
       </c>
       <c r="F17" s="2">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="G17" s="2">
-        <v>327.53</v>
+        <v>304.24</v>
       </c>
       <c r="H17" s="2">
-        <v>27840.05</v>
+        <v>15516.24</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" s="2">
-        <v>2248.94</v>
+        <v>2429.02</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1017,28 +1000,28 @@
         <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2">
-        <v>331099.85</v>
+        <v>66403.25</v>
       </c>
       <c r="E18" s="2">
-        <v>1391.18</v>
+        <v>1443.55</v>
       </c>
       <c r="F18" s="2">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="G18" s="2">
-        <v>231.18</v>
+        <v>273.55</v>
       </c>
       <c r="H18" s="2">
-        <v>55020.84</v>
+        <v>12583.3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" s="2">
-        <v>2463.95</v>
+        <v>2363.04</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1049,28 +1032,28 @@
         <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2">
-        <v>90053.33</v>
+        <v>105662.42</v>
       </c>
       <c r="E19" s="2">
-        <v>1526.33</v>
+        <v>1732.17</v>
       </c>
       <c r="F19" s="2">
-        <v>1050</v>
+        <v>1380</v>
       </c>
       <c r="G19" s="2">
-        <v>476.33</v>
+        <v>352.17</v>
       </c>
       <c r="H19" s="2">
-        <v>28103.47</v>
+        <v>21482.37</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="2">
-        <v>2648.17</v>
+        <v>2804.38</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1081,28 +1064,28 @@
         <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2">
-        <v>293576.65</v>
+        <v>22780.42</v>
       </c>
       <c r="E20" s="2">
-        <v>1621.97</v>
+        <v>949.18</v>
       </c>
       <c r="F20" s="2">
-        <v>1350</v>
+        <v>650</v>
       </c>
       <c r="G20" s="2">
-        <v>271.97</v>
+        <v>299.18</v>
       </c>
       <c r="H20" s="2">
-        <v>49226.57</v>
+        <v>7180.32</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J20" s="2">
-        <v>2854.5</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1110,242 +1093,116 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
       <c r="D21" s="2">
-        <v>-1045.31</v>
+        <v>2294.24</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>573.56</v>
       </c>
       <c r="F21" s="2">
-        <v>1380</v>
+        <v>250</v>
       </c>
       <c r="G21" s="2">
-        <v>-1380</v>
+        <v>323.56</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1294.24</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J21" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="2">
+        <v>6210</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2508.71</v>
+      </c>
+      <c r="E22" s="2">
+        <v>836.24</v>
+      </c>
+      <c r="F22" s="2">
+        <v>400</v>
+      </c>
+      <c r="G22" s="2">
+        <v>436.24</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1308.72</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="2">
+      <c r="J22" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>1845510.74</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>597025.09</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="2">
-        <v>29192.72</v>
-      </c>
-      <c r="E22" s="2">
-        <v>788.99</v>
-      </c>
-      <c r="F22" s="2">
-        <v>650</v>
-      </c>
-      <c r="G22" s="2">
-        <v>138.99</v>
-      </c>
-      <c r="H22" s="2">
-        <v>5142.63</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1598.97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="D24" s="2">
+        <v>1845510.74</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="2">
-        <v>129</v>
-      </c>
-      <c r="D23" s="2">
-        <v>65977.8</v>
-      </c>
-      <c r="E23" s="2">
-        <v>511.46</v>
-      </c>
-      <c r="F23" s="2">
-        <v>250</v>
-      </c>
-      <c r="G23" s="2">
-        <v>261.46</v>
-      </c>
-      <c r="H23" s="2">
-        <v>33728.34</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="2">
-        <v>855.28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="2">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2">
-        <v>32259.13</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2481.47</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G24" s="2">
-        <v>481.47</v>
-      </c>
-      <c r="H24" s="2">
-        <v>6259.11</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="2">
-        <v>3807.54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="2">
-        <v>16</v>
-      </c>
-      <c r="D25" s="2">
-        <v>73380.93</v>
-      </c>
-      <c r="E25" s="2">
-        <v>4586.31</v>
-      </c>
-      <c r="F25" s="2">
-        <v>3000</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1586.31</v>
-      </c>
       <c r="H25" s="2">
-        <v>25380.96</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="2">
-        <v>16</v>
-      </c>
-      <c r="D26" s="2">
-        <v>14862.06</v>
-      </c>
-      <c r="E26" s="2">
-        <v>928.88</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1496.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
-        <v>2624659.68</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3">
-        <v>752981.25</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2624659.68</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="2">
-        <v>752981.25</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+        <v>597025.09</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
-  <si>
-    <t>OZON ИП ЗЕЛ</t>
-  </si>
-  <si>
-    <t>Дата начала: 2024-08-01 ; Дата окончания : 2024-08-29</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+  <si>
+    <t>OZON ООО АНМАКС</t>
+  </si>
+  <si>
+    <t>Дата начала: 2024-09-16 ; Дата окончания : 2024-09-19</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,34 +53,34 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-ч</t>
+    <t>82400-Ч</t>
   </si>
   <si>
     <t>420x420x120</t>
   </si>
   <si>
-    <t>82401-ч</t>
+    <t>82401-чн</t>
   </si>
   <si>
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-к</t>
-  </si>
-  <si>
-    <t>82401-з</t>
-  </si>
-  <si>
-    <t>82402-ч</t>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>82401-З</t>
+  </si>
+  <si>
+    <t>82402-Ч</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
-    <t>82402-к</t>
-  </si>
-  <si>
-    <t>82402-з</t>
+    <t>82402-К</t>
+  </si>
+  <si>
+    <t>82402-З</t>
   </si>
   <si>
     <t>1840-30</t>
@@ -95,28 +95,28 @@
     <t>250x40x25</t>
   </si>
   <si>
-    <t>7280-к-6</t>
+    <t>7280-К-6</t>
   </si>
   <si>
     <t>1010x280x90</t>
   </si>
   <si>
-    <t>7280-к-6-18</t>
-  </si>
-  <si>
-    <t>7260-к-8</t>
+    <t>7280-К-6-18</t>
+  </si>
+  <si>
+    <t>7260-К-8</t>
   </si>
   <si>
     <t>7260-К-8-24</t>
   </si>
   <si>
-    <t>7245-к-10</t>
-  </si>
-  <si>
-    <t>7245-к-10-30</t>
-  </si>
-  <si>
-    <t>7262-кп</t>
+    <t>7245-К-10</t>
+  </si>
+  <si>
+    <t>7245-К-10-30</t>
+  </si>
+  <si>
+    <t>7262-КП</t>
   </si>
   <si>
     <t>1010x150x150</t>
@@ -125,7 +125,22 @@
     <t>8910-30</t>
   </si>
   <si>
-    <t>380x380x75</t>
+    <t>ANM.39*59</t>
+  </si>
+  <si>
+    <t>600x400x30</t>
+  </si>
+  <si>
+    <t>ANM.49*99</t>
+  </si>
+  <si>
+    <t>1000x500x30</t>
+  </si>
+  <si>
+    <t>SKU = 1690167140</t>
+  </si>
+  <si>
+    <t>SKU = 1690117589</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -514,7 +529,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -584,28 +599,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>1092</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
-        <v>503559.8</v>
+        <v>6346.35</v>
       </c>
       <c r="E5" s="2">
-        <v>461.14</v>
+        <v>334.02</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>211.14</v>
+        <v>84.02</v>
       </c>
       <c r="H5" s="2">
-        <v>230564.88</v>
+        <v>1596.38</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>825.69</v>
+        <v>795.68</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -616,28 +631,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>719</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2">
-        <v>333299.11</v>
+        <v>1000.89</v>
       </c>
       <c r="E6" s="2">
-        <v>463.56</v>
+        <v>14.51</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>163.56</v>
+        <v>-285.49</v>
       </c>
       <c r="H6" s="2">
-        <v>117599.64</v>
+        <v>-19698.81</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="2">
-        <v>925.46</v>
+        <v>903.48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -648,28 +663,28 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>546</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2">
-        <v>259307.89</v>
+        <v>3556.2</v>
       </c>
       <c r="E7" s="2">
-        <v>474.92</v>
+        <v>72.58</v>
       </c>
       <c r="F7" s="2">
         <v>350</v>
       </c>
       <c r="G7" s="2">
-        <v>124.92</v>
+        <v>-277.42</v>
       </c>
       <c r="H7" s="2">
-        <v>68206.32</v>
+        <v>-13593.58</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="2">
-        <v>939.08</v>
+        <v>968.47</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -680,28 +695,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>10947.13</v>
+        <v>1117.04</v>
       </c>
       <c r="E8" s="2">
-        <v>521.29</v>
+        <v>124.12</v>
       </c>
       <c r="F8" s="2">
         <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>171.29</v>
+        <v>-225.88</v>
       </c>
       <c r="H8" s="2">
-        <v>3597.09</v>
+        <v>-2032.92</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="2">
-        <v>992.33</v>
+        <v>1132.22</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -712,28 +727,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>7618.62</v>
+        <v>-479.94</v>
       </c>
       <c r="E9" s="2">
-        <v>846.51</v>
+        <v>-159.98</v>
       </c>
       <c r="F9" s="2">
         <v>400</v>
       </c>
       <c r="G9" s="2">
-        <v>446.51</v>
+        <v>-559.98</v>
       </c>
       <c r="H9" s="2">
-        <v>4018.59</v>
+        <v>-1679.94</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="2">
-        <v>1708.89</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -744,28 +759,28 @@
         <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>54763.95</v>
+        <v>866.42</v>
       </c>
       <c r="E10" s="2">
-        <v>817.37</v>
+        <v>866.42</v>
       </c>
       <c r="F10" s="2">
         <v>450</v>
       </c>
       <c r="G10" s="2">
-        <v>367.37</v>
+        <v>416.42</v>
       </c>
       <c r="H10" s="2">
-        <v>24613.79</v>
+        <v>416.42</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="2">
-        <v>1638.18</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -776,28 +791,28 @@
         <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
-        <v>2340.44</v>
+        <v>8458.17</v>
       </c>
       <c r="E11" s="2">
-        <v>585.11</v>
+        <v>704.85</v>
       </c>
       <c r="F11" s="2">
         <v>450</v>
       </c>
       <c r="G11" s="2">
-        <v>135.11</v>
+        <v>254.85</v>
       </c>
       <c r="H11" s="2">
-        <v>540.44</v>
+        <v>3058.2</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="2">
-        <v>1775</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -808,28 +823,28 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2">
-        <v>26385.28</v>
+        <v>3951.11</v>
       </c>
       <c r="E12" s="2">
-        <v>462.9</v>
+        <v>493.89</v>
       </c>
       <c r="F12" s="2">
         <v>250</v>
       </c>
       <c r="G12" s="2">
-        <v>212.9</v>
+        <v>243.89</v>
       </c>
       <c r="H12" s="2">
-        <v>12135.3</v>
+        <v>1951.12</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="2">
-        <v>813.65</v>
+        <v>950</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -840,28 +855,28 @@
         <v>24</v>
       </c>
       <c r="C13" s="2">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>29883.27</v>
+        <v>2746.44</v>
       </c>
       <c r="E13" s="2">
-        <v>355.75</v>
+        <v>343.31</v>
       </c>
       <c r="F13" s="2">
         <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>105.75</v>
+        <v>93.31</v>
       </c>
       <c r="H13" s="2">
-        <v>8883</v>
+        <v>746.48</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="2">
-        <v>659.51</v>
+        <v>742.5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -872,28 +887,28 @@
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
-        <v>23720.84</v>
+        <v>3400.08</v>
       </c>
       <c r="E14" s="2">
-        <v>1248.47</v>
+        <v>340.01</v>
       </c>
       <c r="F14" s="2">
         <v>880</v>
       </c>
       <c r="G14" s="2">
-        <v>368.47</v>
+        <v>-539.99</v>
       </c>
       <c r="H14" s="2">
-        <v>7000.93</v>
+        <v>-5399.9</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="2">
-        <v>2100</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -904,28 +919,28 @@
         <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>264440.64</v>
+        <v>10188.32</v>
       </c>
       <c r="E15" s="2">
-        <v>1229.96</v>
+        <v>1273.54</v>
       </c>
       <c r="F15" s="2">
         <v>1000</v>
       </c>
       <c r="G15" s="2">
-        <v>229.96</v>
+        <v>273.54</v>
       </c>
       <c r="H15" s="2">
-        <v>49441.4</v>
+        <v>2188.32</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="2">
-        <v>2071.08</v>
+        <v>2598.75</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -936,28 +951,28 @@
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>52878.65</v>
+        <v>2414.84</v>
       </c>
       <c r="E16" s="2">
-        <v>1289.72</v>
+        <v>1207.42</v>
       </c>
       <c r="F16" s="2">
         <v>1020</v>
       </c>
       <c r="G16" s="2">
-        <v>269.72</v>
+        <v>187.42</v>
       </c>
       <c r="H16" s="2">
-        <v>11058.52</v>
+        <v>374.84</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="2">
-        <v>2118.54</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -968,28 +983,28 @@
         <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2">
-        <v>76716.08</v>
+        <v>9851.79</v>
       </c>
       <c r="E17" s="2">
-        <v>1504.24</v>
+        <v>1407.4</v>
       </c>
       <c r="F17" s="2">
         <v>1200</v>
       </c>
       <c r="G17" s="2">
-        <v>304.24</v>
+        <v>207.4</v>
       </c>
       <c r="H17" s="2">
-        <v>15516.24</v>
+        <v>1451.8</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="2">
-        <v>2429.02</v>
+        <v>2811.43</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1000,28 +1015,28 @@
         <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2">
-        <v>66403.25</v>
+        <v>4082.98</v>
       </c>
       <c r="E18" s="2">
-        <v>1443.55</v>
+        <v>1020.75</v>
       </c>
       <c r="F18" s="2">
         <v>1170</v>
       </c>
       <c r="G18" s="2">
-        <v>273.55</v>
+        <v>-149.25</v>
       </c>
       <c r="H18" s="2">
-        <v>12583.3</v>
+        <v>-597</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="2">
-        <v>2363.04</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1032,28 +1047,28 @@
         <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2">
-        <v>105662.42</v>
+        <v>17683</v>
       </c>
       <c r="E19" s="2">
-        <v>1732.17</v>
+        <v>1105.19</v>
       </c>
       <c r="F19" s="2">
         <v>1380</v>
       </c>
       <c r="G19" s="2">
-        <v>352.17</v>
+        <v>-274.81</v>
       </c>
       <c r="H19" s="2">
-        <v>21482.37</v>
+        <v>-4396.96</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="2">
-        <v>2804.38</v>
+        <v>3212.5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1064,28 +1079,28 @@
         <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>22780.42</v>
+        <v>3757.84</v>
       </c>
       <c r="E20" s="2">
-        <v>949.18</v>
+        <v>939.46</v>
       </c>
       <c r="F20" s="2">
         <v>650</v>
       </c>
       <c r="G20" s="2">
-        <v>299.18</v>
+        <v>289.46</v>
       </c>
       <c r="H20" s="2">
-        <v>7180.32</v>
+        <v>1157.84</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J20" s="2">
-        <v>1650</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1096,113 +1111,205 @@
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
-        <v>2294.24</v>
+        <v>4392.04</v>
       </c>
       <c r="E21" s="2">
-        <v>573.56</v>
+        <v>439.2</v>
       </c>
       <c r="F21" s="2">
         <v>250</v>
       </c>
       <c r="G21" s="2">
-        <v>323.56</v>
+        <v>189.2</v>
       </c>
       <c r="H21" s="2">
-        <v>1294.24</v>
+        <v>1892</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="2">
-        <v>1000</v>
+        <v>858.2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="2">
-        <v>6210</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2">
-        <v>2508.71</v>
+        <v>10882.91</v>
       </c>
       <c r="E22" s="2">
-        <v>836.24</v>
+        <v>2176.58</v>
       </c>
       <c r="F22" s="2">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="2">
-        <v>436.24</v>
+        <v>176.58</v>
       </c>
       <c r="H22" s="2">
-        <v>1308.72</v>
+        <v>882.9</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J22" s="2">
-        <v>1400</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <v>1845510.74</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <v>597025.09</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>-752.34</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-3000</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1" t="s">
-        <v>37</v>
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>1845510.74</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>38</v>
+        <v>898.71</v>
+      </c>
+      <c r="E24" s="2">
+        <v>449.36</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1100</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1" t="s">
+      <c r="D25" s="2">
+        <v>-422.01</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="2">
-        <v>597025.09</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
+        <v>93940.84</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <v>-31682.81</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2">
+        <v>93940.84</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="2">
+        <v>-31682.81</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
-  <si>
-    <t>OZON ООО АНМАКС</t>
-  </si>
-  <si>
-    <t>Дата начала: 2024-09-16 ; Дата окончания : 2024-09-19</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>OZON ИП ЗЕЛ</t>
+  </si>
+  <si>
+    <t>Дата начала: 2024-09-01 ; Дата окончания : 2024-09-24</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,34 +53,40 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-Ч</t>
+    <t>82400-ч</t>
   </si>
   <si>
     <t>420x420x120</t>
   </si>
   <si>
-    <t>82401-чн</t>
+    <t>82400-чи</t>
+  </si>
+  <si>
+    <t>82401-ч</t>
   </si>
   <si>
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-К</t>
-  </si>
-  <si>
-    <t>82401-З</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
+    <t>82401-чи</t>
+  </si>
+  <si>
+    <t>82401-к</t>
+  </si>
+  <si>
+    <t>82401-з</t>
+  </si>
+  <si>
+    <t>82402-ч</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
-    <t>82402-К</t>
-  </si>
-  <si>
-    <t>82402-З</t>
+    <t>82402-к</t>
+  </si>
+  <si>
+    <t>82402-з</t>
   </si>
   <si>
     <t>1840-30</t>
@@ -95,28 +101,28 @@
     <t>250x40x25</t>
   </si>
   <si>
-    <t>7280-К-6</t>
+    <t>7280-к-6</t>
   </si>
   <si>
     <t>1010x280x90</t>
   </si>
   <si>
-    <t>7280-К-6-18</t>
-  </si>
-  <si>
-    <t>7260-К-8</t>
+    <t>7280-к-6-18</t>
+  </si>
+  <si>
+    <t>7260-к-8</t>
   </si>
   <si>
     <t>7260-К-8-24</t>
   </si>
   <si>
-    <t>7245-К-10</t>
-  </si>
-  <si>
-    <t>7245-К-10-30</t>
-  </si>
-  <si>
-    <t>7262-КП</t>
+    <t>7245-к-10</t>
+  </si>
+  <si>
+    <t>7245-к-10-30</t>
+  </si>
+  <si>
+    <t>7262-кп</t>
   </si>
   <si>
     <t>1010x150x150</t>
@@ -125,22 +131,7 @@
     <t>8910-30</t>
   </si>
   <si>
-    <t>ANM.39*59</t>
-  </si>
-  <si>
-    <t>600x400x30</t>
-  </si>
-  <si>
-    <t>ANM.49*99</t>
-  </si>
-  <si>
-    <t>1000x500x30</t>
-  </si>
-  <si>
-    <t>SKU = 1690167140</t>
-  </si>
-  <si>
-    <t>SKU = 1690117589</t>
+    <t>380x380x75</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -529,7 +520,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -599,28 +590,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>19</v>
+        <v>1255</v>
       </c>
       <c r="D5" s="2">
-        <v>6346.35</v>
+        <v>429890.38</v>
       </c>
       <c r="E5" s="2">
-        <v>334.02</v>
+        <v>342.54</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>84.02</v>
+        <v>92.54</v>
       </c>
       <c r="H5" s="2">
-        <v>1596.38</v>
+        <v>116137.7</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>795.68</v>
+        <v>823.65</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -630,29 +621,27 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2">
-        <v>69</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>1000.89</v>
+        <v>-277.61</v>
       </c>
       <c r="E6" s="2">
-        <v>14.51</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G6" s="2">
-        <v>-285.49</v>
+        <v>-250</v>
       </c>
       <c r="H6" s="2">
-        <v>-19698.81</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>903.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -660,31 +649,31 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>977</v>
+      </c>
+      <c r="D7" s="2">
+        <v>287670.2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>294.44</v>
+      </c>
+      <c r="F7" s="2">
+        <v>300</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-5.56</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-5432.12</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3556.2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>72.58</v>
-      </c>
-      <c r="F7" s="2">
-        <v>350</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-277.42</v>
-      </c>
-      <c r="H7" s="2">
-        <v>-13593.58</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" s="2">
-        <v>968.47</v>
+        <v>892.97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -695,28 +684,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>1117.04</v>
+        <v>484.2</v>
       </c>
       <c r="E8" s="2">
-        <v>124.12</v>
+        <v>484.2</v>
       </c>
       <c r="F8" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="G8" s="2">
-        <v>-225.88</v>
+        <v>184.2</v>
       </c>
       <c r="H8" s="2">
-        <v>-2032.92</v>
+        <v>184.2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>1132.22</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -727,28 +716,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>387</v>
       </c>
       <c r="D9" s="2">
-        <v>-479.94</v>
+        <v>188546.29</v>
       </c>
       <c r="E9" s="2">
-        <v>-159.98</v>
+        <v>487.2</v>
       </c>
       <c r="F9" s="2">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>-559.98</v>
+        <v>137.2</v>
       </c>
       <c r="H9" s="2">
-        <v>-1679.94</v>
+        <v>53096.4</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>1703</v>
+        <v>985.53</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -756,31 +745,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="D10" s="2">
-        <v>866.42</v>
+        <v>62122.09</v>
       </c>
       <c r="E10" s="2">
-        <v>866.42</v>
+        <v>453.45</v>
       </c>
       <c r="F10" s="2">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="G10" s="2">
-        <v>416.42</v>
+        <v>103.45</v>
       </c>
       <c r="H10" s="2">
-        <v>416.42</v>
+        <v>14172.65</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J10" s="2">
-        <v>1850</v>
+        <v>929.74</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -788,31 +777,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>12</v>
       </c>
       <c r="D11" s="2">
-        <v>8458.17</v>
+        <v>9632.43</v>
       </c>
       <c r="E11" s="2">
-        <v>704.85</v>
+        <v>802.7</v>
       </c>
       <c r="F11" s="2">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G11" s="2">
-        <v>254.85</v>
+        <v>402.7</v>
       </c>
       <c r="H11" s="2">
-        <v>3058.2</v>
+        <v>4832.4</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2">
-        <v>1757</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -823,28 +812,28 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>3951.11</v>
+        <v>1008.1</v>
       </c>
       <c r="E12" s="2">
-        <v>493.89</v>
+        <v>1008.1</v>
       </c>
       <c r="F12" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>243.89</v>
+        <v>558.1</v>
       </c>
       <c r="H12" s="2">
-        <v>1951.12</v>
+        <v>558.1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="2">
-        <v>950</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -852,31 +841,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>2746.44</v>
+        <v>2946.36</v>
       </c>
       <c r="E13" s="2">
-        <v>343.31</v>
+        <v>267.85</v>
       </c>
       <c r="F13" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G13" s="2">
-        <v>93.31</v>
+        <v>-182.15</v>
       </c>
       <c r="H13" s="2">
-        <v>746.48</v>
+        <v>-2003.65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J13" s="2">
-        <v>742.5</v>
+        <v>1747.64</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -884,31 +873,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2">
-        <v>3400.08</v>
+        <v>23671.21</v>
       </c>
       <c r="E14" s="2">
-        <v>340.01</v>
+        <v>388.05</v>
       </c>
       <c r="F14" s="2">
-        <v>880</v>
+        <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>-539.99</v>
+        <v>138.05</v>
       </c>
       <c r="H14" s="2">
-        <v>-5399.9</v>
+        <v>8421.05</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2">
-        <v>2320</v>
+        <v>787.89</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -916,31 +905,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2">
-        <v>10188.32</v>
+        <v>18101.73</v>
       </c>
       <c r="E15" s="2">
-        <v>1273.54</v>
+        <v>323.25</v>
       </c>
       <c r="F15" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G15" s="2">
-        <v>273.54</v>
+        <v>73.25</v>
       </c>
       <c r="H15" s="2">
-        <v>2188.32</v>
+        <v>4102</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="2">
-        <v>2598.75</v>
+        <v>665.21</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -948,31 +937,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2">
+        <v>56835.23</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1136.7</v>
+      </c>
+      <c r="F16" s="2">
+        <v>880</v>
+      </c>
+      <c r="G16" s="2">
+        <v>256.7</v>
+      </c>
+      <c r="H16" s="2">
+        <v>12835</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2414.84</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1207.42</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1020</v>
-      </c>
-      <c r="G16" s="2">
-        <v>187.42</v>
-      </c>
-      <c r="H16" s="2">
-        <v>374.84</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J16" s="2">
-        <v>2375</v>
+        <v>2157.8</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -983,28 +972,28 @@
         <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>7</v>
+        <v>251</v>
       </c>
       <c r="D17" s="2">
-        <v>9851.79</v>
+        <v>297119.73</v>
       </c>
       <c r="E17" s="2">
-        <v>1407.4</v>
+        <v>1183.74</v>
       </c>
       <c r="F17" s="2">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="2">
-        <v>207.4</v>
+        <v>183.74</v>
       </c>
       <c r="H17" s="2">
-        <v>1451.8</v>
+        <v>46118.74</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J17" s="2">
-        <v>2811.43</v>
+        <v>2220.63</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1015,28 +1004,28 @@
         <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2">
-        <v>4082.98</v>
+        <v>56149.14</v>
       </c>
       <c r="E18" s="2">
-        <v>1020.75</v>
+        <v>1100.96</v>
       </c>
       <c r="F18" s="2">
-        <v>1170</v>
+        <v>1020</v>
       </c>
       <c r="G18" s="2">
-        <v>-149.25</v>
+        <v>80.96</v>
       </c>
       <c r="H18" s="2">
-        <v>-597</v>
+        <v>4128.96</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J18" s="2">
-        <v>2800</v>
+        <v>2194.98</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1047,28 +1036,28 @@
         <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2">
-        <v>17683</v>
+        <v>129733.17</v>
       </c>
       <c r="E19" s="2">
-        <v>1105.19</v>
+        <v>1380.14</v>
       </c>
       <c r="F19" s="2">
-        <v>1380</v>
+        <v>1200</v>
       </c>
       <c r="G19" s="2">
-        <v>-274.81</v>
+        <v>180.14</v>
       </c>
       <c r="H19" s="2">
-        <v>-4396.96</v>
+        <v>16933.16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J19" s="2">
-        <v>3212.5</v>
+        <v>2525.48</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1079,28 +1068,28 @@
         <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
-        <v>3757.84</v>
+        <v>27559.92</v>
       </c>
       <c r="E20" s="2">
-        <v>939.46</v>
+        <v>1378</v>
       </c>
       <c r="F20" s="2">
-        <v>650</v>
+        <v>1170</v>
       </c>
       <c r="G20" s="2">
-        <v>289.46</v>
+        <v>208</v>
       </c>
       <c r="H20" s="2">
-        <v>1157.84</v>
+        <v>4160</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J20" s="2">
-        <v>1820</v>
+        <v>2440.1</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1108,31 +1097,31 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2">
-        <v>4392.04</v>
+        <v>85056.54</v>
       </c>
       <c r="E21" s="2">
-        <v>439.2</v>
+        <v>1604.84</v>
       </c>
       <c r="F21" s="2">
-        <v>250</v>
+        <v>1380</v>
       </c>
       <c r="G21" s="2">
-        <v>189.2</v>
+        <v>224.84</v>
       </c>
       <c r="H21" s="2">
-        <v>1892</v>
+        <v>11916.52</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J21" s="2">
-        <v>858.2</v>
+        <v>2856.72</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1140,31 +1129,31 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2">
+        <v>28824.16</v>
+      </c>
+      <c r="E22" s="2">
+        <v>873.46</v>
+      </c>
+      <c r="F22" s="2">
+        <v>650</v>
+      </c>
+      <c r="G22" s="2">
+        <v>223.46</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7374.18</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="2">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>10882.91</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2176.58</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G22" s="2">
-        <v>176.58</v>
-      </c>
-      <c r="H22" s="2">
-        <v>882.9</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="J22" s="2">
-        <v>3850</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1172,144 +1161,114 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="C23" s="2">
+        <v>37</v>
+      </c>
       <c r="D23" s="2">
-        <v>-752.34</v>
+        <v>15317.64</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>413.99</v>
       </c>
       <c r="F23" s="2">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="G23" s="2">
-        <v>-3000</v>
+        <v>163.99</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>6067.63</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>815.51</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
+      <c r="B24" s="2">
+        <v>6210</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2">
-        <v>898.71</v>
+        <v>-210</v>
       </c>
       <c r="E24" s="2">
-        <v>449.36</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>1720180.91</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>303602.92</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="2">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <v>-422.01</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D26" s="2">
+        <v>1720180.91</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
-        <v>93940.84</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3">
-        <v>-31682.81</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="2">
-        <v>93940.84</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>43</v>
+      <c r="G27" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>303602.92</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="2">
-        <v>-31682.81</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -20,7 +20,7 @@
     <t>OZON ИП ЗЕЛ</t>
   </si>
   <si>
-    <t>Дата начала: 2024-09-01 ; Дата окончания : 2024-09-24</t>
+    <t>Дата начала: 2024-09-16 ; Дата окончания : 2024-09-25</t>
   </si>
   <si>
     <t>пп</t>
@@ -590,28 +590,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>1255</v>
+        <v>574</v>
       </c>
       <c r="D5" s="2">
-        <v>429890.38</v>
+        <v>122413.31</v>
       </c>
       <c r="E5" s="2">
-        <v>342.54</v>
+        <v>213.26</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>92.54</v>
+        <v>-36.74</v>
       </c>
       <c r="H5" s="2">
-        <v>116137.7</v>
+        <v>-21088.76</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>823.65</v>
+        <v>821.61</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -623,7 +623,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>-277.61</v>
+        <v>-289.09</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -652,28 +652,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>977</v>
+        <v>424</v>
       </c>
       <c r="D7" s="2">
-        <v>287670.2</v>
+        <v>31945.47</v>
       </c>
       <c r="E7" s="2">
-        <v>294.44</v>
+        <v>75.34</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>-5.56</v>
+        <v>-224.66</v>
       </c>
       <c r="H7" s="2">
-        <v>-5432.12</v>
+        <v>-95255.84</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>892.97</v>
+        <v>887.33</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -687,19 +687,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>484.2</v>
+        <v>162.5</v>
       </c>
       <c r="E8" s="2">
-        <v>484.2</v>
+        <v>162.5</v>
       </c>
       <c r="F8" s="2">
         <v>300</v>
       </c>
       <c r="G8" s="2">
-        <v>184.2</v>
+        <v>-137.5</v>
       </c>
       <c r="H8" s="2">
-        <v>184.2</v>
+        <v>-137.5</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
@@ -716,28 +716,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>387</v>
+        <v>154</v>
       </c>
       <c r="D9" s="2">
-        <v>188546.29</v>
+        <v>75654</v>
       </c>
       <c r="E9" s="2">
-        <v>487.2</v>
+        <v>491.26</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>137.2</v>
+        <v>141.26</v>
       </c>
       <c r="H9" s="2">
-        <v>53096.4</v>
+        <v>21754.04</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>985.53</v>
+        <v>1057.12</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -748,28 +748,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2">
-        <v>62122.09</v>
+        <v>25632.58</v>
       </c>
       <c r="E10" s="2">
-        <v>453.45</v>
+        <v>400.51</v>
       </c>
       <c r="F10" s="2">
         <v>350</v>
       </c>
       <c r="G10" s="2">
-        <v>103.45</v>
+        <v>50.51</v>
       </c>
       <c r="H10" s="2">
-        <v>14172.65</v>
+        <v>3232.64</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="2">
-        <v>929.74</v>
+        <v>919.69</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -780,22 +780,22 @@
         <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>9632.43</v>
+        <v>787.37</v>
       </c>
       <c r="E11" s="2">
-        <v>802.7</v>
+        <v>787.37</v>
       </c>
       <c r="F11" s="2">
         <v>400</v>
       </c>
       <c r="G11" s="2">
-        <v>402.7</v>
+        <v>387.37</v>
       </c>
       <c r="H11" s="2">
-        <v>4832.4</v>
+        <v>387.37</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>21</v>
@@ -811,29 +811,27 @@
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>1008.1</v>
+        <v>-159</v>
       </c>
       <c r="E12" s="2">
-        <v>1008.1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
         <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>558.1</v>
+        <v>-450</v>
       </c>
       <c r="H12" s="2">
-        <v>558.1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="2">
-        <v>1650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -844,28 +842,28 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>2946.36</v>
+        <v>2549.43</v>
       </c>
       <c r="E13" s="2">
-        <v>267.85</v>
+        <v>849.81</v>
       </c>
       <c r="F13" s="2">
         <v>450</v>
       </c>
       <c r="G13" s="2">
-        <v>-182.15</v>
+        <v>399.81</v>
       </c>
       <c r="H13" s="2">
-        <v>-2003.65</v>
+        <v>1199.43</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="2">
-        <v>1747.64</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -876,28 +874,28 @@
         <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
-        <v>23671.21</v>
+        <v>10828.98</v>
       </c>
       <c r="E14" s="2">
-        <v>388.05</v>
+        <v>360.97</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>138.05</v>
+        <v>110.97</v>
       </c>
       <c r="H14" s="2">
-        <v>8421.05</v>
+        <v>3329.1</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="2">
-        <v>787.89</v>
+        <v>770.73</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -908,28 +906,28 @@
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2">
-        <v>18101.73</v>
+        <v>6987.05</v>
       </c>
       <c r="E15" s="2">
-        <v>323.25</v>
+        <v>291.13</v>
       </c>
       <c r="F15" s="2">
         <v>250</v>
       </c>
       <c r="G15" s="2">
-        <v>73.25</v>
+        <v>41.13</v>
       </c>
       <c r="H15" s="2">
-        <v>4102</v>
+        <v>987.12</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="2">
-        <v>665.21</v>
+        <v>660.25</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -940,28 +938,28 @@
         <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2">
-        <v>56835.23</v>
+        <v>21995.68</v>
       </c>
       <c r="E16" s="2">
-        <v>1136.7</v>
+        <v>1047.41</v>
       </c>
       <c r="F16" s="2">
         <v>880</v>
       </c>
       <c r="G16" s="2">
-        <v>256.7</v>
+        <v>167.41</v>
       </c>
       <c r="H16" s="2">
-        <v>12835</v>
+        <v>3515.61</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="2">
-        <v>2157.8</v>
+        <v>2165.81</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -972,28 +970,28 @@
         <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>251</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2">
-        <v>297119.73</v>
+        <v>111936.34</v>
       </c>
       <c r="E17" s="2">
-        <v>1183.74</v>
+        <v>1178.28</v>
       </c>
       <c r="F17" s="2">
         <v>1000</v>
       </c>
       <c r="G17" s="2">
-        <v>183.74</v>
+        <v>178.28</v>
       </c>
       <c r="H17" s="2">
-        <v>46118.74</v>
+        <v>16936.6</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="2">
-        <v>2220.63</v>
+        <v>2422.65</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1004,28 +1002,28 @@
         <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
-        <v>56149.14</v>
+        <v>29306.85</v>
       </c>
       <c r="E18" s="2">
-        <v>1100.96</v>
+        <v>976.9</v>
       </c>
       <c r="F18" s="2">
         <v>1020</v>
       </c>
       <c r="G18" s="2">
-        <v>80.96</v>
+        <v>-43.1</v>
       </c>
       <c r="H18" s="2">
-        <v>4128.96</v>
+        <v>-1293</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J18" s="2">
-        <v>2194.98</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1036,28 +1034,28 @@
         <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
-        <v>129733.17</v>
+        <v>32792.3</v>
       </c>
       <c r="E19" s="2">
-        <v>1380.14</v>
+        <v>1214.53</v>
       </c>
       <c r="F19" s="2">
         <v>1200</v>
       </c>
       <c r="G19" s="2">
-        <v>180.14</v>
+        <v>14.53</v>
       </c>
       <c r="H19" s="2">
-        <v>16933.16</v>
+        <v>392.31</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J19" s="2">
-        <v>2525.48</v>
+        <v>2527.59</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1068,28 +1066,28 @@
         <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2">
-        <v>27559.92</v>
+        <v>11691.81</v>
       </c>
       <c r="E20" s="2">
-        <v>1378</v>
+        <v>1299.09</v>
       </c>
       <c r="F20" s="2">
         <v>1170</v>
       </c>
       <c r="G20" s="2">
-        <v>208</v>
+        <v>129.09</v>
       </c>
       <c r="H20" s="2">
-        <v>4160</v>
+        <v>1161.81</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J20" s="2">
-        <v>2440.1</v>
+        <v>2466.89</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1100,28 +1098,28 @@
         <v>34</v>
       </c>
       <c r="C21" s="2">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2">
-        <v>85056.54</v>
+        <v>6512.72</v>
       </c>
       <c r="E21" s="2">
-        <v>1604.84</v>
+        <v>1302.54</v>
       </c>
       <c r="F21" s="2">
         <v>1380</v>
       </c>
       <c r="G21" s="2">
-        <v>224.84</v>
+        <v>-77.46</v>
       </c>
       <c r="H21" s="2">
-        <v>11916.52</v>
+        <v>-387.3</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J21" s="2">
-        <v>2856.72</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1132,22 +1130,22 @@
         <v>35</v>
       </c>
       <c r="C22" s="2">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2">
-        <v>28824.16</v>
+        <v>3918.35</v>
       </c>
       <c r="E22" s="2">
-        <v>873.46</v>
+        <v>783.67</v>
       </c>
       <c r="F22" s="2">
         <v>650</v>
       </c>
       <c r="G22" s="2">
-        <v>223.46</v>
+        <v>133.67</v>
       </c>
       <c r="H22" s="2">
-        <v>7374.18</v>
+        <v>668.35</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>36</v>
@@ -1164,28 +1162,28 @@
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2">
-        <v>15317.64</v>
+        <v>8093.68</v>
       </c>
       <c r="E23" s="2">
-        <v>413.99</v>
+        <v>367.89</v>
       </c>
       <c r="F23" s="2">
         <v>250</v>
       </c>
       <c r="G23" s="2">
-        <v>163.99</v>
+        <v>117.89</v>
       </c>
       <c r="H23" s="2">
-        <v>6067.63</v>
+        <v>2593.58</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J23" s="2">
-        <v>815.51</v>
+        <v>781.55</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1197,7 +1195,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
-        <v>-210</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1223,13 +1221,13 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>1720180.91</v>
+        <v>502760.33</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <v>303602.92</v>
+        <v>-62004.44</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1241,7 +1239,7 @@
         <v>39</v>
       </c>
       <c r="D26" s="2">
-        <v>1720180.91</v>
+        <v>502760.33</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1265,7 +1263,7 @@
         <v>41</v>
       </c>
       <c r="H27" s="2">
-        <v>303602.92</v>
+        <v>-62004.44</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>OZON ИП ЗЕЛ</t>
   </si>
   <si>
-    <t>Дата начала: 2024-09-16 ; Дата окончания : 2024-09-25</t>
+    <t>Дата начала: 2024-09-01 ; Дата окончания : 2024-09-30</t>
   </si>
   <si>
     <t>пп</t>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>7280-к-6-18</t>
+  </si>
+  <si>
+    <t>7260-к-8(фнш1)</t>
   </si>
   <si>
     <t>7260-к-8</t>
@@ -520,7 +523,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -590,28 +593,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>574</v>
+        <v>1423</v>
       </c>
       <c r="D5" s="2">
-        <v>122413.31</v>
+        <v>446715.83</v>
       </c>
       <c r="E5" s="2">
-        <v>213.26</v>
+        <v>313.93</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>-36.74</v>
+        <v>63.93</v>
       </c>
       <c r="H5" s="2">
-        <v>-21088.76</v>
+        <v>90972.39</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>821.61</v>
+        <v>822.22</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -621,27 +624,29 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>48</v>
+      </c>
       <c r="D6" s="2">
-        <v>-289.09</v>
+        <v>17802.81</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>370.89</v>
       </c>
       <c r="F6" s="2">
         <v>250</v>
       </c>
       <c r="G6" s="2">
-        <v>-250</v>
+        <v>120.89</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>5802.72</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>784.46</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -652,28 +657,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>424</v>
+        <v>1095</v>
       </c>
       <c r="D7" s="2">
-        <v>31945.47</v>
+        <v>263662.44</v>
       </c>
       <c r="E7" s="2">
-        <v>75.34</v>
+        <v>240.79</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>-224.66</v>
+        <v>-59.21</v>
       </c>
       <c r="H7" s="2">
-        <v>-95255.84</v>
+        <v>-64834.95</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>887.33</v>
+        <v>893.35</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -684,28 +689,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2">
-        <v>162.5</v>
+        <v>30926.57</v>
       </c>
       <c r="E8" s="2">
-        <v>162.5</v>
+        <v>423.65</v>
       </c>
       <c r="F8" s="2">
         <v>300</v>
       </c>
       <c r="G8" s="2">
-        <v>-137.5</v>
+        <v>123.65</v>
       </c>
       <c r="H8" s="2">
-        <v>-137.5</v>
+        <v>9026.45</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>1100</v>
+        <v>916.93</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -716,28 +721,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>154</v>
+        <v>551</v>
       </c>
       <c r="D9" s="2">
-        <v>75654</v>
+        <v>271809.94</v>
       </c>
       <c r="E9" s="2">
-        <v>491.26</v>
+        <v>493.3</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>141.26</v>
+        <v>143.3</v>
       </c>
       <c r="H9" s="2">
-        <v>21754.04</v>
+        <v>78958.3</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>1057.12</v>
+        <v>1008.8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -748,28 +753,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="D10" s="2">
-        <v>25632.58</v>
+        <v>75478.55</v>
       </c>
       <c r="E10" s="2">
-        <v>400.51</v>
+        <v>433.78</v>
       </c>
       <c r="F10" s="2">
         <v>350</v>
       </c>
       <c r="G10" s="2">
-        <v>50.51</v>
+        <v>83.78</v>
       </c>
       <c r="H10" s="2">
-        <v>3232.64</v>
+        <v>14577.72</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="2">
-        <v>919.69</v>
+        <v>912.09</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -780,22 +785,22 @@
         <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
-        <v>787.37</v>
+        <v>9596.5</v>
       </c>
       <c r="E11" s="2">
-        <v>787.37</v>
+        <v>799.71</v>
       </c>
       <c r="F11" s="2">
         <v>400</v>
       </c>
       <c r="G11" s="2">
-        <v>387.37</v>
+        <v>399.71</v>
       </c>
       <c r="H11" s="2">
-        <v>387.37</v>
+        <v>4796.52</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>21</v>
@@ -811,27 +816,29 @@
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
       <c r="D12" s="2">
-        <v>-159</v>
+        <v>9826.92</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>893.36</v>
       </c>
       <c r="F12" s="2">
         <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>-450</v>
+        <v>443.36</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>4876.96</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1877.27</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -842,28 +849,28 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
-        <v>2549.43</v>
+        <v>4253.04</v>
       </c>
       <c r="E13" s="2">
-        <v>849.81</v>
+        <v>327.16</v>
       </c>
       <c r="F13" s="2">
         <v>450</v>
       </c>
       <c r="G13" s="2">
-        <v>399.81</v>
+        <v>-122.84</v>
       </c>
       <c r="H13" s="2">
-        <v>1199.43</v>
+        <v>-1596.92</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="2">
-        <v>1800</v>
+        <v>1755.69</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -874,28 +881,28 @@
         <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2">
-        <v>10828.98</v>
+        <v>34431.98</v>
       </c>
       <c r="E14" s="2">
-        <v>360.97</v>
+        <v>378.37</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>110.97</v>
+        <v>128.37</v>
       </c>
       <c r="H14" s="2">
-        <v>3329.1</v>
+        <v>11681.67</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="2">
-        <v>770.73</v>
+        <v>774.31</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -906,28 +913,28 @@
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2">
-        <v>6987.05</v>
+        <v>23087.4</v>
       </c>
       <c r="E15" s="2">
-        <v>291.13</v>
+        <v>329.82</v>
       </c>
       <c r="F15" s="2">
         <v>250</v>
       </c>
       <c r="G15" s="2">
-        <v>41.13</v>
+        <v>79.82</v>
       </c>
       <c r="H15" s="2">
-        <v>987.12</v>
+        <v>5587.4</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="2">
-        <v>660.25</v>
+        <v>678.74</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -938,28 +945,28 @@
         <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2">
-        <v>21995.68</v>
+        <v>81479.36</v>
       </c>
       <c r="E16" s="2">
-        <v>1047.41</v>
+        <v>1147.6</v>
       </c>
       <c r="F16" s="2">
         <v>880</v>
       </c>
       <c r="G16" s="2">
-        <v>167.41</v>
+        <v>267.6</v>
       </c>
       <c r="H16" s="2">
-        <v>3515.61</v>
+        <v>18999.6</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="2">
-        <v>2165.81</v>
+        <v>2170.56</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -970,28 +977,28 @@
         <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="D17" s="2">
-        <v>111936.34</v>
+        <v>332267.4</v>
       </c>
       <c r="E17" s="2">
-        <v>1178.28</v>
+        <v>1182.45</v>
       </c>
       <c r="F17" s="2">
         <v>1000</v>
       </c>
       <c r="G17" s="2">
-        <v>178.28</v>
+        <v>182.45</v>
       </c>
       <c r="H17" s="2">
-        <v>16936.6</v>
+        <v>51268.45</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="2">
-        <v>2422.65</v>
+        <v>2245.47</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1002,28 +1009,28 @@
         <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2">
-        <v>29306.85</v>
+        <v>56898.89</v>
       </c>
       <c r="E18" s="2">
-        <v>976.9</v>
+        <v>1094.21</v>
       </c>
       <c r="F18" s="2">
         <v>1020</v>
       </c>
       <c r="G18" s="2">
-        <v>-43.1</v>
+        <v>74.21</v>
       </c>
       <c r="H18" s="2">
-        <v>-1293</v>
+        <v>3858.92</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J18" s="2">
-        <v>2210</v>
+        <v>2195.27</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1033,29 +1040,27 @@
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2">
-        <v>27</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>32792.3</v>
+        <v>-24.15</v>
       </c>
       <c r="E19" s="2">
-        <v>1214.53</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="G19" s="2">
-        <v>14.53</v>
+        <v>-1020</v>
       </c>
       <c r="H19" s="2">
-        <v>392.31</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J19" s="2">
-        <v>2527.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1066,28 +1071,28 @@
         <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="D20" s="2">
-        <v>11691.81</v>
+        <v>152283.79</v>
       </c>
       <c r="E20" s="2">
-        <v>1299.09</v>
+        <v>1371.93</v>
       </c>
       <c r="F20" s="2">
-        <v>1170</v>
+        <v>1200</v>
       </c>
       <c r="G20" s="2">
-        <v>129.09</v>
+        <v>171.93</v>
       </c>
       <c r="H20" s="2">
-        <v>1161.81</v>
+        <v>19084.23</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J20" s="2">
-        <v>2466.89</v>
+        <v>2535.54</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1098,28 +1103,28 @@
         <v>34</v>
       </c>
       <c r="C21" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2">
-        <v>6512.72</v>
+        <v>34275.75</v>
       </c>
       <c r="E21" s="2">
-        <v>1302.54</v>
+        <v>1318.3</v>
       </c>
       <c r="F21" s="2">
-        <v>1380</v>
+        <v>1170</v>
       </c>
       <c r="G21" s="2">
-        <v>-77.46</v>
+        <v>148.3</v>
       </c>
       <c r="H21" s="2">
-        <v>-387.3</v>
+        <v>3855.8</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J21" s="2">
-        <v>2900</v>
+        <v>2453.92</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1130,28 +1135,28 @@
         <v>35</v>
       </c>
       <c r="C22" s="2">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2">
-        <v>3918.35</v>
+        <v>105971.58</v>
       </c>
       <c r="E22" s="2">
-        <v>783.67</v>
+        <v>1605.63</v>
       </c>
       <c r="F22" s="2">
-        <v>650</v>
+        <v>1380</v>
       </c>
       <c r="G22" s="2">
-        <v>133.67</v>
+        <v>225.63</v>
       </c>
       <c r="H22" s="2">
-        <v>668.35</v>
+        <v>14891.58</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J22" s="2">
-        <v>1650</v>
+        <v>2871.83</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1159,114 +1164,146 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2">
+        <v>34598.52</v>
+      </c>
+      <c r="E23" s="2">
+        <v>864.96</v>
+      </c>
+      <c r="F23" s="2">
+        <v>650</v>
+      </c>
+      <c r="G23" s="2">
+        <v>214.96</v>
+      </c>
+      <c r="H23" s="2">
+        <v>8598.4</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="2">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2">
-        <v>8093.68</v>
-      </c>
-      <c r="E23" s="2">
-        <v>367.89</v>
-      </c>
-      <c r="F23" s="2">
-        <v>250</v>
-      </c>
-      <c r="G23" s="2">
-        <v>117.89</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2593.58</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="J23" s="2">
-        <v>781.55</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2">
+        <v>20299.76</v>
+      </c>
+      <c r="E24" s="2">
+        <v>398.03</v>
+      </c>
+      <c r="F24" s="2">
+        <v>250</v>
+      </c>
+      <c r="G24" s="2">
+        <v>148.03</v>
+      </c>
+      <c r="H24" s="2">
+        <v>7549.53</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="2">
+        <v>796.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
         <v>6210</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>-210</v>
+      </c>
+      <c r="E25" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F25" s="2">
+        <v>400</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-400</v>
+      </c>
+      <c r="H25" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="2">
-        <v>400</v>
-      </c>
-      <c r="G24" s="2">
-        <v>-400</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="I25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
-        <v>502760.33</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3">
-        <v>-62004.44</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="2">
-        <v>502760.33</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
+        <v>2005432.88</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <v>287954.77</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2005432.88</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H27" s="2">
-        <v>-62004.44</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="2">
+        <v>287954.77</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
-  <si>
-    <t>OZON ИП ЗЕЛ</t>
-  </si>
-  <si>
-    <t>Дата начала: 2024-09-01 ; Дата окончания : 2024-09-30</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>OZON ООО АНМАКС</t>
+  </si>
+  <si>
+    <t>Дата начала: 2024-11-01 ; Дата окончания : 2024-11-07</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,40 +53,37 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-ч</t>
+    <t>82400-Ч</t>
   </si>
   <si>
     <t>420x420x120</t>
   </si>
   <si>
-    <t>82400-чи</t>
-  </si>
-  <si>
-    <t>82401-ч</t>
+    <t>82400-К</t>
+  </si>
+  <si>
+    <t>82401-чм</t>
   </si>
   <si>
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-чи</t>
-  </si>
-  <si>
-    <t>82401-к</t>
-  </si>
-  <si>
-    <t>82401-з</t>
-  </si>
-  <si>
-    <t>82402-ч</t>
+    <t>82401-км</t>
+  </si>
+  <si>
+    <t>82401-зм</t>
+  </si>
+  <si>
+    <t>82402-Ч</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
-    <t>82402-к</t>
-  </si>
-  <si>
-    <t>82402-з</t>
+    <t>82402-К</t>
+  </si>
+  <si>
+    <t>82402-З</t>
   </si>
   <si>
     <t>1840-30</t>
@@ -101,31 +98,22 @@
     <t>250x40x25</t>
   </si>
   <si>
-    <t>7280-к-6</t>
+    <t>7280-К-6</t>
   </si>
   <si>
     <t>1010x280x90</t>
   </si>
   <si>
-    <t>7280-к-6-18</t>
-  </si>
-  <si>
-    <t>7260-к-8(фнш1)</t>
-  </si>
-  <si>
-    <t>7260-к-8</t>
-  </si>
-  <si>
-    <t>7260-К-8-24</t>
-  </si>
-  <si>
-    <t>7245-к-10</t>
-  </si>
-  <si>
-    <t>7245-к-10-30</t>
-  </si>
-  <si>
-    <t>7262-кп</t>
+    <t>7280-К-6-18</t>
+  </si>
+  <si>
+    <t>7260-К-8</t>
+  </si>
+  <si>
+    <t>7245-К-10-30</t>
+  </si>
+  <si>
+    <t>7262-КП</t>
   </si>
   <si>
     <t>1010x150x150</t>
@@ -134,7 +122,16 @@
     <t>8910-30</t>
   </si>
   <si>
-    <t>380x380x75</t>
+    <t>ANM.39*59</t>
+  </si>
+  <si>
+    <t>600x400x30</t>
+  </si>
+  <si>
+    <t>ANM.49*99</t>
+  </si>
+  <si>
+    <t>1000x500x30</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -523,7 +520,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -593,28 +590,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>1423</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>446715.83</v>
+        <v>4943.92</v>
       </c>
       <c r="E5" s="2">
-        <v>313.93</v>
+        <v>247.2</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>63.93</v>
+        <v>-2.8</v>
       </c>
       <c r="H5" s="2">
-        <v>90972.39</v>
+        <v>-56</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>822.22</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -625,28 +622,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>17802.81</v>
+        <v>1226.29</v>
       </c>
       <c r="E6" s="2">
-        <v>370.89</v>
+        <v>408.76</v>
       </c>
       <c r="F6" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>120.89</v>
+        <v>108.76</v>
       </c>
       <c r="H6" s="2">
-        <v>5802.72</v>
+        <v>326.28</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>784.46</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -657,28 +654,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>1095</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2">
-        <v>263662.44</v>
+        <v>17226.57</v>
       </c>
       <c r="E7" s="2">
-        <v>240.79</v>
+        <v>441.71</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>-59.21</v>
+        <v>141.71</v>
       </c>
       <c r="H7" s="2">
-        <v>-64834.95</v>
+        <v>5526.69</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>893.35</v>
+        <v>958.97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -689,28 +686,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
-        <v>30926.57</v>
+        <v>16175.11</v>
       </c>
       <c r="E8" s="2">
-        <v>423.65</v>
+        <v>462.15</v>
       </c>
       <c r="F8" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>123.65</v>
+        <v>112.15</v>
       </c>
       <c r="H8" s="2">
-        <v>9026.45</v>
+        <v>3925.25</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>916.93</v>
+        <v>990.14</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -721,28 +718,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>551</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>271809.94</v>
+        <v>6316.92</v>
       </c>
       <c r="E9" s="2">
-        <v>493.3</v>
+        <v>394.81</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>143.3</v>
+        <v>44.81</v>
       </c>
       <c r="H9" s="2">
-        <v>78958.3</v>
+        <v>716.96</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>1008.8</v>
+        <v>853.94</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -753,28 +750,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>75478.55</v>
+        <v>1939.31</v>
       </c>
       <c r="E10" s="2">
-        <v>433.78</v>
+        <v>387.86</v>
       </c>
       <c r="F10" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="G10" s="2">
-        <v>83.78</v>
+        <v>-12.14</v>
       </c>
       <c r="H10" s="2">
-        <v>14577.72</v>
+        <v>-60.7</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2">
-        <v>912.09</v>
+        <v>1450.6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -782,31 +779,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7739.99</v>
+      </c>
+      <c r="E11" s="2">
+        <v>774</v>
+      </c>
+      <c r="F11" s="2">
+        <v>450</v>
+      </c>
+      <c r="G11" s="2">
+        <v>324</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3240</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9596.5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>799.71</v>
-      </c>
-      <c r="F11" s="2">
-        <v>400</v>
-      </c>
-      <c r="G11" s="2">
-        <v>399.71</v>
-      </c>
-      <c r="H11" s="2">
-        <v>4796.52</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="J11" s="2">
-        <v>1710</v>
+        <v>1844.6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -817,28 +814,28 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>9826.92</v>
+        <v>890.91</v>
       </c>
       <c r="E12" s="2">
-        <v>893.36</v>
+        <v>890.91</v>
       </c>
       <c r="F12" s="2">
         <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>443.36</v>
+        <v>440.91</v>
       </c>
       <c r="H12" s="2">
-        <v>4876.96</v>
+        <v>440.91</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
-        <v>1877.27</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -849,28 +846,28 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>4253.04</v>
+        <v>1699.11</v>
       </c>
       <c r="E13" s="2">
-        <v>327.16</v>
+        <v>424.78</v>
       </c>
       <c r="F13" s="2">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>-122.84</v>
+        <v>174.78</v>
       </c>
       <c r="H13" s="2">
-        <v>-1596.92</v>
+        <v>699.12</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2">
-        <v>1755.69</v>
+        <v>950</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -878,31 +875,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>34431.98</v>
+        <v>828</v>
       </c>
       <c r="E14" s="2">
-        <v>378.37</v>
+        <v>414</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>128.37</v>
+        <v>164</v>
       </c>
       <c r="H14" s="2">
-        <v>11681.67</v>
+        <v>328</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2">
-        <v>774.31</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -910,31 +907,29 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2">
-        <v>70</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>23087.4</v>
+        <v>-259</v>
       </c>
       <c r="E15" s="2">
-        <v>329.82</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>250</v>
+        <v>880</v>
       </c>
       <c r="G15" s="2">
-        <v>79.82</v>
+        <v>-880</v>
       </c>
       <c r="H15" s="2">
-        <v>5587.4</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2">
-        <v>678.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -942,31 +937,29 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>-556.8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2">
-        <v>81479.36</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1147.6</v>
-      </c>
-      <c r="F16" s="2">
-        <v>880</v>
-      </c>
-      <c r="G16" s="2">
-        <v>267.6</v>
-      </c>
-      <c r="H16" s="2">
-        <v>18999.6</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="J16" s="2">
-        <v>2170.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -977,28 +970,28 @@
         <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>332267.4</v>
+        <v>268.59</v>
       </c>
       <c r="E17" s="2">
-        <v>1182.45</v>
+        <v>268.59</v>
       </c>
       <c r="F17" s="2">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="G17" s="2">
-        <v>182.45</v>
+        <v>-751.41</v>
       </c>
       <c r="H17" s="2">
-        <v>51268.45</v>
+        <v>-751.41</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="2">
-        <v>2245.47</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1009,28 +1002,28 @@
         <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>56898.89</v>
+        <v>10859.53</v>
       </c>
       <c r="E18" s="2">
-        <v>1094.21</v>
+        <v>2171.91</v>
       </c>
       <c r="F18" s="2">
-        <v>1020</v>
+        <v>1380</v>
       </c>
       <c r="G18" s="2">
-        <v>74.21</v>
+        <v>791.91</v>
       </c>
       <c r="H18" s="2">
-        <v>3858.92</v>
+        <v>3959.55</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="2">
-        <v>2195.27</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1042,22 +1035,22 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>-24.15</v>
+        <v>-16.45</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>1020</v>
+        <v>650</v>
       </c>
       <c r="G19" s="2">
-        <v>-1020</v>
+        <v>-650</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1068,31 +1061,31 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2">
-        <v>152283.79</v>
+        <v>2123.31</v>
       </c>
       <c r="E20" s="2">
-        <v>1371.93</v>
+        <v>353.89</v>
       </c>
       <c r="F20" s="2">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G20" s="2">
-        <v>171.93</v>
+        <v>103.89</v>
       </c>
       <c r="H20" s="2">
-        <v>19084.23</v>
+        <v>623.34</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J20" s="2">
-        <v>2535.54</v>
+        <v>732.67</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1100,31 +1093,31 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>34275.75</v>
+        <v>2242.38</v>
       </c>
       <c r="E21" s="2">
-        <v>1318.3</v>
+        <v>2242.38</v>
       </c>
       <c r="F21" s="2">
-        <v>1170</v>
+        <v>2000</v>
       </c>
       <c r="G21" s="2">
-        <v>148.3</v>
+        <v>242.38</v>
       </c>
       <c r="H21" s="2">
-        <v>3855.8</v>
+        <v>242.38</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J21" s="2">
-        <v>2453.92</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1132,178 +1125,84 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2">
-        <v>105971.58</v>
+        <v>16829.82</v>
       </c>
       <c r="E22" s="2">
-        <v>1605.63</v>
+        <v>2804.97</v>
       </c>
       <c r="F22" s="2">
-        <v>1380</v>
+        <v>3000</v>
       </c>
       <c r="G22" s="2">
-        <v>225.63</v>
+        <v>-195.03</v>
       </c>
       <c r="H22" s="2">
-        <v>14891.58</v>
+        <v>-1170.18</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J22" s="2">
-        <v>2871.83</v>
+        <v>4666.67</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>90477.51</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>17990.19</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="2">
+        <v>90477.51</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="2">
-        <v>34598.52</v>
-      </c>
-      <c r="E23" s="2">
-        <v>864.96</v>
-      </c>
-      <c r="F23" s="2">
-        <v>650</v>
-      </c>
-      <c r="G23" s="2">
-        <v>214.96</v>
-      </c>
-      <c r="H23" s="2">
-        <v>8598.4</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="2">
-        <v>51</v>
-      </c>
-      <c r="D24" s="2">
-        <v>20299.76</v>
-      </c>
-      <c r="E24" s="2">
-        <v>398.03</v>
-      </c>
-      <c r="F24" s="2">
-        <v>250</v>
-      </c>
-      <c r="G24" s="2">
-        <v>148.03</v>
-      </c>
       <c r="H24" s="2">
-        <v>7549.53</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="2">
-        <v>796.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2">
-        <v>6210</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <v>-210</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>400</v>
-      </c>
-      <c r="G25" s="2">
-        <v>-400</v>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
-        <v>2005432.88</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3">
-        <v>287954.77</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2005432.88</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="2">
-        <v>287954.77</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+        <v>17990.19</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>OZON ООО АНМАКС</t>
   </si>
   <si>
-    <t>Дата начала: 2024-11-01 ; Дата окончания : 2024-11-07</t>
+    <t>Дата начала: 2024-12-01 ; Дата окончания : 2024-12-31</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,19 +53,28 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-Ч</t>
+    <t>82400-Ч(финиш-2)</t>
   </si>
   <si>
     <t>420x420x120</t>
   </si>
   <si>
+    <t>82400-ч</t>
+  </si>
+  <si>
     <t>82400-К</t>
   </si>
   <si>
+    <t>82401-ч</t>
+  </si>
+  <si>
+    <t>550x550x140</t>
+  </si>
+  <si>
     <t>82401-чм</t>
   </si>
   <si>
-    <t>550x550x140</t>
+    <t>82401-чн</t>
   </si>
   <si>
     <t>82401-км</t>
@@ -83,9 +92,6 @@
     <t>82402-К</t>
   </si>
   <si>
-    <t>82402-З</t>
-  </si>
-  <si>
     <t>1840-30</t>
   </si>
   <si>
@@ -98,25 +104,28 @@
     <t>250x40x25</t>
   </si>
   <si>
-    <t>7280-К-6</t>
+    <t>7280-К-6-18</t>
   </si>
   <si>
     <t>1010x280x90</t>
   </si>
   <si>
-    <t>7280-К-6-18</t>
-  </si>
-  <si>
     <t>7260-К-8</t>
   </si>
   <si>
+    <t>7260-К-8-24</t>
+  </si>
+  <si>
+    <t>7245-К-10</t>
+  </si>
+  <si>
     <t>7245-К-10-30</t>
   </si>
   <si>
-    <t>7262-КП</t>
-  </si>
-  <si>
-    <t>1010x150x150</t>
+    <t>7280-К-8</t>
+  </si>
+  <si>
+    <t>0x0x0</t>
   </si>
   <si>
     <t>8910-30</t>
@@ -132,6 +141,9 @@
   </si>
   <si>
     <t>1000x500x30</t>
+  </si>
+  <si>
+    <t>SKU = 1721578846</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -520,7 +532,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -590,28 +602,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>4943.92</v>
+        <v>-34.28</v>
       </c>
       <c r="E5" s="2">
-        <v>247.2</v>
+        <v>-17.14</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>-2.8</v>
+        <v>-267.14</v>
       </c>
       <c r="H5" s="2">
-        <v>-56</v>
+        <v>-534.28</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -622,28 +634,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>1226.29</v>
+        <v>251.5</v>
       </c>
       <c r="E6" s="2">
-        <v>408.76</v>
+        <v>125.75</v>
       </c>
       <c r="F6" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G6" s="2">
-        <v>108.76</v>
+        <v>-124.25</v>
       </c>
       <c r="H6" s="2">
-        <v>326.28</v>
+        <v>-248.5</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>840</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -654,28 +666,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>17226.57</v>
+        <v>5528.14</v>
       </c>
       <c r="E7" s="2">
-        <v>441.71</v>
+        <v>368.54</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>141.71</v>
+        <v>68.54</v>
       </c>
       <c r="H7" s="2">
-        <v>5526.69</v>
+        <v>1028.1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2">
-        <v>958.97</v>
+        <v>860</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -683,31 +695,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11950.87</v>
+      </c>
+      <c r="E8" s="2">
+        <v>265.57</v>
+      </c>
+      <c r="F8" s="2">
+        <v>300</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-34.43</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-1549.35</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2">
-        <v>16175.11</v>
-      </c>
-      <c r="E8" s="2">
-        <v>462.15</v>
-      </c>
-      <c r="F8" s="2">
-        <v>350</v>
-      </c>
-      <c r="G8" s="2">
-        <v>112.15</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3925.25</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J8" s="2">
-        <v>990.14</v>
+        <v>990.87</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -717,29 +729,27 @@
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
-        <v>16</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>6316.92</v>
+        <v>-4265.77</v>
       </c>
       <c r="E9" s="2">
-        <v>394.81</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="G9" s="2">
-        <v>44.81</v>
+        <v>-300</v>
       </c>
       <c r="H9" s="2">
-        <v>716.96</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" s="2">
-        <v>853.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -749,29 +759,27 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>1939.31</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>387.86</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G10" s="2">
-        <v>-12.14</v>
+        <v>-300</v>
       </c>
       <c r="H10" s="2">
-        <v>-60.7</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J10" s="2">
-        <v>1450.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -779,31 +787,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2">
-        <v>7739.99</v>
+        <v>36279.37</v>
       </c>
       <c r="E11" s="2">
-        <v>774</v>
+        <v>417</v>
       </c>
       <c r="F11" s="2">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="G11" s="2">
-        <v>324</v>
+        <v>67</v>
       </c>
       <c r="H11" s="2">
-        <v>3240</v>
+        <v>5829</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J11" s="2">
-        <v>1844.6</v>
+        <v>1044.52</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -811,31 +819,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
-        <v>890.91</v>
+        <v>9013.35</v>
       </c>
       <c r="E12" s="2">
-        <v>890.91</v>
+        <v>474.39</v>
       </c>
       <c r="F12" s="2">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="G12" s="2">
-        <v>440.91</v>
+        <v>124.39</v>
       </c>
       <c r="H12" s="2">
-        <v>440.91</v>
+        <v>2363.41</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J12" s="2">
-        <v>1999</v>
+        <v>1094.11</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -843,31 +851,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2">
+        <v>41658.06</v>
+      </c>
+      <c r="E13" s="2">
+        <v>718.24</v>
+      </c>
+      <c r="F13" s="2">
+        <v>400</v>
+      </c>
+      <c r="G13" s="2">
+        <v>318.24</v>
+      </c>
+      <c r="H13" s="2">
+        <v>18457.92</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1699.11</v>
-      </c>
-      <c r="E13" s="2">
-        <v>424.78</v>
-      </c>
-      <c r="F13" s="2">
-        <v>250</v>
-      </c>
-      <c r="G13" s="2">
-        <v>174.78</v>
-      </c>
-      <c r="H13" s="2">
-        <v>699.12</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J13" s="2">
-        <v>950</v>
+        <v>1717.98</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -875,31 +883,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
-        <v>828</v>
+        <v>21045.97</v>
       </c>
       <c r="E14" s="2">
-        <v>414</v>
+        <v>725.72</v>
       </c>
       <c r="F14" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G14" s="2">
-        <v>164</v>
+        <v>275.72</v>
       </c>
       <c r="H14" s="2">
-        <v>328</v>
+        <v>7995.88</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J14" s="2">
-        <v>750</v>
+        <v>1859.03</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -907,29 +915,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15</v>
+      </c>
       <c r="D15" s="2">
-        <v>-259</v>
+        <v>5480.41</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>365.36</v>
       </c>
       <c r="F15" s="2">
-        <v>880</v>
+        <v>250</v>
       </c>
       <c r="G15" s="2">
-        <v>-880</v>
+        <v>115.36</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1730.4</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>881.2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -937,29 +947,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7</v>
+      </c>
       <c r="D16" s="2">
-        <v>-556.8</v>
+        <v>2045.06</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>292.15</v>
       </c>
       <c r="F16" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G16" s="2">
-        <v>-1000</v>
+        <v>42.15</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>295.05</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>625.71</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -967,31 +979,31 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1972.96</v>
+      </c>
+      <c r="E17" s="2">
+        <v>986.48</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-13.52</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-27.04</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>268.59</v>
-      </c>
-      <c r="E17" s="2">
-        <v>268.59</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1020</v>
-      </c>
-      <c r="G17" s="2">
-        <v>-751.41</v>
-      </c>
-      <c r="H17" s="2">
-        <v>-751.41</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="J17" s="2">
-        <v>2500</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1001,29 +1013,27 @@
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2">
-        <v>5</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>10859.53</v>
+        <v>-48.95</v>
       </c>
       <c r="E18" s="2">
-        <v>2171.91</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>1380</v>
+        <v>1020</v>
       </c>
       <c r="G18" s="2">
-        <v>791.91</v>
+        <v>-1020</v>
       </c>
       <c r="H18" s="2">
-        <v>3959.55</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1033,27 +1043,29 @@
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
       <c r="D19" s="2">
-        <v>-16.45</v>
+        <v>13281.21</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>1475.69</v>
       </c>
       <c r="F19" s="2">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="G19" s="2">
-        <v>-650</v>
+        <v>275.69</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>2481.21</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J19" s="2">
-        <v>0</v>
+        <v>2822.67</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1061,31 +1073,31 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>2123.31</v>
+        <v>724.22</v>
       </c>
       <c r="E20" s="2">
-        <v>353.89</v>
+        <v>724.22</v>
       </c>
       <c r="F20" s="2">
-        <v>250</v>
+        <v>1170</v>
       </c>
       <c r="G20" s="2">
-        <v>103.89</v>
+        <v>-445.78</v>
       </c>
       <c r="H20" s="2">
-        <v>623.34</v>
+        <v>-445.78</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J20" s="2">
-        <v>732.67</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1093,31 +1105,31 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>2242.38</v>
+        <v>1946.19</v>
       </c>
       <c r="E21" s="2">
-        <v>2242.38</v>
+        <v>1946.19</v>
       </c>
       <c r="F21" s="2">
-        <v>2000</v>
+        <v>1380</v>
       </c>
       <c r="G21" s="2">
-        <v>242.38</v>
+        <v>566.19</v>
       </c>
       <c r="H21" s="2">
-        <v>242.38</v>
+        <v>566.19</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J21" s="2">
-        <v>3850</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1125,84 +1137,210 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>972.07</v>
+      </c>
+      <c r="E22" s="2">
+        <v>486.04</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1040</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-553.96</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-1107.92</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="2">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2">
-        <v>16829.82</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2804.97</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1288.29</v>
+      </c>
+      <c r="E23" s="2">
+        <v>429.43</v>
+      </c>
+      <c r="F23" s="2">
+        <v>250</v>
+      </c>
+      <c r="G23" s="2">
+        <v>179.43</v>
+      </c>
+      <c r="H23" s="2">
+        <v>538.29</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="2">
+        <v>806.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>21270.6</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2127.06</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>127.06</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1270.6</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2">
+        <v>70850.37</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4167.67</v>
+      </c>
+      <c r="F25" s="2">
         <v>3000</v>
       </c>
-      <c r="G22" s="2">
-        <v>-195.03</v>
-      </c>
-      <c r="H22" s="2">
-        <v>-1170.18</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="2">
-        <v>4666.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <v>90477.51</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <v>17990.19</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="2">
-        <v>90477.51</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2">
+        <v>1167.67</v>
+      </c>
+      <c r="H25" s="2">
+        <v>19850.39</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="2">
-        <v>17990.19</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>-13.94</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>241195.7</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>58493.57</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2">
+        <v>241195.7</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="2">
+        <v>58493.57</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>OZON ООО АНМАКС</t>
   </si>
   <si>
-    <t>Дата начала: 2024-12-01 ; Дата окончания : 2024-12-31</t>
+    <t>Дата начала: 2024-07-01 ; Дата окончания : 2024-07-31</t>
   </si>
   <si>
     <t>пп</t>
@@ -59,28 +59,19 @@
     <t>420x420x120</t>
   </si>
   <si>
-    <t>82400-ч</t>
-  </si>
-  <si>
     <t>82400-К</t>
   </si>
   <si>
-    <t>82401-ч</t>
+    <t>82401-чн</t>
   </si>
   <si>
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-чм</t>
-  </si>
-  <si>
-    <t>82401-чн</t>
-  </si>
-  <si>
-    <t>82401-км</t>
-  </si>
-  <si>
-    <t>82401-зм</t>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>82401-З</t>
   </si>
   <si>
     <t>82402-Ч</t>
@@ -92,6 +83,9 @@
     <t>82402-К</t>
   </si>
   <si>
+    <t>82402-З</t>
+  </si>
+  <si>
     <t>1840-30</t>
   </si>
   <si>
@@ -104,12 +98,15 @@
     <t>250x40x25</t>
   </si>
   <si>
+    <t>7280-К-6</t>
+  </si>
+  <si>
+    <t>1010x280x90</t>
+  </si>
+  <si>
     <t>7280-К-6-18</t>
   </si>
   <si>
-    <t>1010x280x90</t>
-  </si>
-  <si>
     <t>7260-К-8</t>
   </si>
   <si>
@@ -128,22 +125,28 @@
     <t>0x0x0</t>
   </si>
   <si>
+    <t>7260-К-12</t>
+  </si>
+  <si>
+    <t>7262-КП</t>
+  </si>
+  <si>
+    <t>1010x150x150</t>
+  </si>
+  <si>
     <t>8910-30</t>
   </si>
   <si>
-    <t>ANM.39*59</t>
-  </si>
-  <si>
-    <t>600x400x30</t>
-  </si>
-  <si>
     <t>ANM.49*99</t>
   </si>
   <si>
     <t>1000x500x30</t>
   </si>
   <si>
-    <t>SKU = 1721578846</t>
+    <t>380x380x75</t>
+  </si>
+  <si>
+    <t>SKU = 518682944</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -532,7 +535,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -602,28 +605,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>635</v>
       </c>
       <c r="D5" s="2">
-        <v>-34.28</v>
+        <v>236596.78</v>
       </c>
       <c r="E5" s="2">
-        <v>-17.14</v>
+        <v>372.59</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>-267.14</v>
+        <v>122.59</v>
       </c>
       <c r="H5" s="2">
-        <v>-534.28</v>
+        <v>77844.65</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>757.61</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -633,29 +636,27 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>251.5</v>
+        <v>-1341</v>
       </c>
       <c r="E6" s="2">
-        <v>125.75</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>-124.25</v>
+        <v>-300</v>
       </c>
       <c r="H6" s="2">
-        <v>-248.5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -666,28 +667,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>15</v>
+        <v>1291</v>
       </c>
       <c r="D7" s="2">
-        <v>5528.14</v>
+        <v>636035.85</v>
       </c>
       <c r="E7" s="2">
-        <v>368.54</v>
+        <v>492.67</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>68.54</v>
+        <v>192.67</v>
       </c>
       <c r="H7" s="2">
-        <v>1028.1</v>
+        <v>248736.97</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>860</v>
+        <v>964.32</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -695,31 +696,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>613</v>
+      </c>
+      <c r="D8" s="2">
+        <v>273914.45</v>
+      </c>
+      <c r="E8" s="2">
+        <v>446.84</v>
+      </c>
+      <c r="F8" s="2">
+        <v>350</v>
+      </c>
+      <c r="G8" s="2">
+        <v>96.84</v>
+      </c>
+      <c r="H8" s="2">
+        <v>59362.92</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2">
-        <v>11950.87</v>
-      </c>
-      <c r="E8" s="2">
-        <v>265.57</v>
-      </c>
-      <c r="F8" s="2">
-        <v>300</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-34.43</v>
-      </c>
-      <c r="H8" s="2">
-        <v>-1549.35</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="J8" s="2">
-        <v>990.87</v>
+        <v>982.24</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -729,27 +730,29 @@
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
       <c r="D9" s="2">
-        <v>-4265.77</v>
+        <v>542.88</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>542.88</v>
       </c>
       <c r="F9" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>-300</v>
+        <v>192.88</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>192.88</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -759,27 +762,29 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>6287.27</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>698.59</v>
       </c>
       <c r="F10" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G10" s="2">
-        <v>-300</v>
+        <v>298.59</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>2687.31</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -787,31 +792,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
-        <v>87</v>
-      </c>
       <c r="D11" s="2">
-        <v>36279.37</v>
+        <v>16199.16</v>
       </c>
       <c r="E11" s="2">
-        <v>417</v>
+        <v>809.96</v>
       </c>
       <c r="F11" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="G11" s="2">
-        <v>67</v>
+        <v>359.96</v>
       </c>
       <c r="H11" s="2">
-        <v>5829</v>
+        <v>7199.2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2">
-        <v>1044.52</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -819,31 +824,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>9013.35</v>
+        <v>929.08</v>
       </c>
       <c r="E12" s="2">
-        <v>474.39</v>
+        <v>464.54</v>
       </c>
       <c r="F12" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>124.39</v>
+        <v>14.54</v>
       </c>
       <c r="H12" s="2">
-        <v>2363.41</v>
+        <v>29.08</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
-        <v>1094.11</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -851,31 +856,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2">
-        <v>41658.06</v>
+        <v>92722.26</v>
       </c>
       <c r="E13" s="2">
-        <v>718.24</v>
+        <v>568.85</v>
       </c>
       <c r="F13" s="2">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>318.24</v>
+        <v>318.85</v>
       </c>
       <c r="H13" s="2">
-        <v>18457.92</v>
+        <v>51972.55</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2">
-        <v>1717.98</v>
+        <v>948.35</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -883,31 +888,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="D14" s="2">
-        <v>21045.97</v>
+        <v>60718.23</v>
       </c>
       <c r="E14" s="2">
-        <v>725.72</v>
+        <v>370.23</v>
       </c>
       <c r="F14" s="2">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>275.72</v>
+        <v>120.23</v>
       </c>
       <c r="H14" s="2">
-        <v>7995.88</v>
+        <v>19717.72</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2">
-        <v>1859.03</v>
+        <v>669.84</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -915,31 +920,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="D15" s="2">
-        <v>5480.41</v>
+        <v>267189.97</v>
       </c>
       <c r="E15" s="2">
-        <v>365.36</v>
+        <v>1099.55</v>
       </c>
       <c r="F15" s="2">
-        <v>250</v>
+        <v>880</v>
       </c>
       <c r="G15" s="2">
-        <v>115.36</v>
+        <v>219.55</v>
       </c>
       <c r="H15" s="2">
-        <v>1730.4</v>
+        <v>53350.65</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2">
-        <v>881.2</v>
+        <v>2048.87</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -947,31 +952,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>7</v>
+        <v>301</v>
       </c>
       <c r="D16" s="2">
-        <v>2045.06</v>
+        <v>381292.44</v>
       </c>
       <c r="E16" s="2">
-        <v>292.15</v>
+        <v>1266.75</v>
       </c>
       <c r="F16" s="2">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="2">
-        <v>42.15</v>
+        <v>266.75</v>
       </c>
       <c r="H16" s="2">
-        <v>295.05</v>
+        <v>80291.75</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="2">
-        <v>625.71</v>
+        <v>2254.61</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -979,31 +984,31 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2">
-        <v>1972.96</v>
+        <v>118217.2</v>
       </c>
       <c r="E17" s="2">
-        <v>986.48</v>
+        <v>1244.39</v>
       </c>
       <c r="F17" s="2">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="G17" s="2">
-        <v>-13.52</v>
+        <v>224.39</v>
       </c>
       <c r="H17" s="2">
-        <v>-27.04</v>
+        <v>21317.05</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J17" s="2">
-        <v>2052</v>
+        <v>2249.05</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1013,27 +1018,29 @@
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <v>280</v>
+      </c>
       <c r="D18" s="2">
-        <v>-48.95</v>
+        <v>390129.86</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>1393.32</v>
       </c>
       <c r="F18" s="2">
-        <v>1020</v>
+        <v>1200</v>
       </c>
       <c r="G18" s="2">
-        <v>-1020</v>
+        <v>193.32</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>54129.6</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>2475.21</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1044,28 +1051,28 @@
         <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2">
-        <v>13281.21</v>
+        <v>103532.31</v>
       </c>
       <c r="E19" s="2">
-        <v>1475.69</v>
+        <v>1458.2</v>
       </c>
       <c r="F19" s="2">
-        <v>1200</v>
+        <v>1170</v>
       </c>
       <c r="G19" s="2">
-        <v>275.69</v>
+        <v>288.2</v>
       </c>
       <c r="H19" s="2">
-        <v>2481.21</v>
+        <v>20462.2</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J19" s="2">
-        <v>2822.67</v>
+        <v>2645.46</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1076,28 +1083,28 @@
         <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="D20" s="2">
-        <v>724.22</v>
+        <v>304990.41</v>
       </c>
       <c r="E20" s="2">
-        <v>724.22</v>
+        <v>1622.29</v>
       </c>
       <c r="F20" s="2">
-        <v>1170</v>
+        <v>1380</v>
       </c>
       <c r="G20" s="2">
-        <v>-445.78</v>
+        <v>242.29</v>
       </c>
       <c r="H20" s="2">
-        <v>-445.78</v>
+        <v>45550.52</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J20" s="2">
-        <v>1958</v>
+        <v>2855.13</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1111,25 +1118,25 @@
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>1946.19</v>
+        <v>1378.9</v>
       </c>
       <c r="E21" s="2">
-        <v>1946.19</v>
+        <v>1378.9</v>
       </c>
       <c r="F21" s="2">
-        <v>1380</v>
+        <v>1040</v>
       </c>
       <c r="G21" s="2">
-        <v>566.19</v>
+        <v>338.9</v>
       </c>
       <c r="H21" s="2">
-        <v>566.19</v>
+        <v>338.9</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J21" s="2">
-        <v>3600</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1137,31 +1144,29 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>-1045.31</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1380</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-1380</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>972.07</v>
-      </c>
-      <c r="E22" s="2">
-        <v>486.04</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1040</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-553.96</v>
-      </c>
-      <c r="H22" s="2">
-        <v>-1107.92</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="J22" s="2">
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1172,28 +1177,28 @@
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2">
-        <v>1288.29</v>
+        <v>42896.19</v>
       </c>
       <c r="E23" s="2">
-        <v>429.43</v>
+        <v>779.93</v>
       </c>
       <c r="F23" s="2">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="G23" s="2">
-        <v>179.43</v>
+        <v>129.93</v>
       </c>
       <c r="H23" s="2">
-        <v>538.29</v>
+        <v>7146.15</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2">
-        <v>806.67</v>
+        <v>1579.02</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1201,31 +1206,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="D24" s="2">
-        <v>21270.6</v>
+        <v>74495.58</v>
       </c>
       <c r="E24" s="2">
-        <v>2127.06</v>
+        <v>506.77</v>
       </c>
       <c r="F24" s="2">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G24" s="2">
-        <v>127.06</v>
+        <v>256.77</v>
       </c>
       <c r="H24" s="2">
-        <v>1270.6</v>
+        <v>37745.19</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J24" s="2">
-        <v>3840</v>
+        <v>853.27</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1236,111 +1241,145 @@
         <v>40</v>
       </c>
       <c r="C25" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
-        <v>70850.37</v>
+        <v>124615.62</v>
       </c>
       <c r="E25" s="2">
-        <v>4167.67</v>
+        <v>4615.39</v>
       </c>
       <c r="F25" s="2">
         <v>3000</v>
       </c>
       <c r="G25" s="2">
-        <v>1167.67</v>
+        <v>1615.39</v>
       </c>
       <c r="H25" s="2">
-        <v>19850.39</v>
+        <v>43615.53</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J25" s="2">
-        <v>7300</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="2">
+        <v>6210</v>
+      </c>
+      <c r="C26" s="2">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2">
+        <v>26132.73</v>
+      </c>
+      <c r="E26" s="2">
+        <v>933.31</v>
+      </c>
+      <c r="F26" s="2">
+        <v>400</v>
+      </c>
+      <c r="G26" s="2">
+        <v>533.31</v>
+      </c>
+      <c r="H26" s="2">
+        <v>14932.68</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
-        <v>-13.94</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="J26" s="2">
+        <v>1495.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="2">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2">
+        <v>34393.21</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2456.66</v>
+      </c>
+      <c r="F27" s="2">
         <v>0</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H27" s="2">
         <v>0</v>
       </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
-        <v>241195.7</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3">
-        <v>58493.57</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="I27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3810.57</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="2">
-        <v>241195.7</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>3190824.07</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <v>846623.5</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3190824.07</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H29" s="2">
-        <v>58493.57</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="2">
+        <v>846623.5</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
-  <si>
-    <t>OZON ООО АНМАКС</t>
-  </si>
-  <si>
-    <t>Дата начала: 2024-07-01 ; Дата окончания : 2024-07-31</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+  <si>
+    <t>OZON ИП ЗЕЛ</t>
+  </si>
+  <si>
+    <t>Дата начала: 2024-06-01 ; Дата окончания : 2024-06-30</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,37 +53,40 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-Ч(финиш-2)</t>
+    <t>82400-ч</t>
   </si>
   <si>
     <t>420x420x120</t>
   </si>
   <si>
-    <t>82400-К</t>
-  </si>
-  <si>
-    <t>82401-чн</t>
+    <t>82400-к(финиш-1)</t>
+  </si>
+  <si>
+    <t>82400-з</t>
+  </si>
+  <si>
+    <t>82401-ч(фин-01)</t>
   </si>
   <si>
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-К</t>
-  </si>
-  <si>
-    <t>82401-З</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
+    <t>82401-к(фин-01)</t>
+  </si>
+  <si>
+    <t>82401-з</t>
+  </si>
+  <si>
+    <t>82402-ч</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
-    <t>82402-К</t>
-  </si>
-  <si>
-    <t>82402-З</t>
+    <t>82402-к</t>
+  </si>
+  <si>
+    <t>82402-з</t>
   </si>
   <si>
     <t>1840-30</t>
@@ -98,55 +101,31 @@
     <t>250x40x25</t>
   </si>
   <si>
-    <t>7280-К-6</t>
+    <t>7280-к-6</t>
   </si>
   <si>
     <t>1010x280x90</t>
   </si>
   <si>
-    <t>7280-К-6-18</t>
-  </si>
-  <si>
-    <t>7260-К-8</t>
+    <t>7280-к-6-18</t>
+  </si>
+  <si>
+    <t>7260-к-8(фнш1)</t>
   </si>
   <si>
     <t>7260-К-8-24</t>
   </si>
   <si>
-    <t>7245-К-10</t>
-  </si>
-  <si>
-    <t>7245-К-10-30</t>
-  </si>
-  <si>
-    <t>7280-К-8</t>
-  </si>
-  <si>
-    <t>0x0x0</t>
-  </si>
-  <si>
-    <t>7260-К-12</t>
-  </si>
-  <si>
-    <t>7262-КП</t>
+    <t>7245-к-10</t>
+  </si>
+  <si>
+    <t>7245-к-10-30</t>
+  </si>
+  <si>
+    <t>7262-кп</t>
   </si>
   <si>
     <t>1010x150x150</t>
-  </si>
-  <si>
-    <t>8910-30</t>
-  </si>
-  <si>
-    <t>ANM.49*99</t>
-  </si>
-  <si>
-    <t>1000x500x30</t>
-  </si>
-  <si>
-    <t>380x380x75</t>
-  </si>
-  <si>
-    <t>SKU = 518682944</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -535,7 +514,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -605,28 +584,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>635</v>
+        <v>1812</v>
       </c>
       <c r="D5" s="2">
-        <v>236596.78</v>
+        <v>767846.99</v>
       </c>
       <c r="E5" s="2">
-        <v>372.59</v>
+        <v>423.76</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>122.59</v>
+        <v>173.76</v>
       </c>
       <c r="H5" s="2">
-        <v>77844.65</v>
+        <v>314853.12</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>757.61</v>
+        <v>723.16</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -636,27 +615,29 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>321</v>
+      </c>
       <c r="D6" s="2">
-        <v>-1341</v>
+        <v>137808.57</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>429.31</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>-300</v>
+        <v>129.31</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>41508.51</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>756.6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -666,29 +647,27 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
-        <v>1291</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>636035.85</v>
+        <v>-152</v>
       </c>
       <c r="E7" s="2">
-        <v>492.67</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>192.67</v>
+        <v>-300</v>
       </c>
       <c r="H7" s="2">
-        <v>248736.97</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2">
-        <v>964.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -696,31 +675,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1541</v>
+      </c>
+      <c r="D8" s="2">
+        <v>759288.45</v>
+      </c>
+      <c r="E8" s="2">
+        <v>492.72</v>
+      </c>
+      <c r="F8" s="2">
+        <v>300</v>
+      </c>
+      <c r="G8" s="2">
+        <v>192.72</v>
+      </c>
+      <c r="H8" s="2">
+        <v>296981.52</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
-        <v>613</v>
-      </c>
-      <c r="D8" s="2">
-        <v>273914.45</v>
-      </c>
-      <c r="E8" s="2">
-        <v>446.84</v>
-      </c>
-      <c r="F8" s="2">
-        <v>350</v>
-      </c>
-      <c r="G8" s="2">
-        <v>96.84</v>
-      </c>
-      <c r="H8" s="2">
-        <v>59362.92</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J8" s="2">
-        <v>982.24</v>
+        <v>888.86</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -731,28 +710,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>864</v>
       </c>
       <c r="D9" s="2">
-        <v>542.88</v>
+        <v>436124.72</v>
       </c>
       <c r="E9" s="2">
-        <v>542.88</v>
+        <v>504.77</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>192.88</v>
+        <v>154.77</v>
       </c>
       <c r="H9" s="2">
-        <v>192.88</v>
+        <v>133721.28</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" s="2">
-        <v>975</v>
+        <v>894.22</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -763,28 +742,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>9</v>
+        <v>577</v>
       </c>
       <c r="D10" s="2">
-        <v>6287.27</v>
+        <v>281685.43</v>
       </c>
       <c r="E10" s="2">
-        <v>698.59</v>
+        <v>488.19</v>
       </c>
       <c r="F10" s="2">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G10" s="2">
-        <v>298.59</v>
+        <v>138.19</v>
       </c>
       <c r="H10" s="2">
-        <v>2687.31</v>
+        <v>79735.63</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J10" s="2">
-        <v>1850</v>
+        <v>876.2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -792,31 +771,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2">
+        <v>36684.27</v>
+      </c>
+      <c r="E11" s="2">
+        <v>764.26</v>
+      </c>
+      <c r="F11" s="2">
+        <v>400</v>
+      </c>
+      <c r="G11" s="2">
+        <v>364.26</v>
+      </c>
+      <c r="H11" s="2">
+        <v>17484.48</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
-        <v>16199.16</v>
-      </c>
-      <c r="E11" s="2">
-        <v>809.96</v>
-      </c>
-      <c r="F11" s="2">
-        <v>450</v>
-      </c>
-      <c r="G11" s="2">
-        <v>359.96</v>
-      </c>
-      <c r="H11" s="2">
-        <v>7199.2</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="J11" s="2">
-        <v>1850</v>
+        <v>1507.08</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -827,28 +806,28 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
-        <v>929.08</v>
+        <v>27671.41</v>
       </c>
       <c r="E12" s="2">
-        <v>464.54</v>
+        <v>864.73</v>
       </c>
       <c r="F12" s="2">
         <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>14.54</v>
+        <v>414.73</v>
       </c>
       <c r="H12" s="2">
-        <v>29.08</v>
+        <v>13271.36</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="2">
-        <v>925</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -859,28 +838,28 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>92722.26</v>
+        <v>1712.34</v>
       </c>
       <c r="E13" s="2">
-        <v>568.85</v>
+        <v>856.17</v>
       </c>
       <c r="F13" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G13" s="2">
-        <v>318.85</v>
+        <v>406.17</v>
       </c>
       <c r="H13" s="2">
-        <v>51972.55</v>
+        <v>812.34</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J13" s="2">
-        <v>948.35</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -888,31 +867,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2">
-        <v>60718.23</v>
+        <v>34073.6</v>
       </c>
       <c r="E14" s="2">
-        <v>370.23</v>
+        <v>516.27</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>120.23</v>
+        <v>266.27</v>
       </c>
       <c r="H14" s="2">
-        <v>19717.72</v>
+        <v>17573.82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2">
-        <v>669.84</v>
+        <v>841.7</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -920,31 +899,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2">
+        <v>27481.65</v>
+      </c>
+      <c r="E15" s="2">
+        <v>335.14</v>
+      </c>
+      <c r="F15" s="2">
+        <v>250</v>
+      </c>
+      <c r="G15" s="2">
+        <v>85.14</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6981.48</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2">
-        <v>243</v>
-      </c>
-      <c r="D15" s="2">
-        <v>267189.97</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1099.55</v>
-      </c>
-      <c r="F15" s="2">
-        <v>880</v>
-      </c>
-      <c r="G15" s="2">
-        <v>219.55</v>
-      </c>
-      <c r="H15" s="2">
-        <v>53350.65</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="J15" s="2">
-        <v>2048.87</v>
+        <v>598.54</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -952,31 +931,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2">
+        <v>27969.97</v>
+      </c>
+      <c r="E16" s="2">
+        <v>717.18</v>
+      </c>
+      <c r="F16" s="2">
+        <v>880</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-162.82</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-6349.98</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2">
-        <v>301</v>
-      </c>
-      <c r="D16" s="2">
-        <v>381292.44</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1266.75</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G16" s="2">
-        <v>266.75</v>
-      </c>
-      <c r="H16" s="2">
-        <v>80291.75</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="J16" s="2">
-        <v>2254.61</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -987,28 +966,28 @@
         <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2">
-        <v>118217.2</v>
+        <v>163120.07</v>
       </c>
       <c r="E17" s="2">
-        <v>1244.39</v>
+        <v>1315.48</v>
       </c>
       <c r="F17" s="2">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="2">
-        <v>224.39</v>
+        <v>315.48</v>
       </c>
       <c r="H17" s="2">
-        <v>21317.05</v>
+        <v>39119.52</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J17" s="2">
-        <v>2249.05</v>
+        <v>1994.35</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1019,28 +998,28 @@
         <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2">
-        <v>390129.86</v>
+        <v>88582.8</v>
       </c>
       <c r="E18" s="2">
-        <v>1393.32</v>
+        <v>1197.06</v>
       </c>
       <c r="F18" s="2">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="G18" s="2">
-        <v>193.32</v>
+        <v>177.06</v>
       </c>
       <c r="H18" s="2">
-        <v>54129.6</v>
+        <v>13102.44</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J18" s="2">
-        <v>2475.21</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1051,28 +1030,28 @@
         <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2">
-        <v>103532.31</v>
+        <v>122908.43</v>
       </c>
       <c r="E19" s="2">
-        <v>1458.2</v>
+        <v>1480.82</v>
       </c>
       <c r="F19" s="2">
-        <v>1170</v>
+        <v>1200</v>
       </c>
       <c r="G19" s="2">
-        <v>288.2</v>
+        <v>280.82</v>
       </c>
       <c r="H19" s="2">
-        <v>20462.2</v>
+        <v>23308.06</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J19" s="2">
-        <v>2645.46</v>
+        <v>2251.53</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1083,28 +1062,28 @@
         <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2">
-        <v>304990.41</v>
+        <v>20657.61</v>
       </c>
       <c r="E20" s="2">
-        <v>1622.29</v>
+        <v>1475.54</v>
       </c>
       <c r="F20" s="2">
-        <v>1380</v>
+        <v>1170</v>
       </c>
       <c r="G20" s="2">
-        <v>242.29</v>
+        <v>305.54</v>
       </c>
       <c r="H20" s="2">
-        <v>45550.52</v>
+        <v>4277.56</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J20" s="2">
-        <v>2855.13</v>
+        <v>2205.71</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1115,28 +1094,28 @@
         <v>34</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
-        <v>1378.9</v>
+        <v>51621.43</v>
       </c>
       <c r="E21" s="2">
-        <v>1378.9</v>
+        <v>1613.17</v>
       </c>
       <c r="F21" s="2">
-        <v>1040</v>
+        <v>1380</v>
       </c>
       <c r="G21" s="2">
-        <v>338.9</v>
+        <v>233.17</v>
       </c>
       <c r="H21" s="2">
-        <v>338.9</v>
+        <v>7461.44</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J21" s="2">
-        <v>2500</v>
+        <v>2613.75</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1144,242 +1123,84 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2">
+        <v>22842.02</v>
+      </c>
+      <c r="E22" s="2">
+        <v>787.66</v>
+      </c>
+      <c r="F22" s="2">
+        <v>650</v>
+      </c>
+      <c r="G22" s="2">
+        <v>137.66</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3992.14</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>-1045.31</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="J22" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>3007927.76</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>1007834.72</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3007927.76</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="2">
-        <v>1380</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-1380</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="2">
-        <v>55</v>
-      </c>
-      <c r="D23" s="2">
-        <v>42896.19</v>
-      </c>
-      <c r="E23" s="2">
-        <v>779.93</v>
-      </c>
-      <c r="F23" s="2">
-        <v>650</v>
-      </c>
-      <c r="G23" s="2">
-        <v>129.93</v>
-      </c>
-      <c r="H23" s="2">
-        <v>7146.15</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1579.02</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="2">
-        <v>147</v>
-      </c>
-      <c r="D24" s="2">
-        <v>74495.58</v>
-      </c>
-      <c r="E24" s="2">
-        <v>506.77</v>
-      </c>
-      <c r="F24" s="2">
-        <v>250</v>
-      </c>
-      <c r="G24" s="2">
-        <v>256.77</v>
-      </c>
-      <c r="H24" s="2">
-        <v>37745.19</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="2">
-        <v>853.27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2">
-        <v>124615.62</v>
-      </c>
-      <c r="E25" s="2">
-        <v>4615.39</v>
-      </c>
-      <c r="F25" s="2">
-        <v>3000</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1615.39</v>
-      </c>
       <c r="H25" s="2">
-        <v>43615.53</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2">
-        <v>6210</v>
-      </c>
-      <c r="C26" s="2">
-        <v>28</v>
-      </c>
-      <c r="D26" s="2">
-        <v>26132.73</v>
-      </c>
-      <c r="E26" s="2">
-        <v>933.31</v>
-      </c>
-      <c r="F26" s="2">
-        <v>400</v>
-      </c>
-      <c r="G26" s="2">
-        <v>533.31</v>
-      </c>
-      <c r="H26" s="2">
-        <v>14932.68</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1495.71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="2">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2">
-        <v>34393.21</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2456.66</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="2">
-        <v>3810.57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3">
-        <v>3190824.07</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3">
-        <v>846623.5</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="2">
-        <v>3190824.07</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="2">
-        <v>846623.5</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+        <v>1007834.72</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>OZON ИП ЗЕЛ</t>
   </si>
   <si>
-    <t>Дата начала: 2024-06-01 ; Дата окончания : 2024-06-30</t>
+    <t>Дата начала: 2025-01-27 ; Дата окончания : 2025-02-07</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,64 +53,46 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-ч</t>
+    <t>82400-чи</t>
   </si>
   <si>
     <t>420x420x120</t>
   </si>
   <si>
-    <t>82400-к(финиш-1)</t>
-  </si>
-  <si>
-    <t>82400-з</t>
-  </si>
-  <si>
-    <t>82401-ч(фин-01)</t>
+    <t>82400-к</t>
+  </si>
+  <si>
+    <t>82401-ч</t>
   </si>
   <si>
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-к(фин-01)</t>
+    <t>82401-к</t>
   </si>
   <si>
     <t>82401-з</t>
   </si>
   <si>
-    <t>82402-ч</t>
+    <t>82402-к</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
-    <t>82402-к</t>
-  </si>
-  <si>
-    <t>82402-з</t>
-  </si>
-  <si>
     <t>1840-30</t>
   </si>
   <si>
     <t>280x110x110</t>
   </si>
   <si>
-    <t>1940-10</t>
-  </si>
-  <si>
-    <t>250x40x25</t>
-  </si>
-  <si>
-    <t>7280-к-6</t>
+    <t>7280-к-6-18</t>
   </si>
   <si>
     <t>1010x280x90</t>
   </si>
   <si>
-    <t>7280-к-6-18</t>
-  </si>
-  <si>
-    <t>7260-к-8(фнш1)</t>
+    <t>7260-к-8</t>
   </si>
   <si>
     <t>7260-К-8-24</t>
@@ -126,6 +108,12 @@
   </si>
   <si>
     <t>1010x150x150</t>
+  </si>
+  <si>
+    <t>380x380x75</t>
+  </si>
+  <si>
+    <t>SKU = 1856361497</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -514,7 +502,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -584,28 +572,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>1812</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>767846.99</v>
+        <v>4894.64</v>
       </c>
       <c r="E5" s="2">
-        <v>423.76</v>
+        <v>444.97</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>173.76</v>
+        <v>194.97</v>
       </c>
       <c r="H5" s="2">
-        <v>314853.12</v>
+        <v>2144.67</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>723.16</v>
+        <v>902.27</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -616,28 +604,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>321</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>137808.57</v>
+        <v>896.15</v>
       </c>
       <c r="E6" s="2">
-        <v>429.31</v>
+        <v>448.08</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>129.31</v>
+        <v>148.08</v>
       </c>
       <c r="H6" s="2">
-        <v>41508.51</v>
+        <v>296.16</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>756.6</v>
+        <v>892.5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -647,27 +635,29 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
       <c r="D7" s="2">
-        <v>-152</v>
+        <v>2869.79</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>478.3</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>-300</v>
+        <v>178.3</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1069.8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -675,31 +665,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7171.24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>298.8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>350</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-51.2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-1228.8</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
-        <v>1541</v>
-      </c>
-      <c r="D8" s="2">
-        <v>759288.45</v>
-      </c>
-      <c r="E8" s="2">
-        <v>492.72</v>
-      </c>
-      <c r="F8" s="2">
-        <v>300</v>
-      </c>
-      <c r="G8" s="2">
-        <v>192.72</v>
-      </c>
-      <c r="H8" s="2">
-        <v>296981.52</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="J8" s="2">
-        <v>888.86</v>
+        <v>1155.79</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -710,28 +700,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>864</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>436124.72</v>
+        <v>568.42</v>
       </c>
       <c r="E9" s="2">
-        <v>504.77</v>
+        <v>568.42</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>154.77</v>
+        <v>218.42</v>
       </c>
       <c r="H9" s="2">
-        <v>133721.28</v>
+        <v>218.42</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>894.22</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -742,28 +732,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>577</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>281685.43</v>
+        <v>1215.06</v>
       </c>
       <c r="E10" s="2">
-        <v>488.19</v>
+        <v>1215.06</v>
       </c>
       <c r="F10" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="G10" s="2">
-        <v>138.19</v>
+        <v>765.06</v>
       </c>
       <c r="H10" s="2">
-        <v>79735.63</v>
+        <v>765.06</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2">
-        <v>876.2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -771,31 +761,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>36684.27</v>
+        <v>569.68</v>
       </c>
       <c r="E11" s="2">
-        <v>764.26</v>
+        <v>569.68</v>
       </c>
       <c r="F11" s="2">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G11" s="2">
-        <v>364.26</v>
+        <v>319.68</v>
       </c>
       <c r="H11" s="2">
-        <v>17484.48</v>
+        <v>319.68</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2">
-        <v>1507.08</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -803,31 +793,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>27671.41</v>
+        <v>7078.38</v>
       </c>
       <c r="E12" s="2">
-        <v>864.73</v>
+        <v>1769.6</v>
       </c>
       <c r="F12" s="2">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="2">
-        <v>414.73</v>
+        <v>769.6</v>
       </c>
       <c r="H12" s="2">
-        <v>13271.36</v>
+        <v>3078.4</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2">
-        <v>1587</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -835,31 +825,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>1712.34</v>
+        <v>1745.77</v>
       </c>
       <c r="E13" s="2">
-        <v>856.17</v>
+        <v>1745.77</v>
       </c>
       <c r="F13" s="2">
-        <v>450</v>
+        <v>1020</v>
       </c>
       <c r="G13" s="2">
-        <v>406.17</v>
+        <v>725.77</v>
       </c>
       <c r="H13" s="2">
-        <v>812.34</v>
+        <v>725.77</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2">
-        <v>1440</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -867,31 +857,29 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>-28.24</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-1200</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2">
-        <v>66</v>
-      </c>
-      <c r="D14" s="2">
-        <v>34073.6</v>
-      </c>
-      <c r="E14" s="2">
-        <v>516.27</v>
-      </c>
-      <c r="F14" s="2">
-        <v>250</v>
-      </c>
-      <c r="G14" s="2">
-        <v>266.27</v>
-      </c>
-      <c r="H14" s="2">
-        <v>17573.82</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="J14" s="2">
-        <v>841.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -899,31 +887,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>27481.65</v>
+        <v>1957.02</v>
       </c>
       <c r="E15" s="2">
-        <v>335.14</v>
+        <v>1957.02</v>
       </c>
       <c r="F15" s="2">
-        <v>250</v>
+        <v>1170</v>
       </c>
       <c r="G15" s="2">
-        <v>85.14</v>
+        <v>787.02</v>
       </c>
       <c r="H15" s="2">
-        <v>6981.48</v>
+        <v>787.02</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J15" s="2">
-        <v>598.54</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -933,29 +921,27 @@
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2">
-        <v>39</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>27969.97</v>
+        <v>-67.76</v>
       </c>
       <c r="E16" s="2">
-        <v>717.18</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>880</v>
+        <v>1380</v>
       </c>
       <c r="G16" s="2">
-        <v>-162.82</v>
+        <v>-1380</v>
       </c>
       <c r="H16" s="2">
-        <v>-6349.98</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J16" s="2">
-        <v>1710</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -963,63 +949,63 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1068.28</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1068.28</v>
+      </c>
+      <c r="F17" s="2">
+        <v>650</v>
+      </c>
+      <c r="G17" s="2">
+        <v>418.28</v>
+      </c>
+      <c r="H17" s="2">
+        <v>418.28</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2">
-        <v>124</v>
-      </c>
-      <c r="D17" s="2">
-        <v>163120.07</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1315.48</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="2">
-        <v>315.48</v>
-      </c>
-      <c r="H17" s="2">
-        <v>39119.52</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="J17" s="2">
-        <v>1994.35</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="2">
+        <v>6210</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-213.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-213.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>400</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-613.5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-613.5</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2">
-        <v>88582.8</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1197.06</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1020</v>
-      </c>
-      <c r="G18" s="2">
-        <v>177.06</v>
-      </c>
-      <c r="H18" s="2">
-        <v>13102.44</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="J18" s="2">
-        <v>1805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1029,178 +1015,80 @@
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2">
-        <v>83</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>122908.43</v>
+        <v>-38.46</v>
       </c>
       <c r="E19" s="2">
-        <v>1480.82</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>280.82</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>23308.06</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J19" s="2">
-        <v>2251.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>29686.47</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <v>7980.96</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2">
-        <v>20657.61</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1475.54</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1170</v>
-      </c>
-      <c r="G20" s="2">
-        <v>305.54</v>
-      </c>
-      <c r="H20" s="2">
-        <v>4277.56</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="2">
-        <v>2205.71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2">
+        <v>29686.47</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2">
-        <v>51621.43</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1613.17</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1380</v>
-      </c>
-      <c r="G21" s="2">
-        <v>233.17</v>
-      </c>
       <c r="H21" s="2">
-        <v>7461.44</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="2">
-        <v>2613.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2">
-        <v>29</v>
-      </c>
-      <c r="D22" s="2">
-        <v>22842.02</v>
-      </c>
-      <c r="E22" s="2">
-        <v>787.66</v>
-      </c>
-      <c r="F22" s="2">
-        <v>650</v>
-      </c>
-      <c r="G22" s="2">
-        <v>137.66</v>
-      </c>
       <c r="H22" s="2">
-        <v>3992.14</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <v>3007927.76</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <v>1007834.72</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="2">
-        <v>3007927.76</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1007834.72</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+        <v>7980.96</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
-  <si>
-    <t>OZON ИП ЗЕЛ</t>
-  </si>
-  <si>
-    <t>Дата начала: 2025-01-27 ; Дата окончания : 2025-02-07</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+  <si>
+    <t>OZON ООО АНМАКС</t>
+  </si>
+  <si>
+    <t>Дата начала: 2025-02-01 ; Дата окончания : 2025-02-12</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,67 +53,64 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-чи</t>
+    <t>82400-К</t>
   </si>
   <si>
     <t>420x420x120</t>
   </si>
   <si>
-    <t>82400-к</t>
-  </si>
-  <si>
     <t>82401-ч</t>
   </si>
   <si>
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-к</t>
-  </si>
-  <si>
-    <t>82401-з</t>
-  </si>
-  <si>
-    <t>82402-к</t>
+    <t>82401-км</t>
+  </si>
+  <si>
+    <t>82401-зм</t>
+  </si>
+  <si>
+    <t>82402-Ч</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
+    <t>82402-К</t>
+  </si>
+  <si>
     <t>1840-30</t>
   </si>
   <si>
     <t>280x110x110</t>
   </si>
   <si>
-    <t>7280-к-6-18</t>
-  </si>
-  <si>
-    <t>1010x280x90</t>
-  </si>
-  <si>
-    <t>7260-к-8</t>
-  </si>
-  <si>
-    <t>7260-К-8-24</t>
-  </si>
-  <si>
-    <t>7245-к-10</t>
-  </si>
-  <si>
-    <t>7245-к-10-30</t>
-  </si>
-  <si>
-    <t>7262-кп</t>
+    <t>7262-КП</t>
   </si>
   <si>
     <t>1010x150x150</t>
   </si>
   <si>
+    <t>8910-30</t>
+  </si>
+  <si>
+    <t>ANM.39*59</t>
+  </si>
+  <si>
+    <t>600x400x30</t>
+  </si>
+  <si>
+    <t>ANM.49*99</t>
+  </si>
+  <si>
+    <t>1000x500x30</t>
+  </si>
+  <si>
     <t>380x380x75</t>
   </si>
   <si>
-    <t>SKU = 1856361497</t>
+    <t>SKU = 1849807457</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -502,7 +499,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -572,28 +569,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>4894.64</v>
+        <v>1350.4</v>
       </c>
       <c r="E5" s="2">
-        <v>444.97</v>
+        <v>450.13</v>
       </c>
       <c r="F5" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G5" s="2">
-        <v>194.97</v>
+        <v>150.13</v>
       </c>
       <c r="H5" s="2">
-        <v>2144.67</v>
+        <v>450.39</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>902.27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -604,28 +601,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>896.15</v>
+        <v>2760.65</v>
       </c>
       <c r="E6" s="2">
-        <v>448.08</v>
+        <v>460.11</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>148.08</v>
+        <v>160.11</v>
       </c>
       <c r="H6" s="2">
-        <v>296.16</v>
+        <v>960.66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2">
-        <v>892.5</v>
+        <v>1238.33</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -633,31 +630,31 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5821.78</v>
+      </c>
+      <c r="E7" s="2">
+        <v>223.91</v>
+      </c>
+      <c r="F7" s="2">
+        <v>350</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-126.09</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-3278.34</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2869.79</v>
-      </c>
-      <c r="E7" s="2">
-        <v>478.3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>300</v>
-      </c>
-      <c r="G7" s="2">
-        <v>178.3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1069.8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" s="2">
-        <v>1150</v>
+        <v>989.85</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -668,28 +665,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>7171.24</v>
+        <v>935.37</v>
       </c>
       <c r="E8" s="2">
-        <v>298.8</v>
+        <v>133.62</v>
       </c>
       <c r="F8" s="2">
         <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>-51.2</v>
+        <v>-216.38</v>
       </c>
       <c r="H8" s="2">
-        <v>-1228.8</v>
+        <v>-1514.66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2">
-        <v>1155.79</v>
+        <v>1058.14</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -700,28 +697,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>568.42</v>
+        <v>11521.17</v>
       </c>
       <c r="E9" s="2">
-        <v>568.42</v>
+        <v>822.94</v>
       </c>
       <c r="F9" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="G9" s="2">
-        <v>218.42</v>
+        <v>422.94</v>
       </c>
       <c r="H9" s="2">
-        <v>218.42</v>
+        <v>5921.16</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J9" s="2">
-        <v>1200</v>
+        <v>1937.79</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -729,31 +726,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
-        <v>1215.06</v>
+        <v>7559.98</v>
       </c>
       <c r="E10" s="2">
-        <v>1215.06</v>
+        <v>756</v>
       </c>
       <c r="F10" s="2">
         <v>450</v>
       </c>
       <c r="G10" s="2">
-        <v>765.06</v>
+        <v>306</v>
       </c>
       <c r="H10" s="2">
-        <v>765.06</v>
+        <v>3060</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2">
-        <v>2000</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -764,28 +761,28 @@
         <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>569.68</v>
+        <v>1351.07</v>
       </c>
       <c r="E11" s="2">
-        <v>569.68</v>
+        <v>450.36</v>
       </c>
       <c r="F11" s="2">
         <v>250</v>
       </c>
       <c r="G11" s="2">
-        <v>319.68</v>
+        <v>200.36</v>
       </c>
       <c r="H11" s="2">
-        <v>319.68</v>
+        <v>601.08</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="2">
-        <v>900</v>
+        <v>990</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -796,28 +793,28 @@
         <v>23</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>7078.38</v>
+        <v>1834.68</v>
       </c>
       <c r="E12" s="2">
-        <v>1769.6</v>
+        <v>917.34</v>
       </c>
       <c r="F12" s="2">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="G12" s="2">
-        <v>769.6</v>
+        <v>267.34</v>
       </c>
       <c r="H12" s="2">
-        <v>3078.4</v>
+        <v>534.68</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="2">
-        <v>2640</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -828,28 +825,28 @@
         <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2">
-        <v>1745.77</v>
+        <v>1876.67</v>
       </c>
       <c r="E13" s="2">
-        <v>1745.77</v>
+        <v>375.33</v>
       </c>
       <c r="F13" s="2">
-        <v>1020</v>
+        <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>725.77</v>
+        <v>125.33</v>
       </c>
       <c r="H13" s="2">
-        <v>725.77</v>
+        <v>626.65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J13" s="2">
-        <v>2650</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -859,27 +856,29 @@
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
       <c r="D14" s="2">
-        <v>-28.24</v>
+        <v>6858.78</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>1714.7</v>
       </c>
       <c r="F14" s="2">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G14" s="2">
-        <v>-1200</v>
+        <v>-285.3</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>-1141.2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -887,58 +886,60 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2">
-        <v>1957.02</v>
+        <v>23500.69</v>
       </c>
       <c r="E15" s="2">
-        <v>1957.02</v>
+        <v>3916.78</v>
       </c>
       <c r="F15" s="2">
-        <v>1170</v>
+        <v>3000</v>
       </c>
       <c r="G15" s="2">
-        <v>787.02</v>
+        <v>916.78</v>
       </c>
       <c r="H15" s="2">
-        <v>787.02</v>
+        <v>5500.68</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2">
-        <v>2850</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2">
+        <v>6210</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
       <c r="D16" s="2">
-        <v>-67.76</v>
+        <v>-656.53</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>-218.84</v>
       </c>
       <c r="F16" s="2">
-        <v>1380</v>
+        <v>400</v>
       </c>
       <c r="G16" s="2">
-        <v>-1380</v>
+        <v>-618.84</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>-1856.52</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -949,146 +950,84 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>1068.28</v>
+        <v>770.7</v>
       </c>
       <c r="E17" s="2">
-        <v>1068.28</v>
+        <v>770.7</v>
       </c>
       <c r="F17" s="2">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>418.28</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>418.28</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="2">
-        <v>1700</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2">
-        <v>6210</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-213.5</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-213.5</v>
-      </c>
-      <c r="F18" s="2">
-        <v>400</v>
-      </c>
-      <c r="G18" s="2">
-        <v>-613.5</v>
-      </c>
-      <c r="H18" s="2">
-        <v>-613.5</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>65485.41</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>9864.58</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>-38.46</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
+        <v>65485.41</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
-        <v>29686.47</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <v>7980.96</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2">
-        <v>29686.47</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="2">
-        <v>7980.96</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="H20" s="2">
+        <v>9864.58</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
-  <si>
-    <t>OZON ООО АНМАКС</t>
-  </si>
-  <si>
-    <t>Дата начала: 2025-02-01 ; Дата окончания : 2025-02-12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>OZON ИП ЗЕЛ</t>
+  </si>
+  <si>
+    <t>Дата начала: 2025-02-01 ; Дата окончания : 2025-02-18</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,31 +53,34 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-К</t>
+    <t>82400-чи</t>
   </si>
   <si>
     <t>420x420x120</t>
   </si>
   <si>
+    <t>82400-к</t>
+  </si>
+  <si>
     <t>82401-ч</t>
   </si>
   <si>
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-км</t>
-  </si>
-  <si>
-    <t>82401-зм</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
+    <t>82401-к</t>
+  </si>
+  <si>
+    <t>82401-з</t>
+  </si>
+  <si>
+    <t>82402-к</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
-    <t>82402-К</t>
+    <t>82402-з</t>
   </si>
   <si>
     <t>1840-30</t>
@@ -86,7 +89,31 @@
     <t>280x110x110</t>
   </si>
   <si>
-    <t>7262-КП</t>
+    <t>1940-10</t>
+  </si>
+  <si>
+    <t>250x40x25</t>
+  </si>
+  <si>
+    <t>7280-к-6-18</t>
+  </si>
+  <si>
+    <t>1010x280x90</t>
+  </si>
+  <si>
+    <t>7260-к-8</t>
+  </si>
+  <si>
+    <t>7260-К-8-24</t>
+  </si>
+  <si>
+    <t>7245-к-10</t>
+  </si>
+  <si>
+    <t>7245-к-10-30</t>
+  </si>
+  <si>
+    <t>7262-кп</t>
   </si>
   <si>
     <t>1010x150x150</t>
@@ -95,22 +122,16 @@
     <t>8910-30</t>
   </si>
   <si>
-    <t>ANM.39*59</t>
-  </si>
-  <si>
-    <t>600x400x30</t>
-  </si>
-  <si>
-    <t>ANM.49*99</t>
-  </si>
-  <si>
-    <t>1000x500x30</t>
-  </si>
-  <si>
     <t>380x380x75</t>
   </si>
   <si>
-    <t>SKU = 1849807457</t>
+    <t>SKU = 1856361497</t>
+  </si>
+  <si>
+    <t>SKU = 1861485446</t>
+  </si>
+  <si>
+    <t>SKU = 1865840458</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -499,7 +520,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -569,28 +590,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2">
-        <v>1350.4</v>
+        <v>11379.61</v>
       </c>
       <c r="E5" s="2">
-        <v>450.13</v>
+        <v>437.68</v>
       </c>
       <c r="F5" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>150.13</v>
+        <v>187.68</v>
       </c>
       <c r="H5" s="2">
-        <v>450.39</v>
+        <v>4879.68</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>1000</v>
+        <v>902.81</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -601,28 +622,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>2760.65</v>
+        <v>2847.45</v>
       </c>
       <c r="E6" s="2">
-        <v>460.11</v>
+        <v>219.03</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>160.11</v>
+        <v>-80.97</v>
       </c>
       <c r="H6" s="2">
-        <v>960.66</v>
+        <v>-1052.61</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>1238.33</v>
+        <v>903.08</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -630,31 +651,31 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1956.8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>93.18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>300</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-206.82</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-4343.22</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5821.78</v>
-      </c>
-      <c r="E7" s="2">
-        <v>223.91</v>
-      </c>
-      <c r="F7" s="2">
-        <v>350</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-126.09</v>
-      </c>
-      <c r="H7" s="2">
-        <v>-3278.34</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" s="2">
-        <v>989.85</v>
+        <v>1115.67</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -665,28 +686,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2">
-        <v>935.37</v>
+        <v>3612.61</v>
       </c>
       <c r="E8" s="2">
-        <v>133.62</v>
+        <v>138.95</v>
       </c>
       <c r="F8" s="2">
         <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>-216.38</v>
+        <v>-211.05</v>
       </c>
       <c r="H8" s="2">
-        <v>-1514.66</v>
+        <v>-5487.3</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>1058.14</v>
+        <v>1180.31</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -697,28 +718,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
-        <v>11521.17</v>
+        <v>3772.87</v>
       </c>
       <c r="E9" s="2">
-        <v>822.94</v>
+        <v>377.29</v>
       </c>
       <c r="F9" s="2">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>422.94</v>
+        <v>27.29</v>
       </c>
       <c r="H9" s="2">
-        <v>5921.16</v>
+        <v>272.9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>1937.79</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -726,31 +747,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>7559.98</v>
+        <v>1159.22</v>
       </c>
       <c r="E10" s="2">
-        <v>756</v>
+        <v>1159.22</v>
       </c>
       <c r="F10" s="2">
         <v>450</v>
       </c>
       <c r="G10" s="2">
-        <v>306</v>
+        <v>709.22</v>
       </c>
       <c r="H10" s="2">
-        <v>3060</v>
+        <v>709.22</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2">
-        <v>1950</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -760,29 +781,27 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>1351.07</v>
+        <v>-19.89</v>
       </c>
       <c r="E11" s="2">
-        <v>450.36</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G11" s="2">
-        <v>200.36</v>
+        <v>-450</v>
       </c>
       <c r="H11" s="2">
-        <v>601.08</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2">
-        <v>990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -790,31 +809,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2701.68</v>
+      </c>
+      <c r="E12" s="2">
+        <v>540.34</v>
+      </c>
+      <c r="F12" s="2">
+        <v>250</v>
+      </c>
+      <c r="G12" s="2">
+        <v>290.34</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1451.7</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1834.68</v>
-      </c>
-      <c r="E12" s="2">
-        <v>917.34</v>
-      </c>
-      <c r="F12" s="2">
-        <v>650</v>
-      </c>
-      <c r="G12" s="2">
-        <v>267.34</v>
-      </c>
-      <c r="H12" s="2">
-        <v>534.68</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J12" s="2">
-        <v>1900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -822,31 +841,29 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2">
-        <v>5</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>1876.67</v>
+        <v>-15.46</v>
       </c>
       <c r="E13" s="2">
-        <v>375.33</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>125.33</v>
+        <v>-250</v>
       </c>
       <c r="H13" s="2">
-        <v>626.65</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J13" s="2">
-        <v>759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -856,29 +873,27 @@
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>6858.78</v>
+        <v>-9.02</v>
       </c>
       <c r="E14" s="2">
-        <v>1714.7</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="2">
-        <v>-285.3</v>
+        <v>-1000</v>
       </c>
       <c r="H14" s="2">
-        <v>-1141.2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="2">
-        <v>3375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -889,60 +904,60 @@
         <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>23500.69</v>
+        <v>3256.54</v>
       </c>
       <c r="E15" s="2">
-        <v>3916.78</v>
+        <v>1628.27</v>
       </c>
       <c r="F15" s="2">
-        <v>3000</v>
+        <v>1020</v>
       </c>
       <c r="G15" s="2">
-        <v>916.78</v>
+        <v>608.27</v>
       </c>
       <c r="H15" s="2">
-        <v>5500.68</v>
+        <v>1216.54</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2">
-        <v>7300</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
-        <v>6210</v>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>-656.53</v>
+        <v>3287.95</v>
       </c>
       <c r="E16" s="2">
-        <v>-218.84</v>
+        <v>1643.98</v>
       </c>
       <c r="F16" s="2">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G16" s="2">
-        <v>-618.84</v>
+        <v>443.98</v>
       </c>
       <c r="H16" s="2">
-        <v>-1856.52</v>
+        <v>887.96</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -950,84 +965,306 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>770.7</v>
+        <v>1778.11</v>
       </c>
       <c r="E17" s="2">
-        <v>770.7</v>
+        <v>1778.11</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>608.11</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>608.11</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J17" s="2">
-        <v>1822</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
-        <v>65485.41</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <v>9864.58</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3961.67</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1980.84</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1380</v>
+      </c>
+      <c r="G18" s="2">
+        <v>600.84</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1201.68</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3150</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
       <c r="D19" s="2">
-        <v>65485.41</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+        <v>9785.25</v>
+      </c>
+      <c r="E19" s="2">
+        <v>978.53</v>
+      </c>
+      <c r="F19" s="2">
+        <v>650</v>
+      </c>
+      <c r="G19" s="2">
+        <v>328.53</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3285.3</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <v>1700</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1" t="s">
-        <v>34</v>
+      <c r="D20" s="2">
+        <v>-30.37</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>250</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-250</v>
       </c>
       <c r="H20" s="2">
-        <v>9864.58</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6210</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6619.96</v>
+      </c>
+      <c r="E21" s="2">
+        <v>735.55</v>
+      </c>
+      <c r="F21" s="2">
+        <v>400</v>
+      </c>
+      <c r="G21" s="2">
+        <v>335.55</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3019.95</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1226.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3693.15</v>
+      </c>
+      <c r="E22" s="2">
+        <v>738.63</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>718.65</v>
+      </c>
+      <c r="E23" s="2">
+        <v>718.65</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1391.22</v>
+      </c>
+      <c r="E24" s="2">
+        <v>695.61</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>61848</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>6649.91</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="2">
+        <v>61848</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="2">
+        <v>6649.91</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
-  <si>
-    <t>OZON ИП ЗЕЛ</t>
-  </si>
-  <si>
-    <t>Дата начала: 2025-02-01 ; Дата окончания : 2025-02-18</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+  <si>
+    <t>OZON ООО АНМАКС</t>
+  </si>
+  <si>
+    <t>Дата начала: 2025-03-01 ; Дата окончания : 2025-03-19</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,13 +53,13 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-чи</t>
+    <t>82400-ч</t>
   </si>
   <si>
     <t>420x420x120</t>
   </si>
   <si>
-    <t>82400-к</t>
+    <t>82400-К</t>
   </si>
   <si>
     <t>82401-ч</t>
@@ -68,19 +68,22 @@
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-к</t>
-  </si>
-  <si>
-    <t>82401-з</t>
-  </si>
-  <si>
-    <t>82402-к</t>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>82401-З</t>
+  </si>
+  <si>
+    <t>82402-Ч</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
-    <t>82402-з</t>
+    <t>82402-К</t>
+  </si>
+  <si>
+    <t>82402-З</t>
   </si>
   <si>
     <t>1840-30</t>
@@ -95,25 +98,34 @@
     <t>250x40x25</t>
   </si>
   <si>
-    <t>7280-к-6-18</t>
+    <t>85400-ч</t>
+  </si>
+  <si>
+    <t>520x520x130</t>
+  </si>
+  <si>
+    <t>7280-К-6</t>
   </si>
   <si>
     <t>1010x280x90</t>
   </si>
   <si>
-    <t>7260-к-8</t>
+    <t>7280-К-6-18</t>
+  </si>
+  <si>
+    <t>7260-К-8</t>
   </si>
   <si>
     <t>7260-К-8-24</t>
   </si>
   <si>
-    <t>7245-к-10</t>
-  </si>
-  <si>
-    <t>7245-к-10-30</t>
-  </si>
-  <si>
-    <t>7262-кп</t>
+    <t>7245-К-10</t>
+  </si>
+  <si>
+    <t>7245-К-10-30</t>
+  </si>
+  <si>
+    <t>7262-КП</t>
   </si>
   <si>
     <t>1010x150x150</t>
@@ -122,16 +134,19 @@
     <t>8910-30</t>
   </si>
   <si>
+    <t>ANM.39*59</t>
+  </si>
+  <si>
+    <t>600x400x30</t>
+  </si>
+  <si>
+    <t>ANM.49*99</t>
+  </si>
+  <si>
+    <t>1000x500x30</t>
+  </si>
+  <si>
     <t>380x380x75</t>
-  </si>
-  <si>
-    <t>SKU = 1856361497</t>
-  </si>
-  <si>
-    <t>SKU = 1861485446</t>
-  </si>
-  <si>
-    <t>SKU = 1865840458</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -520,7 +535,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -590,28 +605,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>11379.61</v>
+        <v>3091.13</v>
       </c>
       <c r="E5" s="2">
-        <v>437.68</v>
+        <v>237.78</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>187.68</v>
+        <v>-12.22</v>
       </c>
       <c r="H5" s="2">
-        <v>4879.68</v>
+        <v>-158.86</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>902.81</v>
+        <v>960.69</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -622,28 +637,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>2847.45</v>
+        <v>2836.02</v>
       </c>
       <c r="E6" s="2">
-        <v>219.03</v>
+        <v>315.11</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>-80.97</v>
+        <v>15.11</v>
       </c>
       <c r="H6" s="2">
-        <v>-1052.61</v>
+        <v>135.99</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>903.08</v>
+        <v>1035.89</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -654,28 +669,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="D7" s="2">
-        <v>1956.8</v>
+        <v>46205.97</v>
       </c>
       <c r="E7" s="2">
-        <v>93.18</v>
+        <v>320.87</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>-206.82</v>
+        <v>20.87</v>
       </c>
       <c r="H7" s="2">
-        <v>-4343.22</v>
+        <v>3005.28</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>1115.67</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -686,28 +701,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>3612.61</v>
+        <v>4358.09</v>
       </c>
       <c r="E8" s="2">
-        <v>138.95</v>
+        <v>363.17</v>
       </c>
       <c r="F8" s="2">
         <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>-211.05</v>
+        <v>13.17</v>
       </c>
       <c r="H8" s="2">
-        <v>-5487.3</v>
+        <v>158.04</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>1180.31</v>
+        <v>1529.5</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -718,28 +733,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>3772.87</v>
+        <v>435.95</v>
       </c>
       <c r="E9" s="2">
-        <v>377.29</v>
+        <v>435.95</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>27.29</v>
+        <v>85.95</v>
       </c>
       <c r="H9" s="2">
-        <v>272.9</v>
+        <v>85.95</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>1080</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -750,28 +765,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2">
-        <v>1159.22</v>
+        <v>37391.38</v>
       </c>
       <c r="E10" s="2">
-        <v>1159.22</v>
+        <v>549.87</v>
       </c>
       <c r="F10" s="2">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G10" s="2">
-        <v>709.22</v>
+        <v>149.87</v>
       </c>
       <c r="H10" s="2">
-        <v>709.22</v>
+        <v>10191.16</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="2">
-        <v>2000</v>
+        <v>1868.18</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -781,27 +796,29 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>53</v>
+      </c>
       <c r="D11" s="2">
-        <v>-19.89</v>
+        <v>33966.73</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>640.88</v>
       </c>
       <c r="F11" s="2">
         <v>450</v>
       </c>
       <c r="G11" s="2">
-        <v>-450</v>
+        <v>190.88</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>10116.64</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -812,28 +829,28 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>2701.68</v>
+        <v>14523.08</v>
       </c>
       <c r="E12" s="2">
-        <v>540.34</v>
+        <v>691.58</v>
       </c>
       <c r="F12" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>290.34</v>
+        <v>241.58</v>
       </c>
       <c r="H12" s="2">
-        <v>1451.7</v>
+        <v>5073.18</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
-        <v>895</v>
+        <v>1975.67</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -841,29 +858,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
       <c r="D13" s="2">
-        <v>-15.46</v>
+        <v>827.64</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>413.82</v>
       </c>
       <c r="F13" s="2">
         <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>-250</v>
+        <v>163.82</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>327.64</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>990</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -871,29 +890,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11381.41</v>
+      </c>
+      <c r="E14" s="2">
+        <v>379.38</v>
+      </c>
+      <c r="F14" s="2">
+        <v>250</v>
+      </c>
+      <c r="G14" s="2">
+        <v>129.38</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3881.4</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>-9.02</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>821.67</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -901,31 +922,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2">
+        <v>29650.11</v>
+      </c>
+      <c r="E15" s="2">
+        <v>605.1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>500</v>
+      </c>
+      <c r="G15" s="2">
+        <v>105.1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5149.9</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3256.54</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1628.27</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1020</v>
-      </c>
-      <c r="G15" s="2">
-        <v>608.27</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1216.54</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J15" s="2">
-        <v>2650</v>
+        <v>1927.04</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -936,28 +957,28 @@
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2">
-        <v>3287.95</v>
+        <v>18728.23</v>
       </c>
       <c r="E16" s="2">
-        <v>1643.98</v>
+        <v>1101.66</v>
       </c>
       <c r="F16" s="2">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="G16" s="2">
-        <v>443.98</v>
+        <v>221.66</v>
       </c>
       <c r="H16" s="2">
-        <v>887.96</v>
+        <v>3768.22</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2">
-        <v>2653</v>
+        <v>2408.59</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -965,31 +986,31 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9495.54</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1186.94</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>186.94</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1495.52</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1778.11</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1778.11</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1170</v>
-      </c>
-      <c r="G17" s="2">
-        <v>608.11</v>
-      </c>
-      <c r="H17" s="2">
-        <v>608.11</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J17" s="2">
-        <v>2850</v>
+        <v>2596.75</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -997,31 +1018,31 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>3961.67</v>
+        <v>12080.61</v>
       </c>
       <c r="E18" s="2">
-        <v>1980.84</v>
+        <v>1098.24</v>
       </c>
       <c r="F18" s="2">
-        <v>1380</v>
+        <v>1020</v>
       </c>
       <c r="G18" s="2">
-        <v>600.84</v>
+        <v>78.24</v>
       </c>
       <c r="H18" s="2">
-        <v>1201.68</v>
+        <v>860.64</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2">
-        <v>3150</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1029,31 +1050,31 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>9785.25</v>
+        <v>1339.57</v>
       </c>
       <c r="E19" s="2">
-        <v>978.53</v>
+        <v>1339.57</v>
       </c>
       <c r="F19" s="2">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="G19" s="2">
-        <v>328.53</v>
+        <v>139.57</v>
       </c>
       <c r="H19" s="2">
-        <v>3285.3</v>
+        <v>139.57</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J19" s="2">
-        <v>1700</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1065,22 +1086,22 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>-30.37</v>
+        <v>-63.47</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>250</v>
+        <v>1170</v>
       </c>
       <c r="G20" s="2">
-        <v>-250</v>
+        <v>-1170</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -1090,32 +1111,32 @@
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="2">
-        <v>6210</v>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2">
-        <v>6619.96</v>
+        <v>6694.52</v>
       </c>
       <c r="E21" s="2">
-        <v>735.55</v>
+        <v>1673.63</v>
       </c>
       <c r="F21" s="2">
-        <v>400</v>
+        <v>1380</v>
       </c>
       <c r="G21" s="2">
-        <v>335.55</v>
+        <v>293.63</v>
       </c>
       <c r="H21" s="2">
-        <v>3019.95</v>
+        <v>1174.52</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J21" s="2">
-        <v>1226.67</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1126,28 +1147,28 @@
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>3693.15</v>
+        <v>834.09</v>
       </c>
       <c r="E22" s="2">
-        <v>738.63</v>
+        <v>834.09</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>184.09</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>184.09</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J22" s="2">
-        <v>1820</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1155,31 +1176,31 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>718.65</v>
+        <v>1445.79</v>
       </c>
       <c r="E23" s="2">
-        <v>718.65</v>
+        <v>361.45</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>111.45</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>445.8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J23" s="2">
-        <v>1500</v>
+        <v>753.25</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1187,84 +1208,148 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>1391.22</v>
+        <v>21094.43</v>
       </c>
       <c r="E24" s="2">
-        <v>695.61</v>
+        <v>2109.44</v>
       </c>
       <c r="F24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>109.44</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1094.4</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="2">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-838.89</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-838.89</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-3838.89</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-3838.89</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="G24" s="2">
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6210</v>
+      </c>
+      <c r="C26" s="2">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2">
+        <v>19435.39</v>
+      </c>
+      <c r="E26" s="2">
+        <v>670.19</v>
+      </c>
+      <c r="F26" s="2">
+        <v>400</v>
+      </c>
+      <c r="G26" s="2">
+        <v>270.19</v>
+      </c>
+      <c r="H26" s="2">
+        <v>7835.51</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1485.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>274913.32</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>51125.7</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2">
+        <v>274913.32</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
-        <v>61848</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3">
-        <v>6649.91</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="2">
-        <v>61848</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="2">
-        <v>6649.91</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="2">
+        <v>51125.7</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>OZON ООО АНМАКС</t>
   </si>
   <si>
-    <t>Дата начала: 2025-03-01 ; Дата окончания : 2025-03-19</t>
+    <t>Дата начала: 2025-04-01 ; Дата окончания : 2025-04-09</t>
   </si>
   <si>
     <t>пп</t>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>380x380x75</t>
+  </si>
+  <si>
+    <t>SKU = 1999088287</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -535,7 +538,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -605,28 +608,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>3091.13</v>
+        <v>8759.28</v>
       </c>
       <c r="E5" s="2">
-        <v>237.78</v>
+        <v>398.15</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>-12.22</v>
+        <v>148.15</v>
       </c>
       <c r="H5" s="2">
-        <v>-158.86</v>
+        <v>3259.3</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>960.69</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -637,28 +640,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
-        <v>2836.02</v>
+        <v>10063.59</v>
       </c>
       <c r="E6" s="2">
-        <v>315.11</v>
+        <v>295.99</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>15.11</v>
+        <v>-4.01</v>
       </c>
       <c r="H6" s="2">
-        <v>135.99</v>
+        <v>-136.34</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>1035.89</v>
+        <v>953.41</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -669,28 +672,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D7" s="2">
-        <v>46205.97</v>
+        <v>80526.91</v>
       </c>
       <c r="E7" s="2">
-        <v>320.87</v>
+        <v>406.7</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>20.87</v>
+        <v>106.7</v>
       </c>
       <c r="H7" s="2">
-        <v>3005.28</v>
+        <v>21126.6</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>1201</v>
+        <v>1158.1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -701,28 +704,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>4358.09</v>
+        <v>7682.39</v>
       </c>
       <c r="E8" s="2">
-        <v>363.17</v>
+        <v>512.16</v>
       </c>
       <c r="F8" s="2">
         <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>13.17</v>
+        <v>162.16</v>
       </c>
       <c r="H8" s="2">
-        <v>158.04</v>
+        <v>2432.4</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>1529.5</v>
+        <v>1508.33</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -733,28 +736,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>435.95</v>
+        <v>140.47</v>
       </c>
       <c r="E9" s="2">
-        <v>435.95</v>
+        <v>23.41</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>85.95</v>
+        <v>-326.59</v>
       </c>
       <c r="H9" s="2">
-        <v>85.95</v>
+        <v>-1959.54</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>1550</v>
+        <v>947.17</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -765,28 +768,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>68</v>
+        <v>227</v>
       </c>
       <c r="D10" s="2">
-        <v>37391.38</v>
+        <v>126213.33</v>
       </c>
       <c r="E10" s="2">
-        <v>549.87</v>
+        <v>556.01</v>
       </c>
       <c r="F10" s="2">
         <v>400</v>
       </c>
       <c r="G10" s="2">
-        <v>149.87</v>
+        <v>156.01</v>
       </c>
       <c r="H10" s="2">
-        <v>10191.16</v>
+        <v>35414.27</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="2">
-        <v>1868.18</v>
+        <v>1880.78</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -797,28 +800,28 @@
         <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2">
-        <v>33966.73</v>
+        <v>56787.28</v>
       </c>
       <c r="E11" s="2">
-        <v>640.88</v>
+        <v>493.8</v>
       </c>
       <c r="F11" s="2">
         <v>450</v>
       </c>
       <c r="G11" s="2">
-        <v>190.88</v>
+        <v>43.8</v>
       </c>
       <c r="H11" s="2">
-        <v>10116.64</v>
+        <v>5037</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="2">
-        <v>1950</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -829,28 +832,28 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2">
-        <v>14523.08</v>
+        <v>41707.29</v>
       </c>
       <c r="E12" s="2">
-        <v>691.58</v>
+        <v>772.36</v>
       </c>
       <c r="F12" s="2">
         <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>241.58</v>
+        <v>322.36</v>
       </c>
       <c r="H12" s="2">
-        <v>5073.18</v>
+        <v>17407.44</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="2">
-        <v>1975.67</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -861,28 +864,28 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2">
-        <v>827.64</v>
+        <v>39589.44</v>
       </c>
       <c r="E13" s="2">
-        <v>413.82</v>
+        <v>573.76</v>
       </c>
       <c r="F13" s="2">
         <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>163.82</v>
+        <v>323.76</v>
       </c>
       <c r="H13" s="2">
-        <v>327.64</v>
+        <v>22339.44</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="2">
-        <v>990</v>
+        <v>986.81</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -893,28 +896,28 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>11381.41</v>
+        <v>12945.95</v>
       </c>
       <c r="E14" s="2">
-        <v>379.38</v>
+        <v>497.92</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>129.38</v>
+        <v>247.92</v>
       </c>
       <c r="H14" s="2">
-        <v>3881.4</v>
+        <v>6445.92</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="2">
-        <v>821.67</v>
+        <v>833.73</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -925,28 +928,28 @@
         <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="D15" s="2">
-        <v>29650.11</v>
+        <v>232223.53</v>
       </c>
       <c r="E15" s="2">
-        <v>605.1</v>
+        <v>691.14</v>
       </c>
       <c r="F15" s="2">
         <v>500</v>
       </c>
       <c r="G15" s="2">
-        <v>105.1</v>
+        <v>191.14</v>
       </c>
       <c r="H15" s="2">
-        <v>5149.9</v>
+        <v>64223.04</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="2">
-        <v>1927.04</v>
+        <v>1681.25</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -957,28 +960,28 @@
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2">
-        <v>18728.23</v>
+        <v>80075.47</v>
       </c>
       <c r="E16" s="2">
-        <v>1101.66</v>
+        <v>1271.04</v>
       </c>
       <c r="F16" s="2">
         <v>880</v>
       </c>
       <c r="G16" s="2">
-        <v>221.66</v>
+        <v>391.04</v>
       </c>
       <c r="H16" s="2">
-        <v>3768.22</v>
+        <v>24635.52</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="2">
-        <v>2408.59</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -989,28 +992,28 @@
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2">
-        <v>9495.54</v>
+        <v>89072.21</v>
       </c>
       <c r="E17" s="2">
-        <v>1186.94</v>
+        <v>1535.73</v>
       </c>
       <c r="F17" s="2">
         <v>1000</v>
       </c>
       <c r="G17" s="2">
-        <v>186.94</v>
+        <v>535.73</v>
       </c>
       <c r="H17" s="2">
-        <v>1495.52</v>
+        <v>31072.34</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="2">
-        <v>2596.75</v>
+        <v>2599.36</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1021,28 +1024,28 @@
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
-        <v>12080.61</v>
+        <v>25521.68</v>
       </c>
       <c r="E18" s="2">
-        <v>1098.24</v>
+        <v>1276.08</v>
       </c>
       <c r="F18" s="2">
         <v>1020</v>
       </c>
       <c r="G18" s="2">
-        <v>78.24</v>
+        <v>256.08</v>
       </c>
       <c r="H18" s="2">
-        <v>860.64</v>
+        <v>5121.6</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J18" s="2">
-        <v>2420</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1053,28 +1056,28 @@
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
-        <v>1339.57</v>
+        <v>29755.21</v>
       </c>
       <c r="E19" s="2">
-        <v>1339.57</v>
+        <v>1566.06</v>
       </c>
       <c r="F19" s="2">
         <v>1200</v>
       </c>
       <c r="G19" s="2">
-        <v>139.57</v>
+        <v>366.06</v>
       </c>
       <c r="H19" s="2">
-        <v>139.57</v>
+        <v>6955.14</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="2">
-        <v>2814</v>
+        <v>2661.47</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1084,27 +1087,29 @@
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
       <c r="D20" s="2">
-        <v>-63.47</v>
+        <v>7224.09</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>1806.02</v>
       </c>
       <c r="F20" s="2">
         <v>1170</v>
       </c>
       <c r="G20" s="2">
-        <v>-1170</v>
+        <v>636.02</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>2544.08</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1115,28 +1120,28 @@
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
-        <v>6694.52</v>
+        <v>56803.04</v>
       </c>
       <c r="E21" s="2">
-        <v>1673.63</v>
+        <v>2103.82</v>
       </c>
       <c r="F21" s="2">
         <v>1380</v>
       </c>
       <c r="G21" s="2">
-        <v>293.63</v>
+        <v>723.82</v>
       </c>
       <c r="H21" s="2">
-        <v>1174.52</v>
+        <v>19543.14</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="2">
-        <v>3600</v>
+        <v>3520.04</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1147,28 +1152,28 @@
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>834.09</v>
+        <v>4704.1</v>
       </c>
       <c r="E22" s="2">
-        <v>834.09</v>
+        <v>588.01</v>
       </c>
       <c r="F22" s="2">
         <v>650</v>
       </c>
       <c r="G22" s="2">
-        <v>184.09</v>
+        <v>-61.99</v>
       </c>
       <c r="H22" s="2">
-        <v>184.09</v>
+        <v>-495.92</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J22" s="2">
-        <v>1900</v>
+        <v>1145.63</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1179,28 +1184,28 @@
         <v>38</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2">
-        <v>1445.79</v>
+        <v>13232.74</v>
       </c>
       <c r="E23" s="2">
-        <v>361.45</v>
+        <v>551.36</v>
       </c>
       <c r="F23" s="2">
         <v>250</v>
       </c>
       <c r="G23" s="2">
-        <v>111.45</v>
+        <v>301.36</v>
       </c>
       <c r="H23" s="2">
-        <v>445.8</v>
+        <v>7232.64</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="2">
-        <v>753.25</v>
+        <v>874.67</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1211,28 +1216,28 @@
         <v>39</v>
       </c>
       <c r="C24" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>21094.43</v>
+        <v>2986.63</v>
       </c>
       <c r="E24" s="2">
-        <v>2109.44</v>
+        <v>2986.63</v>
       </c>
       <c r="F24" s="2">
         <v>2000</v>
       </c>
       <c r="G24" s="2">
-        <v>109.44</v>
+        <v>986.63</v>
       </c>
       <c r="H24" s="2">
-        <v>1094.4</v>
+        <v>986.63</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J24" s="2">
-        <v>4050</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1246,19 +1251,19 @@
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>-838.89</v>
+        <v>-396.48</v>
       </c>
       <c r="E25" s="2">
-        <v>-838.89</v>
+        <v>-396.48</v>
       </c>
       <c r="F25" s="2">
         <v>3000</v>
       </c>
       <c r="G25" s="2">
-        <v>-3838.89</v>
+        <v>-3396.48</v>
       </c>
       <c r="H25" s="2">
-        <v>-3838.89</v>
+        <v>-3396.48</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>42</v>
@@ -1275,81 +1280,111 @@
         <v>6210</v>
       </c>
       <c r="C26" s="2">
-        <v>29</v>
+        <v>368</v>
       </c>
       <c r="D26" s="2">
-        <v>19435.39</v>
+        <v>281582.3</v>
       </c>
       <c r="E26" s="2">
-        <v>670.19</v>
+        <v>765.17</v>
       </c>
       <c r="F26" s="2">
         <v>400</v>
       </c>
       <c r="G26" s="2">
-        <v>270.19</v>
+        <v>365.17</v>
       </c>
       <c r="H26" s="2">
-        <v>7835.51</v>
+        <v>134382.56</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="2">
-        <v>1485.41</v>
+        <v>1351.15</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
-        <v>274913.32</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3">
-        <v>51125.7</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>-17.71</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="2">
-        <v>274913.32</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>1207182.74</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <v>404170.78</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1207182.74</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H29" s="2">
-        <v>51125.7</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="2">
+        <v>404170.78</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -20,7 +20,7 @@
     <t>OZON ООО АНМАКС</t>
   </si>
   <si>
-    <t>Дата начала: 2025-04-01 ; Дата окончания : 2025-04-09</t>
+    <t>Дата начала: 2025-04-01 ; Дата окончания : 2025-04-10</t>
   </si>
   <si>
     <t>пп</t>
@@ -608,28 +608,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2">
-        <v>8759.28</v>
+        <v>9910.48</v>
       </c>
       <c r="E5" s="2">
-        <v>398.15</v>
+        <v>381.17</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>148.15</v>
+        <v>131.17</v>
       </c>
       <c r="H5" s="2">
-        <v>3259.3</v>
+        <v>3410.42</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>980</v>
+        <v>978.85</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -640,28 +640,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2">
-        <v>10063.59</v>
+        <v>13104.31</v>
       </c>
       <c r="E6" s="2">
-        <v>295.99</v>
+        <v>319.62</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>-4.01</v>
+        <v>19.62</v>
       </c>
       <c r="H6" s="2">
-        <v>-136.34</v>
+        <v>804.42</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>953.41</v>
+        <v>963.59</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -672,28 +672,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="D7" s="2">
-        <v>80526.91</v>
+        <v>93946.46</v>
       </c>
       <c r="E7" s="2">
-        <v>406.7</v>
+        <v>415.69</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>106.7</v>
+        <v>115.69</v>
       </c>
       <c r="H7" s="2">
-        <v>21126.6</v>
+        <v>26145.94</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>1158.1</v>
+        <v>1164.04</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -704,28 +704,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
-        <v>7682.39</v>
+        <v>11534.44</v>
       </c>
       <c r="E8" s="2">
-        <v>512.16</v>
+        <v>524.29</v>
       </c>
       <c r="F8" s="2">
         <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>162.16</v>
+        <v>174.29</v>
       </c>
       <c r="H8" s="2">
-        <v>2432.4</v>
+        <v>3834.38</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>1508.33</v>
+        <v>1510.45</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -736,28 +736,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>140.47</v>
+        <v>505.89</v>
       </c>
       <c r="E9" s="2">
-        <v>23.41</v>
+        <v>72.27</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>-326.59</v>
+        <v>-277.73</v>
       </c>
       <c r="H9" s="2">
-        <v>-1959.54</v>
+        <v>-1944.11</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>947.17</v>
+        <v>1016.86</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -768,28 +768,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="D10" s="2">
-        <v>126213.33</v>
+        <v>129312.82</v>
       </c>
       <c r="E10" s="2">
-        <v>556.01</v>
+        <v>511.12</v>
       </c>
       <c r="F10" s="2">
         <v>400</v>
       </c>
       <c r="G10" s="2">
-        <v>156.01</v>
+        <v>111.12</v>
       </c>
       <c r="H10" s="2">
-        <v>35414.27</v>
+        <v>28113.36</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="2">
-        <v>1880.78</v>
+        <v>1881.39</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -800,22 +800,22 @@
         <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D11" s="2">
-        <v>56787.28</v>
+        <v>63105.06</v>
       </c>
       <c r="E11" s="2">
-        <v>493.8</v>
+        <v>500.83</v>
       </c>
       <c r="F11" s="2">
         <v>450</v>
       </c>
       <c r="G11" s="2">
-        <v>43.8</v>
+        <v>50.83</v>
       </c>
       <c r="H11" s="2">
-        <v>5037</v>
+        <v>6404.58</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>20</v>
@@ -832,22 +832,22 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2">
-        <v>41707.29</v>
+        <v>42903.1</v>
       </c>
       <c r="E12" s="2">
-        <v>772.36</v>
+        <v>766.13</v>
       </c>
       <c r="F12" s="2">
         <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>322.36</v>
+        <v>316.13</v>
       </c>
       <c r="H12" s="2">
-        <v>17407.44</v>
+        <v>17703.28</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>20</v>
@@ -864,28 +864,28 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2">
-        <v>39589.44</v>
+        <v>42557.14</v>
       </c>
       <c r="E13" s="2">
-        <v>573.76</v>
+        <v>575.1</v>
       </c>
       <c r="F13" s="2">
         <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>323.76</v>
+        <v>325.1</v>
       </c>
       <c r="H13" s="2">
-        <v>22339.44</v>
+        <v>24057.4</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="2">
-        <v>986.81</v>
+        <v>984.8</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -896,28 +896,28 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
-        <v>12945.95</v>
+        <v>14982.59</v>
       </c>
       <c r="E14" s="2">
-        <v>497.92</v>
+        <v>499.42</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>247.92</v>
+        <v>249.42</v>
       </c>
       <c r="H14" s="2">
-        <v>6445.92</v>
+        <v>7482.6</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="2">
-        <v>833.73</v>
+        <v>832.77</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -928,28 +928,28 @@
         <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="D15" s="2">
-        <v>232223.53</v>
+        <v>260315.32</v>
       </c>
       <c r="E15" s="2">
-        <v>691.14</v>
+        <v>686.85</v>
       </c>
       <c r="F15" s="2">
         <v>500</v>
       </c>
       <c r="G15" s="2">
-        <v>191.14</v>
+        <v>186.85</v>
       </c>
       <c r="H15" s="2">
-        <v>64223.04</v>
+        <v>70816.15</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="2">
-        <v>1681.25</v>
+        <v>1683.38</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -960,22 +960,22 @@
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2">
-        <v>80075.47</v>
+        <v>111968.42</v>
       </c>
       <c r="E16" s="2">
-        <v>1271.04</v>
+        <v>1258.07</v>
       </c>
       <c r="F16" s="2">
         <v>880</v>
       </c>
       <c r="G16" s="2">
-        <v>391.04</v>
+        <v>378.07</v>
       </c>
       <c r="H16" s="2">
-        <v>24635.52</v>
+        <v>33648.23</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>30</v>
@@ -992,28 +992,28 @@
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2">
-        <v>89072.21</v>
+        <v>107441.57</v>
       </c>
       <c r="E17" s="2">
-        <v>1535.73</v>
+        <v>1513.26</v>
       </c>
       <c r="F17" s="2">
         <v>1000</v>
       </c>
       <c r="G17" s="2">
-        <v>535.73</v>
+        <v>513.26</v>
       </c>
       <c r="H17" s="2">
-        <v>31072.34</v>
+        <v>36441.46</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="2">
-        <v>2599.36</v>
+        <v>2599.11</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1024,22 +1024,22 @@
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2">
-        <v>25521.68</v>
+        <v>27071.7</v>
       </c>
       <c r="E18" s="2">
-        <v>1276.08</v>
+        <v>1289.13</v>
       </c>
       <c r="F18" s="2">
         <v>1020</v>
       </c>
       <c r="G18" s="2">
-        <v>256.08</v>
+        <v>269.13</v>
       </c>
       <c r="H18" s="2">
-        <v>5121.6</v>
+        <v>5651.73</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
@@ -1056,28 +1056,28 @@
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2">
-        <v>29755.21</v>
+        <v>33169.72</v>
       </c>
       <c r="E19" s="2">
-        <v>1566.06</v>
+        <v>1579.51</v>
       </c>
       <c r="F19" s="2">
         <v>1200</v>
       </c>
       <c r="G19" s="2">
-        <v>366.06</v>
+        <v>379.51</v>
       </c>
       <c r="H19" s="2">
-        <v>6955.14</v>
+        <v>7969.71</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="2">
-        <v>2661.47</v>
+        <v>2674.48</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1091,19 +1091,19 @@
         <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>7224.09</v>
+        <v>7270.51</v>
       </c>
       <c r="E20" s="2">
-        <v>1806.02</v>
+        <v>1817.63</v>
       </c>
       <c r="F20" s="2">
         <v>1170</v>
       </c>
       <c r="G20" s="2">
-        <v>636.02</v>
+        <v>647.63</v>
       </c>
       <c r="H20" s="2">
-        <v>2544.08</v>
+        <v>2590.52</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>30</v>
@@ -1120,28 +1120,28 @@
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
-        <v>56803.04</v>
+        <v>59252.14</v>
       </c>
       <c r="E21" s="2">
-        <v>2103.82</v>
+        <v>2116.15</v>
       </c>
       <c r="F21" s="2">
         <v>1380</v>
       </c>
       <c r="G21" s="2">
-        <v>723.82</v>
+        <v>736.15</v>
       </c>
       <c r="H21" s="2">
-        <v>19543.14</v>
+        <v>20612.2</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="2">
-        <v>3520.04</v>
+        <v>3518.36</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1152,28 +1152,28 @@
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2">
-        <v>4704.1</v>
+        <v>5852.26</v>
       </c>
       <c r="E22" s="2">
-        <v>588.01</v>
+        <v>650.25</v>
       </c>
       <c r="F22" s="2">
         <v>650</v>
       </c>
       <c r="G22" s="2">
-        <v>-61.99</v>
+        <v>0.25</v>
       </c>
       <c r="H22" s="2">
-        <v>-495.92</v>
+        <v>2.25</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J22" s="2">
-        <v>1145.63</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1184,28 +1184,28 @@
         <v>38</v>
       </c>
       <c r="C23" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2">
-        <v>13232.74</v>
+        <v>14392.84</v>
       </c>
       <c r="E23" s="2">
-        <v>551.36</v>
+        <v>553.57</v>
       </c>
       <c r="F23" s="2">
         <v>250</v>
       </c>
       <c r="G23" s="2">
-        <v>301.36</v>
+        <v>303.57</v>
       </c>
       <c r="H23" s="2">
-        <v>7232.64</v>
+        <v>7892.82</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="2">
-        <v>874.67</v>
+        <v>874.08</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1216,22 +1216,22 @@
         <v>39</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>2986.63</v>
+        <v>5971.3</v>
       </c>
       <c r="E24" s="2">
-        <v>2986.63</v>
+        <v>2985.65</v>
       </c>
       <c r="F24" s="2">
         <v>2000</v>
       </c>
       <c r="G24" s="2">
-        <v>986.63</v>
+        <v>985.65</v>
       </c>
       <c r="H24" s="2">
-        <v>986.63</v>
+        <v>1971.3</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>40</v>
@@ -1248,28 +1248,28 @@
         <v>41</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>-396.48</v>
+        <v>15827.58</v>
       </c>
       <c r="E25" s="2">
-        <v>-396.48</v>
+        <v>5275.86</v>
       </c>
       <c r="F25" s="2">
         <v>3000</v>
       </c>
       <c r="G25" s="2">
-        <v>-3396.48</v>
+        <v>2275.86</v>
       </c>
       <c r="H25" s="2">
-        <v>-3396.48</v>
+        <v>6827.58</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J25" s="2">
-        <v>0</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1280,28 +1280,28 @@
         <v>6210</v>
       </c>
       <c r="C26" s="2">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="D26" s="2">
-        <v>281582.3</v>
+        <v>318582.88</v>
       </c>
       <c r="E26" s="2">
-        <v>765.17</v>
+        <v>769.52</v>
       </c>
       <c r="F26" s="2">
         <v>400</v>
       </c>
       <c r="G26" s="2">
-        <v>365.17</v>
+        <v>369.52</v>
       </c>
       <c r="H26" s="2">
-        <v>134382.56</v>
+        <v>152981.28</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="2">
-        <v>1351.15</v>
+        <v>1353.84</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1339,13 +1339,13 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
-        <v>1207182.74</v>
+        <v>1388960.82</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>404170.78</v>
+        <v>463417.5</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1357,7 +1357,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="2">
-        <v>1207182.74</v>
+        <v>1388960.82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1381,7 +1381,7 @@
         <v>47</v>
       </c>
       <c r="H30" s="2">
-        <v>404170.78</v>
+        <v>463417.5</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -20,7 +20,7 @@
     <t>OZON ООО АНМАКС</t>
   </si>
   <si>
-    <t>Дата начала: 2025-04-01 ; Дата окончания : 2025-04-10</t>
+    <t>Дата начала: 2025-04-01 ; Дата окончания : 2025-04-19</t>
   </si>
   <si>
     <t>пп</t>
@@ -608,28 +608,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2">
-        <v>9910.48</v>
+        <v>25004.35</v>
       </c>
       <c r="E5" s="2">
-        <v>381.17</v>
+        <v>337.9</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>131.17</v>
+        <v>87.9</v>
       </c>
       <c r="H5" s="2">
-        <v>3410.42</v>
+        <v>6504.6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>978.85</v>
+        <v>978.31</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -640,28 +640,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2">
-        <v>13104.31</v>
+        <v>26907.16</v>
       </c>
       <c r="E6" s="2">
-        <v>319.62</v>
+        <v>358.76</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>19.62</v>
+        <v>58.76</v>
       </c>
       <c r="H6" s="2">
-        <v>804.42</v>
+        <v>4407</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>963.59</v>
+        <v>1009.57</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -672,28 +672,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>226</v>
+        <v>418</v>
       </c>
       <c r="D7" s="2">
-        <v>93946.46</v>
+        <v>167001.19</v>
       </c>
       <c r="E7" s="2">
-        <v>415.69</v>
+        <v>399.52</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>115.69</v>
+        <v>99.52</v>
       </c>
       <c r="H7" s="2">
-        <v>26145.94</v>
+        <v>41599.36</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>1164.04</v>
+        <v>1211.88</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -704,28 +704,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2">
-        <v>11534.44</v>
+        <v>22504</v>
       </c>
       <c r="E8" s="2">
-        <v>524.29</v>
+        <v>468.83</v>
       </c>
       <c r="F8" s="2">
         <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>174.29</v>
+        <v>118.83</v>
       </c>
       <c r="H8" s="2">
-        <v>3834.38</v>
+        <v>5703.84</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>1510.45</v>
+        <v>1448.75</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -736,28 +736,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>505.89</v>
+        <v>3152.81</v>
       </c>
       <c r="E9" s="2">
-        <v>72.27</v>
+        <v>225.2</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>-277.73</v>
+        <v>-124.8</v>
       </c>
       <c r="H9" s="2">
-        <v>-1944.11</v>
+        <v>-1747.2</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>1016.86</v>
+        <v>1249.86</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -768,28 +768,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>253</v>
+        <v>441</v>
       </c>
       <c r="D10" s="2">
-        <v>129312.82</v>
+        <v>191032.43</v>
       </c>
       <c r="E10" s="2">
-        <v>511.12</v>
+        <v>433.18</v>
       </c>
       <c r="F10" s="2">
         <v>400</v>
       </c>
       <c r="G10" s="2">
-        <v>111.12</v>
+        <v>33.18</v>
       </c>
       <c r="H10" s="2">
-        <v>28113.36</v>
+        <v>14632.38</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="2">
-        <v>1881.39</v>
+        <v>1981.8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -800,28 +800,28 @@
         <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="D11" s="2">
-        <v>63105.06</v>
+        <v>105287.94</v>
       </c>
       <c r="E11" s="2">
-        <v>500.83</v>
+        <v>548.37</v>
       </c>
       <c r="F11" s="2">
         <v>450</v>
       </c>
       <c r="G11" s="2">
-        <v>50.83</v>
+        <v>98.37</v>
       </c>
       <c r="H11" s="2">
-        <v>6404.58</v>
+        <v>18887.04</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="2">
-        <v>1881</v>
+        <v>1960.24</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -832,28 +832,28 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2">
-        <v>42903.1</v>
+        <v>50609.74</v>
       </c>
       <c r="E12" s="2">
-        <v>766.13</v>
+        <v>568.65</v>
       </c>
       <c r="F12" s="2">
         <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>316.13</v>
+        <v>118.65</v>
       </c>
       <c r="H12" s="2">
-        <v>17703.28</v>
+        <v>10559.85</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="2">
-        <v>1929</v>
+        <v>1928.84</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -864,28 +864,28 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="D13" s="2">
-        <v>42557.14</v>
+        <v>87814.1</v>
       </c>
       <c r="E13" s="2">
-        <v>575.1</v>
+        <v>555.79</v>
       </c>
       <c r="F13" s="2">
         <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>325.1</v>
+        <v>305.79</v>
       </c>
       <c r="H13" s="2">
-        <v>24057.4</v>
+        <v>48314.82</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="2">
-        <v>984.8</v>
+        <v>968.23</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -896,28 +896,28 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2">
-        <v>14982.59</v>
+        <v>39691.56</v>
       </c>
       <c r="E14" s="2">
-        <v>499.42</v>
+        <v>484.04</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>249.42</v>
+        <v>234.04</v>
       </c>
       <c r="H14" s="2">
-        <v>7482.6</v>
+        <v>19191.28</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="2">
-        <v>832.77</v>
+        <v>827.3</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -928,28 +928,28 @@
         <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>379</v>
+        <v>1228</v>
       </c>
       <c r="D15" s="2">
-        <v>260315.32</v>
+        <v>706769.98999998</v>
       </c>
       <c r="E15" s="2">
-        <v>686.85</v>
+        <v>575.55</v>
       </c>
       <c r="F15" s="2">
         <v>500</v>
       </c>
       <c r="G15" s="2">
-        <v>186.85</v>
+        <v>75.55</v>
       </c>
       <c r="H15" s="2">
-        <v>70816.15</v>
+        <v>92775.4</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="2">
-        <v>1683.38</v>
+        <v>1649.96</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -960,28 +960,28 @@
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="D16" s="2">
-        <v>111968.42</v>
+        <v>179239.79</v>
       </c>
       <c r="E16" s="2">
-        <v>1258.07</v>
+        <v>1194.93</v>
       </c>
       <c r="F16" s="2">
         <v>880</v>
       </c>
       <c r="G16" s="2">
-        <v>378.07</v>
+        <v>314.93</v>
       </c>
       <c r="H16" s="2">
-        <v>33648.23</v>
+        <v>47239.5</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="2">
-        <v>2383</v>
+        <v>2350.83</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -992,28 +992,28 @@
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2">
-        <v>107441.57</v>
+        <v>208662.43</v>
       </c>
       <c r="E17" s="2">
-        <v>1513.26</v>
+        <v>1419.47</v>
       </c>
       <c r="F17" s="2">
         <v>1000</v>
       </c>
       <c r="G17" s="2">
-        <v>513.26</v>
+        <v>419.47</v>
       </c>
       <c r="H17" s="2">
-        <v>36441.46</v>
+        <v>61662.09</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="2">
-        <v>2599.11</v>
+        <v>2567.6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1024,22 +1024,22 @@
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2">
-        <v>27071.7</v>
+        <v>62202.94</v>
       </c>
       <c r="E18" s="2">
-        <v>1289.13</v>
+        <v>1323.47</v>
       </c>
       <c r="F18" s="2">
         <v>1020</v>
       </c>
       <c r="G18" s="2">
-        <v>269.13</v>
+        <v>303.47</v>
       </c>
       <c r="H18" s="2">
-        <v>5651.73</v>
+        <v>14263.09</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
@@ -1056,28 +1056,28 @@
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2">
-        <v>33169.72</v>
+        <v>128798.34</v>
       </c>
       <c r="E19" s="2">
-        <v>1579.51</v>
+        <v>1609.98</v>
       </c>
       <c r="F19" s="2">
         <v>1200</v>
       </c>
       <c r="G19" s="2">
-        <v>379.51</v>
+        <v>409.98</v>
       </c>
       <c r="H19" s="2">
-        <v>7969.71</v>
+        <v>32798.4</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="2">
-        <v>2674.48</v>
+        <v>2765.25</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1088,22 +1088,22 @@
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2">
-        <v>7270.51</v>
+        <v>15641.09</v>
       </c>
       <c r="E20" s="2">
-        <v>1817.63</v>
+        <v>1737.9</v>
       </c>
       <c r="F20" s="2">
         <v>1170</v>
       </c>
       <c r="G20" s="2">
-        <v>647.63</v>
+        <v>567.9</v>
       </c>
       <c r="H20" s="2">
-        <v>2590.52</v>
+        <v>5111.1</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>30</v>
@@ -1120,28 +1120,28 @@
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2">
-        <v>59252.14</v>
+        <v>75865.19</v>
       </c>
       <c r="E21" s="2">
-        <v>2116.15</v>
+        <v>2107.37</v>
       </c>
       <c r="F21" s="2">
         <v>1380</v>
       </c>
       <c r="G21" s="2">
-        <v>736.15</v>
+        <v>727.37</v>
       </c>
       <c r="H21" s="2">
-        <v>20612.2</v>
+        <v>26185.32</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="2">
-        <v>3518.36</v>
+        <v>3508.28</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1152,28 +1152,28 @@
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2">
-        <v>5852.26</v>
+        <v>40155.19</v>
       </c>
       <c r="E22" s="2">
-        <v>650.25</v>
+        <v>1029.62</v>
       </c>
       <c r="F22" s="2">
         <v>650</v>
       </c>
       <c r="G22" s="2">
-        <v>0.25</v>
+        <v>379.62</v>
       </c>
       <c r="H22" s="2">
-        <v>2.25</v>
+        <v>14805.18</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J22" s="2">
-        <v>1222</v>
+        <v>1691.54</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1184,28 +1184,28 @@
         <v>38</v>
       </c>
       <c r="C23" s="2">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2">
-        <v>14392.84</v>
+        <v>36974.51</v>
       </c>
       <c r="E23" s="2">
-        <v>553.57</v>
+        <v>560.22</v>
       </c>
       <c r="F23" s="2">
         <v>250</v>
       </c>
       <c r="G23" s="2">
-        <v>303.57</v>
+        <v>310.22</v>
       </c>
       <c r="H23" s="2">
-        <v>7892.82</v>
+        <v>20474.52</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="2">
-        <v>874.08</v>
+        <v>870.15</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1216,22 +1216,22 @@
         <v>39</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>5971.3</v>
+        <v>11901.91</v>
       </c>
       <c r="E24" s="2">
-        <v>2985.65</v>
+        <v>2975.48</v>
       </c>
       <c r="F24" s="2">
         <v>2000</v>
       </c>
       <c r="G24" s="2">
-        <v>985.65</v>
+        <v>975.48</v>
       </c>
       <c r="H24" s="2">
-        <v>1971.3</v>
+        <v>3901.92</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>40</v>
@@ -1248,22 +1248,22 @@
         <v>41</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>15827.58</v>
+        <v>20860.21</v>
       </c>
       <c r="E25" s="2">
-        <v>5275.86</v>
+        <v>5215.05</v>
       </c>
       <c r="F25" s="2">
         <v>3000</v>
       </c>
       <c r="G25" s="2">
-        <v>2275.86</v>
+        <v>2215.05</v>
       </c>
       <c r="H25" s="2">
-        <v>6827.58</v>
+        <v>8860.2</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>42</v>
@@ -1280,28 +1280,28 @@
         <v>6210</v>
       </c>
       <c r="C26" s="2">
-        <v>414</v>
+        <v>1234</v>
       </c>
       <c r="D26" s="2">
-        <v>318582.88</v>
+        <v>858719.38</v>
       </c>
       <c r="E26" s="2">
-        <v>769.52</v>
+        <v>695.88</v>
       </c>
       <c r="F26" s="2">
         <v>400</v>
       </c>
       <c r="G26" s="2">
-        <v>369.52</v>
+        <v>295.88</v>
       </c>
       <c r="H26" s="2">
-        <v>152981.28</v>
+        <v>365115.92</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="2">
-        <v>1353.84</v>
+        <v>1307.4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1311,12 +1311,14 @@
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
       <c r="D27" s="2">
-        <v>-17.71</v>
+        <v>748.29</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>748.29</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -1331,7 +1333,7 @@
         <v>43</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1339,13 +1341,13 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
-        <v>1388960.82</v>
+        <v>3065544.54</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>463417.5</v>
+        <v>861245.61</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1357,7 +1359,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="2">
-        <v>1388960.82</v>
+        <v>3065544.54</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1381,7 +1383,7 @@
         <v>47</v>
       </c>
       <c r="H30" s="2">
-        <v>463417.5</v>
+        <v>861245.61</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>OZON ООО АНМАКС</t>
   </si>
   <si>
-    <t>Дата начала: 2025-04-01 ; Дата окончания : 2025-04-19</t>
+    <t>Дата начала: 2025-04-14 ; Дата окончания : 2025-04-22</t>
   </si>
   <si>
     <t>пп</t>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>380x380x75</t>
-  </si>
-  <si>
-    <t>SKU = 1999088287</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -538,7 +535,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -608,28 +605,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2">
-        <v>25004.35</v>
+        <v>21307.85</v>
       </c>
       <c r="E5" s="2">
-        <v>337.9</v>
+        <v>304.4</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>87.9</v>
+        <v>54.4</v>
       </c>
       <c r="H5" s="2">
-        <v>6504.6</v>
+        <v>3808</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>978.31</v>
+        <v>960.3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -640,28 +637,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
-        <v>26907.16</v>
+        <v>15172.1</v>
       </c>
       <c r="E6" s="2">
-        <v>358.76</v>
+        <v>489.42</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>58.76</v>
+        <v>189.42</v>
       </c>
       <c r="H6" s="2">
-        <v>4407</v>
+        <v>5872.02</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>1009.57</v>
+        <v>1116.55</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -672,28 +669,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>418</v>
+        <v>187</v>
       </c>
       <c r="D7" s="2">
-        <v>167001.19</v>
+        <v>73797.85</v>
       </c>
       <c r="E7" s="2">
-        <v>399.52</v>
+        <v>394.64</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>99.52</v>
+        <v>94.64</v>
       </c>
       <c r="H7" s="2">
-        <v>41599.36</v>
+        <v>17697.68</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>1211.88</v>
+        <v>1275.07</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -704,28 +701,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2">
-        <v>22504</v>
+        <v>17055.32</v>
       </c>
       <c r="E8" s="2">
-        <v>468.83</v>
+        <v>460.95</v>
       </c>
       <c r="F8" s="2">
         <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>118.83</v>
+        <v>110.95</v>
       </c>
       <c r="H8" s="2">
-        <v>5703.84</v>
+        <v>4105.15</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>1448.75</v>
+        <v>1429.81</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -736,28 +733,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>3152.81</v>
+        <v>5471.7</v>
       </c>
       <c r="E9" s="2">
-        <v>225.2</v>
+        <v>497.43</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>-124.8</v>
+        <v>147.43</v>
       </c>
       <c r="H9" s="2">
-        <v>-1747.2</v>
+        <v>1621.73</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>1249.86</v>
+        <v>1607.45</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -768,28 +765,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>441</v>
+        <v>164</v>
       </c>
       <c r="D10" s="2">
-        <v>191032.43</v>
+        <v>60583.59</v>
       </c>
       <c r="E10" s="2">
-        <v>433.18</v>
+        <v>369.41</v>
       </c>
       <c r="F10" s="2">
         <v>400</v>
       </c>
       <c r="G10" s="2">
-        <v>33.18</v>
+        <v>-30.59</v>
       </c>
       <c r="H10" s="2">
-        <v>14632.38</v>
+        <v>-5016.76</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="2">
-        <v>1981.8</v>
+        <v>2300.31</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -800,28 +797,28 @@
         <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2">
-        <v>105287.94</v>
+        <v>46276.1</v>
       </c>
       <c r="E11" s="2">
-        <v>548.37</v>
+        <v>826.36</v>
       </c>
       <c r="F11" s="2">
         <v>450</v>
       </c>
       <c r="G11" s="2">
-        <v>98.37</v>
+        <v>376.36</v>
       </c>
       <c r="H11" s="2">
-        <v>18887.04</v>
+        <v>21076.16</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="2">
-        <v>1960.24</v>
+        <v>2337.02</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -832,28 +829,28 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>50609.74</v>
+        <v>3615.09</v>
       </c>
       <c r="E12" s="2">
-        <v>568.65</v>
+        <v>200.84</v>
       </c>
       <c r="F12" s="2">
         <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>118.65</v>
+        <v>-249.16</v>
       </c>
       <c r="H12" s="2">
-        <v>10559.85</v>
+        <v>-4484.88</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="2">
-        <v>1928.84</v>
+        <v>2215.44</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -864,28 +861,28 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2">
-        <v>87814.1</v>
+        <v>49681.29</v>
       </c>
       <c r="E13" s="2">
-        <v>555.79</v>
+        <v>584.49</v>
       </c>
       <c r="F13" s="2">
         <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>305.79</v>
+        <v>334.49</v>
       </c>
       <c r="H13" s="2">
-        <v>48314.82</v>
+        <v>28431.65</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="2">
-        <v>968.23</v>
+        <v>974.47</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -896,28 +893,28 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2">
-        <v>39691.56</v>
+        <v>32913.06</v>
       </c>
       <c r="E14" s="2">
-        <v>484.04</v>
+        <v>498.68</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>234.04</v>
+        <v>248.68</v>
       </c>
       <c r="H14" s="2">
-        <v>19191.28</v>
+        <v>16412.88</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="2">
-        <v>827.3</v>
+        <v>833.2</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -928,28 +925,28 @@
         <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>1228</v>
+        <v>923</v>
       </c>
       <c r="D15" s="2">
-        <v>706769.98999998</v>
+        <v>494704.75</v>
       </c>
       <c r="E15" s="2">
-        <v>575.55</v>
+        <v>535.97</v>
       </c>
       <c r="F15" s="2">
         <v>500</v>
       </c>
       <c r="G15" s="2">
-        <v>75.55</v>
+        <v>35.97</v>
       </c>
       <c r="H15" s="2">
-        <v>92775.4</v>
+        <v>33200.31</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="2">
-        <v>1649.96</v>
+        <v>1618.63</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -960,28 +957,28 @@
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
-        <v>179239.79</v>
+        <v>27052.78</v>
       </c>
       <c r="E16" s="2">
-        <v>1194.93</v>
+        <v>1001.95</v>
       </c>
       <c r="F16" s="2">
         <v>880</v>
       </c>
       <c r="G16" s="2">
-        <v>314.93</v>
+        <v>121.95</v>
       </c>
       <c r="H16" s="2">
-        <v>47239.5</v>
+        <v>3292.65</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="2">
-        <v>2350.83</v>
+        <v>2204.26</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -992,28 +989,28 @@
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2">
-        <v>208662.43</v>
+        <v>70028.6</v>
       </c>
       <c r="E17" s="2">
-        <v>1419.47</v>
+        <v>1296.83</v>
       </c>
       <c r="F17" s="2">
         <v>1000</v>
       </c>
       <c r="G17" s="2">
-        <v>419.47</v>
+        <v>296.83</v>
       </c>
       <c r="H17" s="2">
-        <v>61662.09</v>
+        <v>16028.82</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="2">
-        <v>2567.6</v>
+        <v>2453.67</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1024,22 +1021,22 @@
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>62202.94</v>
+        <v>12706.13</v>
       </c>
       <c r="E18" s="2">
-        <v>1323.47</v>
+        <v>1155.1</v>
       </c>
       <c r="F18" s="2">
         <v>1020</v>
       </c>
       <c r="G18" s="2">
-        <v>303.47</v>
+        <v>135.1</v>
       </c>
       <c r="H18" s="2">
-        <v>14263.09</v>
+        <v>1486.1</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
@@ -1056,28 +1053,28 @@
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2">
-        <v>128798.34</v>
+        <v>80920.15</v>
       </c>
       <c r="E19" s="2">
-        <v>1609.98</v>
+        <v>1685.84</v>
       </c>
       <c r="F19" s="2">
         <v>1200</v>
       </c>
       <c r="G19" s="2">
-        <v>409.98</v>
+        <v>485.84</v>
       </c>
       <c r="H19" s="2">
-        <v>32798.4</v>
+        <v>23320.32</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="2">
-        <v>2765.25</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1088,22 +1085,22 @@
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>15641.09</v>
+        <v>7007.22</v>
       </c>
       <c r="E20" s="2">
-        <v>1737.9</v>
+        <v>1751.81</v>
       </c>
       <c r="F20" s="2">
         <v>1170</v>
       </c>
       <c r="G20" s="2">
-        <v>567.9</v>
+        <v>581.81</v>
       </c>
       <c r="H20" s="2">
-        <v>5111.1</v>
+        <v>2327.24</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>30</v>
@@ -1120,28 +1117,28 @@
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
-        <v>75865.19</v>
+        <v>21273.16</v>
       </c>
       <c r="E21" s="2">
-        <v>2107.37</v>
+        <v>2127.32</v>
       </c>
       <c r="F21" s="2">
         <v>1380</v>
       </c>
       <c r="G21" s="2">
-        <v>727.37</v>
+        <v>747.32</v>
       </c>
       <c r="H21" s="2">
-        <v>26185.32</v>
+        <v>7473.2</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="2">
-        <v>3508.28</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1152,28 +1149,28 @@
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
-        <v>40155.19</v>
+        <v>38300.43</v>
       </c>
       <c r="E22" s="2">
-        <v>1029.62</v>
+        <v>1196.89</v>
       </c>
       <c r="F22" s="2">
         <v>650</v>
       </c>
       <c r="G22" s="2">
-        <v>379.62</v>
+        <v>546.89</v>
       </c>
       <c r="H22" s="2">
-        <v>14805.18</v>
+        <v>17500.48</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J22" s="2">
-        <v>1691.54</v>
+        <v>1832.44</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1184,28 +1181,28 @@
         <v>38</v>
       </c>
       <c r="C23" s="2">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2">
-        <v>36974.51</v>
+        <v>14195.01</v>
       </c>
       <c r="E23" s="2">
-        <v>560.22</v>
+        <v>591.46</v>
       </c>
       <c r="F23" s="2">
         <v>250</v>
       </c>
       <c r="G23" s="2">
-        <v>310.22</v>
+        <v>341.46</v>
       </c>
       <c r="H23" s="2">
-        <v>20474.52</v>
+        <v>8195.04</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="2">
-        <v>870.15</v>
+        <v>867.33</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1216,22 +1213,22 @@
         <v>39</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>11901.91</v>
+        <v>6213.27</v>
       </c>
       <c r="E24" s="2">
-        <v>2975.48</v>
+        <v>3106.64</v>
       </c>
       <c r="F24" s="2">
         <v>2000</v>
       </c>
       <c r="G24" s="2">
-        <v>975.48</v>
+        <v>1106.64</v>
       </c>
       <c r="H24" s="2">
-        <v>3901.92</v>
+        <v>2213.28</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>40</v>
@@ -1248,28 +1245,28 @@
         <v>41</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>20860.21</v>
+        <v>4292.38</v>
       </c>
       <c r="E25" s="2">
-        <v>5215.05</v>
+        <v>1430.79</v>
       </c>
       <c r="F25" s="2">
         <v>3000</v>
       </c>
       <c r="G25" s="2">
-        <v>2215.05</v>
+        <v>-1569.21</v>
       </c>
       <c r="H25" s="2">
-        <v>8860.2</v>
+        <v>-4707.63</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J25" s="2">
-        <v>7300</v>
+        <v>2433.33</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1280,113 +1277,81 @@
         <v>6210</v>
       </c>
       <c r="C26" s="2">
-        <v>1234</v>
+        <v>937</v>
       </c>
       <c r="D26" s="2">
-        <v>858719.38</v>
+        <v>670846.08</v>
       </c>
       <c r="E26" s="2">
-        <v>695.88</v>
+        <v>715.95</v>
       </c>
       <c r="F26" s="2">
         <v>400</v>
       </c>
       <c r="G26" s="2">
-        <v>295.88</v>
+        <v>315.95</v>
       </c>
       <c r="H26" s="2">
-        <v>365115.92</v>
+        <v>296045.15</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="2">
-        <v>1307.4</v>
+        <v>1329.94</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="2">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>1773413.91</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>495898.59</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>748.29</v>
-      </c>
-      <c r="E27" s="2">
-        <v>748.29</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="D28" s="2">
+        <v>1773413.91</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3">
-        <v>3065544.54</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3">
-        <v>861245.61</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="2">
-        <v>3065544.54</v>
-      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>495898.59</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="2">
-        <v>861245.61</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>OZON ООО АНМАКС</t>
   </si>
   <si>
-    <t>Дата начала: 2025-04-14 ; Дата окончания : 2025-04-22</t>
+    <t>Дата начала: 2025-04-01 ; Дата окончания : 2025-04-27</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,7 +53,7 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-ч</t>
+    <t>82400-чкккк</t>
   </si>
   <si>
     <t>420x420x120</t>
@@ -104,6 +104,9 @@
     <t>520x520x130</t>
   </si>
   <si>
+    <t>82400-ч-2+10</t>
+  </si>
+  <si>
     <t>7280-К-6</t>
   </si>
   <si>
@@ -147,6 +150,9 @@
   </si>
   <si>
     <t>380x380x75</t>
+  </si>
+  <si>
+    <t>SKU = 1999088287</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -535,7 +541,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -605,28 +611,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="D5" s="2">
-        <v>21307.85</v>
+        <v>51500.16</v>
       </c>
       <c r="E5" s="2">
-        <v>304.4</v>
+        <v>301.17</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>54.4</v>
+        <v>51.17</v>
       </c>
       <c r="H5" s="2">
-        <v>3808</v>
+        <v>8750.07</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>960.3</v>
+        <v>969.54</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -637,28 +643,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2">
-        <v>15172.1</v>
+        <v>46176.84</v>
       </c>
       <c r="E6" s="2">
-        <v>489.42</v>
+        <v>405.06</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>189.42</v>
+        <v>105.06</v>
       </c>
       <c r="H6" s="2">
-        <v>5872.02</v>
+        <v>11976.84</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>1116.55</v>
+        <v>1037.53</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -669,28 +675,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>187</v>
+        <v>700</v>
       </c>
       <c r="D7" s="2">
-        <v>73797.85</v>
+        <v>292150.33</v>
       </c>
       <c r="E7" s="2">
-        <v>394.64</v>
+        <v>417.36</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>94.64</v>
+        <v>117.36</v>
       </c>
       <c r="H7" s="2">
-        <v>17697.68</v>
+        <v>82152</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>1275.07</v>
+        <v>1268.48</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -701,28 +707,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2">
-        <v>17055.32</v>
+        <v>69282.26</v>
       </c>
       <c r="E8" s="2">
-        <v>460.95</v>
+        <v>502.05</v>
       </c>
       <c r="F8" s="2">
         <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>110.95</v>
+        <v>152.05</v>
       </c>
       <c r="H8" s="2">
-        <v>4105.15</v>
+        <v>20982.9</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>1429.81</v>
+        <v>1480.37</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -733,28 +739,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2">
-        <v>5471.7</v>
+        <v>16251.99</v>
       </c>
       <c r="E9" s="2">
-        <v>497.43</v>
+        <v>416.72</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>147.43</v>
+        <v>66.72</v>
       </c>
       <c r="H9" s="2">
-        <v>1621.73</v>
+        <v>2602.08</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>1607.45</v>
+        <v>1506.36</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -765,28 +771,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>164</v>
+        <v>609</v>
       </c>
       <c r="D10" s="2">
-        <v>60583.59</v>
+        <v>266583.15</v>
       </c>
       <c r="E10" s="2">
-        <v>369.41</v>
+        <v>437.74</v>
       </c>
       <c r="F10" s="2">
         <v>400</v>
       </c>
       <c r="G10" s="2">
-        <v>-30.59</v>
+        <v>37.74</v>
       </c>
       <c r="H10" s="2">
-        <v>-5016.76</v>
+        <v>22983.66</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="2">
-        <v>2300.31</v>
+        <v>2116.32</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -797,28 +803,28 @@
         <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="D11" s="2">
-        <v>46276.1</v>
+        <v>185337.09</v>
       </c>
       <c r="E11" s="2">
-        <v>826.36</v>
+        <v>683.9</v>
       </c>
       <c r="F11" s="2">
         <v>450</v>
       </c>
       <c r="G11" s="2">
-        <v>376.36</v>
+        <v>233.9</v>
       </c>
       <c r="H11" s="2">
-        <v>21076.16</v>
+        <v>63386.9</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="2">
-        <v>2337.02</v>
+        <v>2115.86</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -829,28 +835,28 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="D12" s="2">
-        <v>3615.09</v>
+        <v>67875.82</v>
       </c>
       <c r="E12" s="2">
-        <v>200.84</v>
+        <v>570.39</v>
       </c>
       <c r="F12" s="2">
         <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>-249.16</v>
+        <v>120.39</v>
       </c>
       <c r="H12" s="2">
-        <v>-4484.88</v>
+        <v>14326.41</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="2">
-        <v>2215.44</v>
+        <v>2085.69</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -861,28 +867,28 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>85</v>
+        <v>307</v>
       </c>
       <c r="D13" s="2">
-        <v>49681.29</v>
+        <v>176867.56</v>
       </c>
       <c r="E13" s="2">
-        <v>584.49</v>
+        <v>576.12</v>
       </c>
       <c r="F13" s="2">
         <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>334.49</v>
+        <v>326.12</v>
       </c>
       <c r="H13" s="2">
-        <v>28431.65</v>
+        <v>100118.84</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="2">
-        <v>974.47</v>
+        <v>975.04</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -893,28 +899,28 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="D14" s="2">
-        <v>32913.06</v>
+        <v>97820.15</v>
       </c>
       <c r="E14" s="2">
-        <v>498.68</v>
+        <v>501.64</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>248.68</v>
+        <v>251.64</v>
       </c>
       <c r="H14" s="2">
-        <v>16412.88</v>
+        <v>49069.8</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="2">
-        <v>833.2</v>
+        <v>841.23</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -925,28 +931,28 @@
         <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>923</v>
+        <v>2013</v>
       </c>
       <c r="D15" s="2">
-        <v>494704.75</v>
+        <v>1230431.6</v>
       </c>
       <c r="E15" s="2">
-        <v>535.97</v>
+        <v>611.24</v>
       </c>
       <c r="F15" s="2">
         <v>500</v>
       </c>
       <c r="G15" s="2">
-        <v>35.97</v>
+        <v>111.24</v>
       </c>
       <c r="H15" s="2">
-        <v>33200.31</v>
+        <v>223926.12</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="2">
-        <v>1618.63</v>
+        <v>1666.76</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -956,29 +962,27 @@
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2">
-        <v>27</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>27052.78</v>
+        <v>-125.22</v>
       </c>
       <c r="E16" s="2">
-        <v>1001.95</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="G16" s="2">
-        <v>121.95</v>
+        <v>-800</v>
       </c>
       <c r="H16" s="2">
-        <v>3292.65</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2">
-        <v>2204.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -986,31 +990,31 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>153</v>
+      </c>
+      <c r="D17" s="2">
+        <v>185047.31</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1209.46</v>
+      </c>
+      <c r="F17" s="2">
+        <v>880</v>
+      </c>
+      <c r="G17" s="2">
+        <v>329.46</v>
+      </c>
+      <c r="H17" s="2">
+        <v>50407.38</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2">
-        <v>54</v>
-      </c>
-      <c r="D17" s="2">
-        <v>70028.6</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1296.83</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="2">
-        <v>296.83</v>
-      </c>
-      <c r="H17" s="2">
-        <v>16028.82</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J17" s="2">
-        <v>2453.67</v>
+        <v>2352.55</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1021,28 +1025,28 @@
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="D18" s="2">
-        <v>12706.13</v>
+        <v>218281.21</v>
       </c>
       <c r="E18" s="2">
-        <v>1155.1</v>
+        <v>1408.27</v>
       </c>
       <c r="F18" s="2">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="2">
-        <v>135.1</v>
+        <v>408.27</v>
       </c>
       <c r="H18" s="2">
-        <v>1486.1</v>
+        <v>63281.85</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J18" s="2">
-        <v>2412</v>
+        <v>2535.65</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1053,28 +1057,28 @@
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2">
-        <v>80920.15</v>
+        <v>83779.65</v>
       </c>
       <c r="E19" s="2">
-        <v>1685.84</v>
+        <v>1163.61</v>
       </c>
       <c r="F19" s="2">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="G19" s="2">
-        <v>485.84</v>
+        <v>143.61</v>
       </c>
       <c r="H19" s="2">
-        <v>23320.32</v>
+        <v>10339.92</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J19" s="2">
-        <v>2798</v>
+        <v>2245.72</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1085,28 +1089,28 @@
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="D20" s="2">
-        <v>7007.22</v>
+        <v>192457.28</v>
       </c>
       <c r="E20" s="2">
-        <v>1751.81</v>
+        <v>1688.22</v>
       </c>
       <c r="F20" s="2">
-        <v>1170</v>
+        <v>1200</v>
       </c>
       <c r="G20" s="2">
-        <v>581.81</v>
+        <v>488.22</v>
       </c>
       <c r="H20" s="2">
-        <v>2327.24</v>
+        <v>55657.08</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J20" s="2">
-        <v>2952</v>
+        <v>2792.02</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1117,28 +1121,28 @@
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2">
-        <v>21273.16</v>
+        <v>24536.35</v>
       </c>
       <c r="E21" s="2">
-        <v>2127.32</v>
+        <v>1752.6</v>
       </c>
       <c r="F21" s="2">
-        <v>1380</v>
+        <v>1170</v>
       </c>
       <c r="G21" s="2">
-        <v>747.32</v>
+        <v>582.6</v>
       </c>
       <c r="H21" s="2">
-        <v>7473.2</v>
+        <v>8156.4</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J21" s="2">
-        <v>3473</v>
+        <v>2959.71</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1149,28 +1153,28 @@
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2">
-        <v>38300.43</v>
+        <v>132204.97</v>
       </c>
       <c r="E22" s="2">
-        <v>1196.89</v>
+        <v>2132.34</v>
       </c>
       <c r="F22" s="2">
-        <v>650</v>
+        <v>1380</v>
       </c>
       <c r="G22" s="2">
-        <v>546.89</v>
+        <v>752.34</v>
       </c>
       <c r="H22" s="2">
-        <v>17500.48</v>
+        <v>46645.08</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J22" s="2">
-        <v>1832.44</v>
+        <v>3495.53</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1178,31 +1182,31 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2">
+        <v>56</v>
+      </c>
+      <c r="D23" s="2">
+        <v>60286.89</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1076.55</v>
+      </c>
+      <c r="F23" s="2">
+        <v>650</v>
+      </c>
+      <c r="G23" s="2">
+        <v>426.55</v>
+      </c>
+      <c r="H23" s="2">
+        <v>23886.8</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="2">
-        <v>24</v>
-      </c>
-      <c r="D23" s="2">
-        <v>14195.01</v>
-      </c>
-      <c r="E23" s="2">
-        <v>591.46</v>
-      </c>
-      <c r="F23" s="2">
-        <v>250</v>
-      </c>
-      <c r="G23" s="2">
-        <v>341.46</v>
-      </c>
-      <c r="H23" s="2">
-        <v>8195.04</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J23" s="2">
-        <v>867.33</v>
+        <v>1735.68</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1213,28 +1217,28 @@
         <v>39</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2">
-        <v>6213.27</v>
+        <v>46372.76</v>
       </c>
       <c r="E24" s="2">
-        <v>3106.64</v>
+        <v>558.71</v>
       </c>
       <c r="F24" s="2">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G24" s="2">
-        <v>1106.64</v>
+        <v>308.71</v>
       </c>
       <c r="H24" s="2">
-        <v>2213.28</v>
+        <v>25622.93</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J24" s="2">
-        <v>4500</v>
+        <v>859.7</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1242,116 +1246,180 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>18260.39</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3043.4</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1043.4</v>
+      </c>
+      <c r="H25" s="2">
+        <v>6260.4</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2">
-        <v>4292.38</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1430.79</v>
-      </c>
-      <c r="F25" s="2">
-        <v>3000</v>
-      </c>
-      <c r="G25" s="2">
-        <v>-1569.21</v>
-      </c>
-      <c r="H25" s="2">
-        <v>-4707.63</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J25" s="2">
-        <v>2433.33</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="2">
-        <v>6210</v>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C26" s="2">
-        <v>937</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2">
-        <v>670846.08</v>
+        <v>35458.87</v>
       </c>
       <c r="E26" s="2">
-        <v>715.95</v>
+        <v>3939.87</v>
       </c>
       <c r="F26" s="2">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="G26" s="2">
-        <v>315.95</v>
+        <v>939.87</v>
       </c>
       <c r="H26" s="2">
-        <v>296045.15</v>
+        <v>8458.83</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="2">
-        <v>1329.94</v>
+        <v>5677.78</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
-        <v>1773413.91</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3">
-        <v>495898.59</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
+        <v>6210</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2122</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1567432.84</v>
+      </c>
+      <c r="E27" s="2">
+        <v>738.66</v>
+      </c>
+      <c r="F27" s="2">
+        <v>400</v>
+      </c>
+      <c r="G27" s="2">
+        <v>338.66</v>
+      </c>
+      <c r="H27" s="2">
+        <v>718636.52</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1365.68</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
       </c>
       <c r="D28" s="2">
-        <v>1773413.91</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>45</v>
+        <v>748.29</v>
+      </c>
+      <c r="E28" s="2">
+        <v>748.29</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1615</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <v>5065018.54</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <v>1617628.81</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="2">
-        <v>495898.59</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="D30" s="2">
+        <v>5065018.54</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1617628.81</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
-  <si>
-    <t>OZON ООО АНМАКС</t>
-  </si>
-  <si>
-    <t>Дата начала: 2025-04-01 ; Дата окончания : 2025-04-27</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+  <si>
+    <t>OZON ИП ЗЕЛ</t>
+  </si>
+  <si>
+    <t>Дата начала: 2025-05-01 ; Дата окончания : 2025-05-21</t>
   </si>
   <si>
     <t>пп</t>
@@ -53,13 +53,19 @@
     <t>Средняя цена на маркете</t>
   </si>
   <si>
-    <t>82400-чкккк</t>
+    <t>82400-ч</t>
   </si>
   <si>
     <t>420x420x120</t>
   </si>
   <si>
-    <t>82400-К</t>
+    <t>z8888_82400-ч(фин 2024)</t>
+  </si>
+  <si>
+    <t>82400-к</t>
+  </si>
+  <si>
+    <t>z8888_82400-к(финиш-1)</t>
   </si>
   <si>
     <t>82401-ч</t>
@@ -68,22 +74,25 @@
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-К</t>
-  </si>
-  <si>
-    <t>82401-З</t>
-  </si>
-  <si>
-    <t>82402-Ч</t>
+    <t>82401-к</t>
+  </si>
+  <si>
+    <t>z8888_82401-к(фин-01)</t>
+  </si>
+  <si>
+    <t>82401-з</t>
+  </si>
+  <si>
+    <t>82402-ч</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
-    <t>82402-К</t>
-  </si>
-  <si>
-    <t>82402-З</t>
+    <t>82402-к</t>
+  </si>
+  <si>
+    <t>82402-з</t>
   </si>
   <si>
     <t>1840-30</t>
@@ -107,28 +116,25 @@
     <t>82400-ч-2+10</t>
   </si>
   <si>
-    <t>7280-К-6</t>
+    <t>z8888_7260-к-8(фин__2)</t>
   </si>
   <si>
     <t>1010x280x90</t>
   </si>
   <si>
-    <t>7280-К-6-18</t>
-  </si>
-  <si>
-    <t>7260-К-8</t>
+    <t>7260-к-8</t>
   </si>
   <si>
     <t>7260-К-8-24</t>
   </si>
   <si>
-    <t>7245-К-10</t>
-  </si>
-  <si>
-    <t>7245-К-10-30</t>
-  </si>
-  <si>
-    <t>7262-КП</t>
+    <t>7245-к-10</t>
+  </si>
+  <si>
+    <t>7245-к-10-30</t>
+  </si>
+  <si>
+    <t>7262-кп</t>
   </si>
   <si>
     <t>1010x150x150</t>
@@ -137,22 +143,10 @@
     <t>8910-30</t>
   </si>
   <si>
-    <t>ANM.39*59</t>
-  </si>
-  <si>
-    <t>600x400x30</t>
-  </si>
-  <si>
-    <t>ANM.49*99</t>
-  </si>
-  <si>
-    <t>1000x500x30</t>
-  </si>
-  <si>
     <t>380x380x75</t>
   </si>
   <si>
-    <t>SKU = 1999088287</t>
+    <t>SKU = 2068151705</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -611,28 +605,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>171</v>
+        <v>675</v>
       </c>
       <c r="D5" s="2">
-        <v>51500.16</v>
+        <v>276958.7</v>
       </c>
       <c r="E5" s="2">
-        <v>301.17</v>
+        <v>410.31</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>51.17</v>
+        <v>160.31</v>
       </c>
       <c r="H5" s="2">
-        <v>8750.07</v>
+        <v>108209.25</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>969.54</v>
+        <v>1011.26</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -643,28 +637,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>46176.84</v>
+        <v>173.27</v>
       </c>
       <c r="E6" s="2">
-        <v>405.06</v>
+        <v>173.27</v>
       </c>
       <c r="F6" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G6" s="2">
-        <v>105.06</v>
+        <v>-76.73</v>
       </c>
       <c r="H6" s="2">
-        <v>11976.84</v>
+        <v>-76.73</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>1037.53</v>
+        <v>820</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -675,28 +669,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>700</v>
+        <v>368</v>
       </c>
       <c r="D7" s="2">
-        <v>292150.33</v>
+        <v>151753.81</v>
       </c>
       <c r="E7" s="2">
-        <v>417.36</v>
+        <v>412.37</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>117.36</v>
+        <v>112.37</v>
       </c>
       <c r="H7" s="2">
-        <v>82152</v>
+        <v>41352.16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2">
-        <v>1268.48</v>
+        <v>1008.93</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -704,31 +698,29 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>138</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>69282.26</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>502.05</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="G8" s="2">
-        <v>152.05</v>
+        <v>-300</v>
       </c>
       <c r="H8" s="2">
-        <v>20982.9</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J8" s="2">
-        <v>1480.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -736,31 +728,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>772</v>
+      </c>
+      <c r="D9" s="2">
+        <v>456082.47</v>
+      </c>
+      <c r="E9" s="2">
+        <v>590.78</v>
+      </c>
+      <c r="F9" s="2">
+        <v>300</v>
+      </c>
+      <c r="G9" s="2">
+        <v>290.78</v>
+      </c>
+      <c r="H9" s="2">
+        <v>224482.16</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2">
-        <v>16251.99</v>
-      </c>
-      <c r="E9" s="2">
-        <v>416.72</v>
-      </c>
-      <c r="F9" s="2">
-        <v>350</v>
-      </c>
-      <c r="G9" s="2">
-        <v>66.72</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2602.08</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J9" s="2">
-        <v>1506.36</v>
+        <v>1404.72</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -771,28 +763,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>609</v>
+        <v>154</v>
       </c>
       <c r="D10" s="2">
-        <v>266583.15</v>
+        <v>97953.59</v>
       </c>
       <c r="E10" s="2">
-        <v>437.74</v>
+        <v>636.06</v>
       </c>
       <c r="F10" s="2">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G10" s="2">
-        <v>37.74</v>
+        <v>286.06</v>
       </c>
       <c r="H10" s="2">
-        <v>22983.66</v>
+        <v>44053.24</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2">
-        <v>2116.32</v>
+        <v>1388.79</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -800,31 +792,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>185337.09</v>
+        <v>-178.27</v>
       </c>
       <c r="E11" s="2">
-        <v>683.9</v>
+        <v>-178.27</v>
       </c>
       <c r="F11" s="2">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="G11" s="2">
-        <v>233.9</v>
+        <v>-528.27</v>
       </c>
       <c r="H11" s="2">
-        <v>63386.9</v>
+        <v>-528.27</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J11" s="2">
-        <v>2115.86</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -832,31 +824,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2">
-        <v>67875.82</v>
+        <v>70684.5</v>
       </c>
       <c r="E12" s="2">
-        <v>570.39</v>
+        <v>706.85</v>
       </c>
       <c r="F12" s="2">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="G12" s="2">
-        <v>120.39</v>
+        <v>356.85</v>
       </c>
       <c r="H12" s="2">
-        <v>14326.41</v>
+        <v>35685</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J12" s="2">
-        <v>2085.69</v>
+        <v>1434.27</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -864,31 +856,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2">
+        <v>74865.86</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1207.51</v>
+      </c>
+      <c r="F13" s="2">
+        <v>400</v>
+      </c>
+      <c r="G13" s="2">
+        <v>807.51</v>
+      </c>
+      <c r="H13" s="2">
+        <v>50065.62</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2">
-        <v>307</v>
-      </c>
-      <c r="D13" s="2">
-        <v>176867.56</v>
-      </c>
-      <c r="E13" s="2">
-        <v>576.12</v>
-      </c>
-      <c r="F13" s="2">
-        <v>250</v>
-      </c>
-      <c r="G13" s="2">
-        <v>326.12</v>
-      </c>
-      <c r="H13" s="2">
-        <v>100118.84</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J13" s="2">
-        <v>975.04</v>
+        <v>2334.02</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -896,31 +888,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
-        <v>97820.15</v>
+        <v>20297.41</v>
       </c>
       <c r="E14" s="2">
-        <v>501.64</v>
+        <v>1193.97</v>
       </c>
       <c r="F14" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G14" s="2">
-        <v>251.64</v>
+        <v>743.97</v>
       </c>
       <c r="H14" s="2">
-        <v>49069.8</v>
+        <v>12647.49</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J14" s="2">
-        <v>841.23</v>
+        <v>2194.71</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -928,31 +920,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>2013</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2">
-        <v>1230431.6</v>
+        <v>41579.42</v>
       </c>
       <c r="E15" s="2">
-        <v>611.24</v>
+        <v>1014.13</v>
       </c>
       <c r="F15" s="2">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G15" s="2">
-        <v>111.24</v>
+        <v>564.13</v>
       </c>
       <c r="H15" s="2">
-        <v>223926.12</v>
+        <v>23129.33</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J15" s="2">
-        <v>1666.76</v>
+        <v>2176.68</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -960,29 +952,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>84</v>
+      </c>
       <c r="D16" s="2">
-        <v>-125.22</v>
+        <v>50205.87</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>597.69</v>
       </c>
       <c r="F16" s="2">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="G16" s="2">
-        <v>-800</v>
+        <v>347.69</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>29205.96</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>916.67</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -990,31 +984,31 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2">
-        <v>185047.31</v>
+        <v>31339.27</v>
       </c>
       <c r="E17" s="2">
-        <v>1209.46</v>
+        <v>522.32</v>
       </c>
       <c r="F17" s="2">
-        <v>880</v>
+        <v>250</v>
       </c>
       <c r="G17" s="2">
-        <v>329.46</v>
+        <v>272.32</v>
       </c>
       <c r="H17" s="2">
-        <v>50407.38</v>
+        <v>16339.2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J17" s="2">
-        <v>2352.55</v>
+        <v>807.2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1022,31 +1016,31 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
-        <v>155</v>
+        <v>1525</v>
       </c>
       <c r="D18" s="2">
-        <v>218281.21</v>
+        <v>1112035.84</v>
       </c>
       <c r="E18" s="2">
-        <v>1408.27</v>
+        <v>729.2</v>
       </c>
       <c r="F18" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G18" s="2">
-        <v>408.27</v>
+        <v>229.2</v>
       </c>
       <c r="H18" s="2">
-        <v>63281.85</v>
+        <v>349530</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J18" s="2">
-        <v>2535.65</v>
+        <v>1970.26</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1054,31 +1048,31 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D19" s="2">
-        <v>83779.65</v>
+        <v>102438.91</v>
       </c>
       <c r="E19" s="2">
-        <v>1163.61</v>
+        <v>1164.08</v>
       </c>
       <c r="F19" s="2">
-        <v>1020</v>
+        <v>800</v>
       </c>
       <c r="G19" s="2">
-        <v>143.61</v>
+        <v>364.08</v>
       </c>
       <c r="H19" s="2">
-        <v>10339.92</v>
+        <v>32039.04</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J19" s="2">
-        <v>2245.72</v>
+        <v>2255.36</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1086,31 +1080,31 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
+        <v>20689.39</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1591.49</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1020</v>
+      </c>
+      <c r="G20" s="2">
+        <v>571.49</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7429.37</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="2">
-        <v>114</v>
-      </c>
-      <c r="D20" s="2">
-        <v>192457.28</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1688.22</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1200</v>
-      </c>
-      <c r="G20" s="2">
-        <v>488.22</v>
-      </c>
-      <c r="H20" s="2">
-        <v>55657.08</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="J20" s="2">
-        <v>2792.02</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1120,29 +1114,27 @@
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="2">
-        <v>14</v>
-      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <v>24536.35</v>
+        <v>-50.6</v>
       </c>
       <c r="E21" s="2">
-        <v>1752.6</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>1170</v>
+        <v>1020</v>
       </c>
       <c r="G21" s="2">
-        <v>582.6</v>
+        <v>-1020</v>
       </c>
       <c r="H21" s="2">
-        <v>8156.4</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J21" s="2">
-        <v>2959.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1153,28 +1145,28 @@
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
-        <v>132204.97</v>
+        <v>57585.3</v>
       </c>
       <c r="E22" s="2">
-        <v>2132.34</v>
+        <v>1919.51</v>
       </c>
       <c r="F22" s="2">
-        <v>1380</v>
+        <v>1200</v>
       </c>
       <c r="G22" s="2">
-        <v>752.34</v>
+        <v>719.51</v>
       </c>
       <c r="H22" s="2">
-        <v>46645.08</v>
+        <v>21585.3</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J22" s="2">
-        <v>3495.53</v>
+        <v>2829.3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1185,28 +1177,28 @@
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
-        <v>60286.89</v>
+        <v>62918.65</v>
       </c>
       <c r="E23" s="2">
-        <v>1076.55</v>
+        <v>2029.63</v>
       </c>
       <c r="F23" s="2">
-        <v>650</v>
+        <v>1170</v>
       </c>
       <c r="G23" s="2">
-        <v>426.55</v>
+        <v>859.63</v>
       </c>
       <c r="H23" s="2">
-        <v>23886.8</v>
+        <v>26648.53</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J23" s="2">
-        <v>1735.68</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1214,31 +1206,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
-        <v>46372.76</v>
+        <v>60087.4</v>
       </c>
       <c r="E24" s="2">
-        <v>558.71</v>
+        <v>2145.98</v>
       </c>
       <c r="F24" s="2">
-        <v>250</v>
+        <v>1380</v>
       </c>
       <c r="G24" s="2">
-        <v>308.71</v>
+        <v>765.98</v>
       </c>
       <c r="H24" s="2">
-        <v>25622.93</v>
+        <v>21447.44</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J24" s="2">
-        <v>859.7</v>
+        <v>3196.61</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1246,31 +1238,31 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43</v>
+      </c>
+      <c r="D25" s="2">
+        <v>41789.76</v>
+      </c>
+      <c r="E25" s="2">
+        <v>971.85</v>
+      </c>
+      <c r="F25" s="2">
+        <v>650</v>
+      </c>
+      <c r="G25" s="2">
+        <v>321.85</v>
+      </c>
+      <c r="H25" s="2">
+        <v>13839.55</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="2">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2">
-        <v>18260.39</v>
-      </c>
-      <c r="E25" s="2">
-        <v>3043.4</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1043.4</v>
-      </c>
-      <c r="H25" s="2">
-        <v>6260.4</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="J25" s="2">
-        <v>4500</v>
+        <v>1698.49</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1278,31 +1270,31 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2">
-        <v>35458.87</v>
+        <v>43677.23</v>
       </c>
       <c r="E26" s="2">
-        <v>3939.87</v>
+        <v>623.96</v>
       </c>
       <c r="F26" s="2">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="G26" s="2">
-        <v>939.87</v>
+        <v>373.96</v>
       </c>
       <c r="H26" s="2">
-        <v>8458.83</v>
+        <v>26177.2</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="J26" s="2">
-        <v>5677.78</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1313,28 +1305,28 @@
         <v>6210</v>
       </c>
       <c r="C27" s="2">
-        <v>2122</v>
+        <v>1174</v>
       </c>
       <c r="D27" s="2">
-        <v>1567432.84</v>
+        <v>1029189.27</v>
       </c>
       <c r="E27" s="2">
-        <v>738.66</v>
+        <v>876.65</v>
       </c>
       <c r="F27" s="2">
         <v>400</v>
       </c>
       <c r="G27" s="2">
-        <v>338.66</v>
+        <v>476.65</v>
       </c>
       <c r="H27" s="2">
-        <v>718636.52</v>
+        <v>559587.1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J27" s="2">
-        <v>1365.68</v>
+        <v>1619.55</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1342,16 +1334,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="2">
-        <v>748.29</v>
+        <v>853.5</v>
       </c>
       <c r="E28" s="2">
-        <v>748.29</v>
+        <v>853.5</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -1363,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J28" s="2">
-        <v>1615</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1374,13 +1366,13 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
-        <v>5065018.54</v>
+        <v>3802930.55</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <v>1617628.81</v>
+        <v>1642847.94</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1389,15 +1381,15 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2">
-        <v>5065018.54</v>
+        <v>3802930.55</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1413,10 +1405,10 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31" s="2">
-        <v>1617628.81</v>
+        <v>1642847.94</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>OZON ИП ЗЕЛ</t>
   </si>
   <si>
-    <t>Дата начала: 2025-05-01 ; Дата окончания : 2025-05-21</t>
+    <t>Дата начала: 2025-06-01 ; Дата окончания : 2025-06-05</t>
   </si>
   <si>
     <t>пп</t>
@@ -59,27 +59,15 @@
     <t>420x420x120</t>
   </si>
   <si>
-    <t>z8888_82400-ч(фин 2024)</t>
-  </si>
-  <si>
     <t>82400-к</t>
   </si>
   <si>
-    <t>z8888_82400-к(финиш-1)</t>
-  </si>
-  <si>
     <t>82401-ч</t>
   </si>
   <si>
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-к</t>
-  </si>
-  <si>
-    <t>z8888_82401-к(фин-01)</t>
-  </si>
-  <si>
     <t>82401-з</t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t>600x600x180</t>
   </si>
   <si>
-    <t>82402-к</t>
-  </si>
-  <si>
     <t>82402-з</t>
   </si>
   <si>
@@ -116,15 +101,12 @@
     <t>82400-ч-2+10</t>
   </si>
   <si>
-    <t>z8888_7260-к-8(фин__2)</t>
+    <t>7260-к-8</t>
   </si>
   <si>
     <t>1010x280x90</t>
   </si>
   <si>
-    <t>7260-к-8</t>
-  </si>
-  <si>
     <t>7260-К-8-24</t>
   </si>
   <si>
@@ -144,9 +126,6 @@
   </si>
   <si>
     <t>380x380x75</t>
-  </si>
-  <si>
-    <t>SKU = 2068151705</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -535,7 +514,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -605,28 +584,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>675</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2">
-        <v>276958.7</v>
+        <v>26453.15</v>
       </c>
       <c r="E5" s="2">
-        <v>410.31</v>
+        <v>489.87</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>160.31</v>
+        <v>239.87</v>
       </c>
       <c r="H5" s="2">
-        <v>108209.25</v>
+        <v>12952.98</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>1011.26</v>
+        <v>1053.43</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -637,28 +616,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>173.27</v>
+        <v>165.39</v>
       </c>
       <c r="E6" s="2">
-        <v>173.27</v>
+        <v>82.69</v>
       </c>
       <c r="F6" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>-76.73</v>
+        <v>-217.31</v>
       </c>
       <c r="H6" s="2">
-        <v>-76.73</v>
+        <v>-434.62</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>820</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -669,28 +648,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2">
-        <v>151753.81</v>
+        <v>58155.17</v>
       </c>
       <c r="E7" s="2">
-        <v>412.37</v>
+        <v>700.66</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>112.37</v>
+        <v>400.66</v>
       </c>
       <c r="H7" s="2">
-        <v>41352.16</v>
+        <v>33254.78</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>1008.93</v>
+        <v>1438.99</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -698,29 +677,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2">
+        <v>22870.27</v>
+      </c>
+      <c r="E8" s="2">
+        <v>693.04</v>
+      </c>
+      <c r="F8" s="2">
+        <v>350</v>
+      </c>
+      <c r="G8" s="2">
+        <v>343.04</v>
+      </c>
+      <c r="H8" s="2">
+        <v>11320.32</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>300</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-300</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -728,31 +709,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>772</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>456082.47</v>
+        <v>7783</v>
       </c>
       <c r="E9" s="2">
-        <v>590.78</v>
+        <v>1297.17</v>
       </c>
       <c r="F9" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G9" s="2">
-        <v>290.78</v>
+        <v>897.17</v>
       </c>
       <c r="H9" s="2">
-        <v>224482.16</v>
+        <v>5383.02</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" s="2">
-        <v>1404.72</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -760,31 +741,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6559.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1311.9</v>
+      </c>
+      <c r="F10" s="2">
+        <v>450</v>
+      </c>
+      <c r="G10" s="2">
+        <v>861.9</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4309.5</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
-        <v>154</v>
-      </c>
-      <c r="D10" s="2">
-        <v>97953.59</v>
-      </c>
-      <c r="E10" s="2">
-        <v>636.06</v>
-      </c>
-      <c r="F10" s="2">
-        <v>350</v>
-      </c>
-      <c r="G10" s="2">
-        <v>286.06</v>
-      </c>
-      <c r="H10" s="2">
-        <v>44053.24</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J10" s="2">
-        <v>1388.79</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -792,31 +773,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>-178.27</v>
+        <v>3407.29</v>
       </c>
       <c r="E11" s="2">
-        <v>-178.27</v>
+        <v>567.88</v>
       </c>
       <c r="F11" s="2">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G11" s="2">
-        <v>-528.27</v>
+        <v>317.88</v>
       </c>
       <c r="H11" s="2">
-        <v>-528.27</v>
+        <v>1907.28</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2">
-        <v>1099</v>
+        <v>920</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -824,31 +805,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2">
-        <v>70684.5</v>
+        <v>4285.66</v>
       </c>
       <c r="E12" s="2">
-        <v>706.85</v>
+        <v>535.71</v>
       </c>
       <c r="F12" s="2">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G12" s="2">
-        <v>356.85</v>
+        <v>285.71</v>
       </c>
       <c r="H12" s="2">
-        <v>35685</v>
+        <v>2285.68</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2">
-        <v>1434.27</v>
+        <v>810</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -856,31 +837,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2">
-        <v>74865.86</v>
+        <v>71896.93</v>
       </c>
       <c r="E13" s="2">
-        <v>1207.51</v>
+        <v>866.23</v>
       </c>
       <c r="F13" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G13" s="2">
-        <v>807.51</v>
+        <v>366.23</v>
       </c>
       <c r="H13" s="2">
-        <v>50065.62</v>
+        <v>30397.09</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2">
-        <v>2334.02</v>
+        <v>2015.7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -888,31 +869,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2">
-        <v>20297.41</v>
+        <v>6505.88</v>
       </c>
       <c r="E14" s="2">
-        <v>1193.97</v>
+        <v>1301.18</v>
       </c>
       <c r="F14" s="2">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="G14" s="2">
-        <v>743.97</v>
+        <v>501.18</v>
       </c>
       <c r="H14" s="2">
-        <v>12647.49</v>
+        <v>2505.9</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2">
-        <v>2194.71</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -920,31 +901,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>41579.42</v>
+        <v>1604.64</v>
       </c>
       <c r="E15" s="2">
-        <v>1014.13</v>
+        <v>1604.64</v>
       </c>
       <c r="F15" s="2">
-        <v>450</v>
+        <v>1020</v>
       </c>
       <c r="G15" s="2">
-        <v>564.13</v>
+        <v>584.64</v>
       </c>
       <c r="H15" s="2">
-        <v>23129.33</v>
+        <v>584.64</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2">
-        <v>2176.68</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -952,31 +933,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2">
-        <v>50205.87</v>
+        <v>13596.38</v>
       </c>
       <c r="E16" s="2">
-        <v>597.69</v>
+        <v>1942.34</v>
       </c>
       <c r="F16" s="2">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G16" s="2">
-        <v>347.69</v>
+        <v>742.34</v>
       </c>
       <c r="H16" s="2">
-        <v>29205.96</v>
+        <v>5196.38</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2">
-        <v>916.67</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -984,31 +965,29 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2">
-        <v>60</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>31339.27</v>
+        <v>-25.71</v>
       </c>
       <c r="E17" s="2">
-        <v>522.32</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>250</v>
+        <v>1170</v>
       </c>
       <c r="G17" s="2">
-        <v>272.32</v>
+        <v>-1170</v>
       </c>
       <c r="H17" s="2">
-        <v>16339.2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="2">
-        <v>807.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1016,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>1525</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>1112035.84</v>
+        <v>1492.75</v>
       </c>
       <c r="E18" s="2">
-        <v>729.2</v>
+        <v>1492.75</v>
       </c>
       <c r="F18" s="2">
-        <v>500</v>
+        <v>1380</v>
       </c>
       <c r="G18" s="2">
-        <v>229.2</v>
+        <v>112.75</v>
       </c>
       <c r="H18" s="2">
-        <v>349530</v>
+        <v>112.75</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J18" s="2">
-        <v>1970.26</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1048,31 +1027,31 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2">
-        <v>102438.91</v>
+        <v>5158.29</v>
       </c>
       <c r="E19" s="2">
-        <v>1164.08</v>
+        <v>1031.66</v>
       </c>
       <c r="F19" s="2">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="G19" s="2">
-        <v>364.08</v>
+        <v>381.66</v>
       </c>
       <c r="H19" s="2">
-        <v>32039.04</v>
+        <v>1908.3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2">
-        <v>2255.36</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1080,338 +1059,116 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>20689.39</v>
+        <v>2397.83</v>
       </c>
       <c r="E20" s="2">
-        <v>1591.49</v>
+        <v>599.46</v>
       </c>
       <c r="F20" s="2">
-        <v>1020</v>
+        <v>250</v>
       </c>
       <c r="G20" s="2">
-        <v>571.49</v>
+        <v>349.46</v>
       </c>
       <c r="H20" s="2">
-        <v>7429.37</v>
+        <v>1397.84</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J20" s="2">
-        <v>2700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2">
+        <v>6210</v>
+      </c>
+      <c r="C21" s="2">
+        <v>79</v>
+      </c>
       <c r="D21" s="2">
-        <v>-50.6</v>
+        <v>73084.87</v>
       </c>
       <c r="E21" s="2">
+        <v>925.12</v>
+      </c>
+      <c r="F21" s="2">
+        <v>400</v>
+      </c>
+      <c r="G21" s="2">
+        <v>525.12</v>
+      </c>
+      <c r="H21" s="2">
+        <v>41484.48</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1614.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>305391.29</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>154566.32</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2">
+        <v>305391.29</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="2">
-        <v>1020</v>
-      </c>
-      <c r="G21" s="2">
-        <v>-1020</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="2">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2">
-        <v>57585.3</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1919.51</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1200</v>
-      </c>
-      <c r="G22" s="2">
-        <v>719.51</v>
-      </c>
-      <c r="H22" s="2">
-        <v>21585.3</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="2">
-        <v>2829.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="2">
-        <v>31</v>
-      </c>
-      <c r="D23" s="2">
-        <v>62918.65</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2029.63</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1170</v>
-      </c>
-      <c r="G23" s="2">
-        <v>859.63</v>
-      </c>
-      <c r="H23" s="2">
-        <v>26648.53</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="2">
-        <v>2950</v>
-      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="2">
-        <v>28</v>
-      </c>
-      <c r="D24" s="2">
-        <v>60087.4</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2145.98</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1380</v>
-      </c>
-      <c r="G24" s="2">
-        <v>765.98</v>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="H24" s="2">
-        <v>21447.44</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="2">
-        <v>3196.61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="2">
-        <v>43</v>
-      </c>
-      <c r="D25" s="2">
-        <v>41789.76</v>
-      </c>
-      <c r="E25" s="2">
-        <v>971.85</v>
-      </c>
-      <c r="F25" s="2">
-        <v>650</v>
-      </c>
-      <c r="G25" s="2">
-        <v>321.85</v>
-      </c>
-      <c r="H25" s="2">
-        <v>13839.55</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1698.49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="2">
-        <v>70</v>
-      </c>
-      <c r="D26" s="2">
-        <v>43677.23</v>
-      </c>
-      <c r="E26" s="2">
-        <v>623.96</v>
-      </c>
-      <c r="F26" s="2">
-        <v>250</v>
-      </c>
-      <c r="G26" s="2">
-        <v>373.96</v>
-      </c>
-      <c r="H26" s="2">
-        <v>26177.2</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
-        <v>6210</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1174</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1029189.27</v>
-      </c>
-      <c r="E27" s="2">
-        <v>876.65</v>
-      </c>
-      <c r="F27" s="2">
-        <v>400</v>
-      </c>
-      <c r="G27" s="2">
-        <v>476.65</v>
-      </c>
-      <c r="H27" s="2">
-        <v>559587.1</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1619.55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="2">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>853.5</v>
-      </c>
-      <c r="E28" s="2">
-        <v>853.5</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3">
-        <v>3802930.55</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3">
-        <v>1642847.94</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="2">
-        <v>3802930.55</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1642847.94</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+        <v>154566.32</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
-  <si>
-    <t>OZON ИП ЗЕЛ</t>
-  </si>
-  <si>
-    <t>Дата начала: 2025-06-01 ; Дата окончания : 2025-06-05</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>OZON ООО АНМАКС</t>
+  </si>
+  <si>
+    <t>Дата начала: 2025-07-01 ; Дата окончания : 2025-07-11</t>
   </si>
   <si>
     <t>пп</t>
@@ -59,25 +59,22 @@
     <t>420x420x120</t>
   </si>
   <si>
-    <t>82400-к</t>
-  </si>
-  <si>
     <t>82401-ч</t>
   </si>
   <si>
     <t>550x550x140</t>
   </si>
   <si>
-    <t>82401-з</t>
-  </si>
-  <si>
-    <t>82402-ч</t>
+    <t>82401-К</t>
+  </si>
+  <si>
+    <t>82402-Ч</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
-    <t>82402-з</t>
+    <t>82402-З</t>
   </si>
   <si>
     <t>1840-30</t>
@@ -98,31 +95,40 @@
     <t>520x520x130</t>
   </si>
   <si>
-    <t>82400-ч-2+10</t>
-  </si>
-  <si>
-    <t>7260-к-8</t>
+    <t>7280-К-6-18</t>
   </si>
   <si>
     <t>1010x280x90</t>
   </si>
   <si>
-    <t>7260-К-8-24</t>
-  </si>
-  <si>
-    <t>7245-к-10</t>
-  </si>
-  <si>
-    <t>7245-к-10-30</t>
-  </si>
-  <si>
-    <t>7262-кп</t>
+    <t>7260-К-8</t>
+  </si>
+  <si>
+    <t>7245-К-10</t>
+  </si>
+  <si>
+    <t>7245-К-10-30</t>
+  </si>
+  <si>
+    <t>7262-КП</t>
   </si>
   <si>
     <t>1010x150x150</t>
   </si>
   <si>
     <t>8910-30</t>
+  </si>
+  <si>
+    <t>ANM.39*59</t>
+  </si>
+  <si>
+    <t>600x400x30</t>
+  </si>
+  <si>
+    <t>ANM.49*99</t>
+  </si>
+  <si>
+    <t>1000x500x30</t>
   </si>
   <si>
     <t>380x380x75</t>
@@ -584,28 +590,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
-        <v>26453.15</v>
+        <v>8125.17</v>
       </c>
       <c r="E5" s="2">
-        <v>489.87</v>
+        <v>427.64</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>239.87</v>
+        <v>177.64</v>
       </c>
       <c r="H5" s="2">
-        <v>12952.98</v>
+        <v>3375.16</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>1053.43</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -616,28 +622,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2">
-        <v>165.39</v>
+        <v>46379.96</v>
       </c>
       <c r="E6" s="2">
-        <v>82.69</v>
+        <v>587.09</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>-217.31</v>
+        <v>287.09</v>
       </c>
       <c r="H6" s="2">
-        <v>-434.62</v>
+        <v>22680.11</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2">
-        <v>1035</v>
+        <v>1724.18</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -645,31 +651,31 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2">
+        <v>32675.2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>553.82</v>
+      </c>
+      <c r="F7" s="2">
+        <v>350</v>
+      </c>
+      <c r="G7" s="2">
+        <v>203.82</v>
+      </c>
+      <c r="H7" s="2">
+        <v>12025.38</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
-        <v>83</v>
-      </c>
-      <c r="D7" s="2">
-        <v>58155.17</v>
-      </c>
-      <c r="E7" s="2">
-        <v>700.66</v>
-      </c>
-      <c r="F7" s="2">
-        <v>300</v>
-      </c>
-      <c r="G7" s="2">
-        <v>400.66</v>
-      </c>
-      <c r="H7" s="2">
-        <v>33254.78</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" s="2">
-        <v>1438.99</v>
+        <v>1993.22</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -680,28 +686,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>22870.27</v>
+        <v>736.8</v>
       </c>
       <c r="E8" s="2">
-        <v>693.04</v>
+        <v>736.8</v>
       </c>
       <c r="F8" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="G8" s="2">
-        <v>343.04</v>
+        <v>336.8</v>
       </c>
       <c r="H8" s="2">
-        <v>11320.32</v>
+        <v>336.8</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" s="2">
-        <v>1443</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -709,31 +715,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2365.66</v>
+      </c>
+      <c r="E9" s="2">
+        <v>591.42</v>
+      </c>
+      <c r="F9" s="2">
+        <v>450</v>
+      </c>
+      <c r="G9" s="2">
+        <v>141.42</v>
+      </c>
+      <c r="H9" s="2">
+        <v>565.68</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7783</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1297.17</v>
-      </c>
-      <c r="F9" s="2">
-        <v>400</v>
-      </c>
-      <c r="G9" s="2">
-        <v>897.17</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5383.02</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" s="2">
-        <v>2530</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -744,28 +750,28 @@
         <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>6559.5</v>
+        <v>3133.82</v>
       </c>
       <c r="E10" s="2">
-        <v>1311.9</v>
+        <v>522.3</v>
       </c>
       <c r="F10" s="2">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="G10" s="2">
-        <v>861.9</v>
+        <v>272.3</v>
       </c>
       <c r="H10" s="2">
-        <v>4309.5</v>
+        <v>1633.8</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2">
-        <v>2530</v>
+        <v>990</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -773,31 +779,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>3407.29</v>
+        <v>10285.29</v>
       </c>
       <c r="E11" s="2">
-        <v>567.88</v>
+        <v>428.55</v>
       </c>
       <c r="F11" s="2">
         <v>250</v>
       </c>
       <c r="G11" s="2">
-        <v>317.88</v>
+        <v>178.55</v>
       </c>
       <c r="H11" s="2">
-        <v>1907.28</v>
+        <v>4285.2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" s="2">
-        <v>920</v>
+        <v>775.42</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -805,31 +811,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>4285.66</v>
+        <v>4402</v>
       </c>
       <c r="E12" s="2">
-        <v>535.71</v>
+        <v>628.86</v>
       </c>
       <c r="F12" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G12" s="2">
-        <v>285.71</v>
+        <v>128.86</v>
       </c>
       <c r="H12" s="2">
-        <v>2285.68</v>
+        <v>902.02</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" s="2">
-        <v>810</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -837,31 +843,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2">
-        <v>71896.93</v>
+        <v>8416.16</v>
       </c>
       <c r="E13" s="2">
-        <v>866.23</v>
+        <v>1202.31</v>
       </c>
       <c r="F13" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="2">
-        <v>366.23</v>
+        <v>202.31</v>
       </c>
       <c r="H13" s="2">
-        <v>30397.09</v>
+        <v>1416.17</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J13" s="2">
-        <v>2015.7</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -869,31 +875,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2774.96</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1387.48</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1020</v>
+      </c>
+      <c r="G14" s="2">
+        <v>367.48</v>
+      </c>
+      <c r="H14" s="2">
+        <v>734.96</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6505.88</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1301.18</v>
-      </c>
-      <c r="F14" s="2">
-        <v>800</v>
-      </c>
-      <c r="G14" s="2">
-        <v>501.18</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2505.9</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="J14" s="2">
-        <v>2374</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -901,31 +907,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2">
-        <v>1604.64</v>
+        <v>28788.63</v>
       </c>
       <c r="E15" s="2">
-        <v>1604.64</v>
+        <v>1693.45</v>
       </c>
       <c r="F15" s="2">
-        <v>1020</v>
+        <v>1170</v>
       </c>
       <c r="G15" s="2">
-        <v>584.64</v>
+        <v>523.45</v>
       </c>
       <c r="H15" s="2">
-        <v>584.64</v>
+        <v>8898.65</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2">
-        <v>2710</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -936,28 +942,28 @@
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>13596.38</v>
+        <v>6101.31</v>
       </c>
       <c r="E16" s="2">
-        <v>1942.34</v>
+        <v>2033.77</v>
       </c>
       <c r="F16" s="2">
-        <v>1200</v>
+        <v>1380</v>
       </c>
       <c r="G16" s="2">
-        <v>742.34</v>
+        <v>653.77</v>
       </c>
       <c r="H16" s="2">
-        <v>5196.38</v>
+        <v>1961.31</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2">
-        <v>2850</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -967,27 +973,29 @@
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
       <c r="D17" s="2">
-        <v>-25.71</v>
+        <v>3115.39</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>623.08</v>
       </c>
       <c r="F17" s="2">
-        <v>1170</v>
+        <v>650</v>
       </c>
       <c r="G17" s="2">
-        <v>-1170</v>
+        <v>-26.92</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>-134.6</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -995,31 +1003,31 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2">
-        <v>1492.75</v>
+        <v>18242.94</v>
       </c>
       <c r="E18" s="2">
-        <v>1492.75</v>
+        <v>480.08</v>
       </c>
       <c r="F18" s="2">
-        <v>1380</v>
+        <v>250</v>
       </c>
       <c r="G18" s="2">
-        <v>112.75</v>
+        <v>230.08</v>
       </c>
       <c r="H18" s="2">
-        <v>112.75</v>
+        <v>8743.04</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J18" s="2">
-        <v>3200</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1027,31 +1035,31 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
       </c>
       <c r="D19" s="2">
-        <v>5158.29</v>
+        <v>14366.66</v>
       </c>
       <c r="E19" s="2">
-        <v>1031.66</v>
+        <v>2873.33</v>
       </c>
       <c r="F19" s="2">
-        <v>650</v>
+        <v>2000</v>
       </c>
       <c r="G19" s="2">
-        <v>381.66</v>
+        <v>873.33</v>
       </c>
       <c r="H19" s="2">
-        <v>1908.3</v>
+        <v>4366.65</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J19" s="2">
-        <v>1700</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1059,31 +1067,31 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>2397.83</v>
+        <v>19037.33</v>
       </c>
       <c r="E20" s="2">
-        <v>599.46</v>
+        <v>4759.33</v>
       </c>
       <c r="F20" s="2">
-        <v>250</v>
+        <v>3000</v>
       </c>
       <c r="G20" s="2">
-        <v>349.46</v>
+        <v>1759.33</v>
       </c>
       <c r="H20" s="2">
-        <v>1397.84</v>
+        <v>7037.32</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J20" s="2">
-        <v>1000</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1094,28 +1102,28 @@
         <v>6210</v>
       </c>
       <c r="C21" s="2">
-        <v>79</v>
+        <v>1138</v>
       </c>
       <c r="D21" s="2">
-        <v>73084.87</v>
+        <v>1020072.16</v>
       </c>
       <c r="E21" s="2">
-        <v>925.12</v>
+        <v>896.37</v>
       </c>
       <c r="F21" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G21" s="2">
-        <v>525.12</v>
+        <v>396.37</v>
       </c>
       <c r="H21" s="2">
-        <v>41484.48</v>
+        <v>451069.06</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J21" s="2">
-        <v>1614.81</v>
+        <v>1773.23</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1123,13 +1131,13 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
-        <v>305391.29</v>
+        <v>1229019.44</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <v>154566.32</v>
+        <v>529896.71</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1138,15 +1146,15 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2">
-        <v>305391.29</v>
+        <v>1229019.44</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1162,10 +1170,10 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H24" s="2">
-        <v>154566.32</v>
+        <v>529896.71</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>OZON ООО АНМАКС</t>
   </si>
   <si>
-    <t>Дата начала: 2025-07-01 ; Дата окончания : 2025-07-11</t>
+    <t>Дата начала: 2025-06-01 ; Дата окончания : 2025-06-30</t>
   </si>
   <si>
     <t>пп</t>
@@ -59,6 +59,9 @@
     <t>420x420x120</t>
   </si>
   <si>
+    <t>82400-К</t>
+  </si>
+  <si>
     <t>82401-ч</t>
   </si>
   <si>
@@ -68,12 +71,18 @@
     <t>82401-К</t>
   </si>
   <si>
+    <t>82401-З</t>
+  </si>
+  <si>
     <t>82402-Ч</t>
   </si>
   <si>
     <t>600x600x180</t>
   </si>
   <si>
+    <t>82402-К</t>
+  </si>
+  <si>
     <t>82402-З</t>
   </si>
   <si>
@@ -95,13 +104,22 @@
     <t>520x520x130</t>
   </si>
   <si>
+    <t>82400-ч-2+10</t>
+  </si>
+  <si>
+    <t>7280-К-6</t>
+  </si>
+  <si>
+    <t>1010x280x90</t>
+  </si>
+  <si>
     <t>7280-К-6-18</t>
   </si>
   <si>
-    <t>1010x280x90</t>
-  </si>
-  <si>
     <t>7260-К-8</t>
+  </si>
+  <si>
+    <t>7260-К-8-24</t>
   </si>
   <si>
     <t>7245-К-10</t>
@@ -520,7 +538,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -590,28 +608,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2">
-        <v>8125.17</v>
+        <v>17810.37</v>
       </c>
       <c r="E5" s="2">
-        <v>427.64</v>
+        <v>323.82</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>177.64</v>
+        <v>73.82</v>
       </c>
       <c r="H5" s="2">
-        <v>3375.16</v>
+        <v>4060.1</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>1300</v>
+        <v>1005.82</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -622,28 +640,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>46379.96</v>
+        <v>537.48</v>
       </c>
       <c r="E6" s="2">
-        <v>587.09</v>
+        <v>268.74</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>287.09</v>
+        <v>-31.26</v>
       </c>
       <c r="H6" s="2">
-        <v>22680.11</v>
+        <v>-62.52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>1724.18</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -651,31 +669,31 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>153</v>
+      </c>
+      <c r="D7" s="2">
+        <v>87074.79</v>
+      </c>
+      <c r="E7" s="2">
+        <v>569.12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>300</v>
+      </c>
+      <c r="G7" s="2">
+        <v>269.12</v>
+      </c>
+      <c r="H7" s="2">
+        <v>41175.36</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2">
-        <v>59</v>
-      </c>
-      <c r="D7" s="2">
-        <v>32675.2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>553.82</v>
-      </c>
-      <c r="F7" s="2">
-        <v>350</v>
-      </c>
-      <c r="G7" s="2">
-        <v>203.82</v>
-      </c>
-      <c r="H7" s="2">
-        <v>12025.38</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" s="2">
-        <v>1993.22</v>
+        <v>1430.77</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -686,28 +704,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
-        <v>736.8</v>
+        <v>6340.5</v>
       </c>
       <c r="E8" s="2">
-        <v>736.8</v>
+        <v>264.19</v>
       </c>
       <c r="F8" s="2">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>336.8</v>
+        <v>-85.81</v>
       </c>
       <c r="H8" s="2">
-        <v>336.8</v>
+        <v>-2059.44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>3000</v>
+        <v>1964.17</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -715,31 +733,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>2365.66</v>
+        <v>15909.7</v>
       </c>
       <c r="E9" s="2">
-        <v>591.42</v>
+        <v>369.99</v>
       </c>
       <c r="F9" s="2">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>141.42</v>
+        <v>19.99</v>
       </c>
       <c r="H9" s="2">
-        <v>565.68</v>
+        <v>859.57</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>3000</v>
+        <v>1704.65</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -747,31 +765,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-3822.47</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-1911.24</v>
+      </c>
+      <c r="F10" s="2">
+        <v>400</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-2311.24</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-4622.48</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3133.82</v>
-      </c>
-      <c r="E10" s="2">
-        <v>522.3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>250</v>
-      </c>
-      <c r="G10" s="2">
-        <v>272.3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1633.8</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="J10" s="2">
-        <v>990</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -779,31 +797,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>10285.29</v>
+        <v>3958.8</v>
       </c>
       <c r="E11" s="2">
-        <v>428.55</v>
+        <v>791.76</v>
       </c>
       <c r="F11" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G11" s="2">
-        <v>178.55</v>
+        <v>341.76</v>
       </c>
       <c r="H11" s="2">
-        <v>4285.2</v>
+        <v>1708.8</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2">
-        <v>775.42</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -811,31 +829,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>4402</v>
+        <v>16878.4</v>
       </c>
       <c r="E12" s="2">
-        <v>628.86</v>
+        <v>649.17</v>
       </c>
       <c r="F12" s="2">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>128.86</v>
+        <v>199.17</v>
       </c>
       <c r="H12" s="2">
-        <v>902.02</v>
+        <v>5178.42</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
-        <v>2204</v>
+        <v>2996.62</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -843,31 +861,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2">
-        <v>8416.16</v>
+        <v>19813.22</v>
       </c>
       <c r="E13" s="2">
-        <v>1202.31</v>
+        <v>508.03</v>
       </c>
       <c r="F13" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>202.31</v>
+        <v>258.03</v>
       </c>
       <c r="H13" s="2">
-        <v>1416.17</v>
+        <v>10063.17</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2">
-        <v>2750</v>
+        <v>964.62</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -875,31 +893,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="D14" s="2">
-        <v>2774.96</v>
+        <v>73481.18</v>
       </c>
       <c r="E14" s="2">
-        <v>1387.48</v>
+        <v>499.87</v>
       </c>
       <c r="F14" s="2">
-        <v>1020</v>
+        <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>367.48</v>
+        <v>249.87</v>
       </c>
       <c r="H14" s="2">
-        <v>734.96</v>
+        <v>36730.89</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2">
-        <v>2500</v>
+        <v>855.37</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -907,31 +925,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>17</v>
+        <v>448</v>
       </c>
       <c r="D15" s="2">
-        <v>28788.63</v>
+        <v>334964.2</v>
       </c>
       <c r="E15" s="2">
-        <v>1693.45</v>
+        <v>747.69</v>
       </c>
       <c r="F15" s="2">
-        <v>1170</v>
+        <v>500</v>
       </c>
       <c r="G15" s="2">
-        <v>523.45</v>
+        <v>247.69</v>
       </c>
       <c r="H15" s="2">
-        <v>8898.65</v>
+        <v>110965.12</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2">
-        <v>3060</v>
+        <v>2001.84</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -939,31 +957,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2">
-        <v>6101.31</v>
+        <v>11586.98</v>
       </c>
       <c r="E16" s="2">
-        <v>2033.77</v>
+        <v>1287.44</v>
       </c>
       <c r="F16" s="2">
-        <v>1380</v>
+        <v>800</v>
       </c>
       <c r="G16" s="2">
-        <v>653.77</v>
+        <v>487.44</v>
       </c>
       <c r="H16" s="2">
-        <v>1961.31</v>
+        <v>4386.96</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2">
-        <v>3600</v>
+        <v>2383.33</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -971,31 +989,31 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15919.64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>936.45</v>
+      </c>
+      <c r="F17" s="2">
+        <v>880</v>
+      </c>
+      <c r="G17" s="2">
+        <v>56.45</v>
+      </c>
+      <c r="H17" s="2">
+        <v>959.65</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3115.39</v>
-      </c>
-      <c r="E17" s="2">
-        <v>623.08</v>
-      </c>
-      <c r="F17" s="2">
-        <v>650</v>
-      </c>
-      <c r="G17" s="2">
-        <v>-26.92</v>
-      </c>
-      <c r="H17" s="2">
-        <v>-134.6</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="J17" s="2">
-        <v>1900</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1003,31 +1021,31 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
         <v>38</v>
       </c>
       <c r="D18" s="2">
-        <v>18242.94</v>
+        <v>41706.79</v>
       </c>
       <c r="E18" s="2">
-        <v>480.08</v>
+        <v>1097.55</v>
       </c>
       <c r="F18" s="2">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="2">
-        <v>230.08</v>
+        <v>97.55</v>
       </c>
       <c r="H18" s="2">
-        <v>8743.04</v>
+        <v>3706.9</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J18" s="2">
-        <v>920</v>
+        <v>2751.32</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1035,31 +1053,31 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D19" s="2">
-        <v>14366.66</v>
+        <v>82974.37</v>
       </c>
       <c r="E19" s="2">
-        <v>2873.33</v>
+        <v>1430.59</v>
       </c>
       <c r="F19" s="2">
-        <v>2000</v>
+        <v>1020</v>
       </c>
       <c r="G19" s="2">
-        <v>873.33</v>
+        <v>410.59</v>
       </c>
       <c r="H19" s="2">
-        <v>4366.65</v>
+        <v>23814.22</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J19" s="2">
-        <v>4500</v>
+        <v>2493.62</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1067,116 +1085,308 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2">
-        <v>19037.33</v>
+        <v>145262.07</v>
       </c>
       <c r="E20" s="2">
-        <v>4759.33</v>
+        <v>1650.71</v>
       </c>
       <c r="F20" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G20" s="2">
-        <v>1759.33</v>
+        <v>450.71</v>
       </c>
       <c r="H20" s="2">
-        <v>7037.32</v>
+        <v>39662.48</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J20" s="2">
-        <v>7300</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2">
+        <v>31944.49</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1681.29</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1170</v>
+      </c>
+      <c r="G21" s="2">
+        <v>511.29</v>
+      </c>
+      <c r="H21" s="2">
+        <v>9714.51</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="2">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2">
+        <v>54154.75</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2166.19</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1380</v>
+      </c>
+      <c r="G22" s="2">
+        <v>786.19</v>
+      </c>
+      <c r="H22" s="2">
+        <v>19654.75</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2">
+        <v>96301.31</v>
+      </c>
+      <c r="E23" s="2">
+        <v>963.01</v>
+      </c>
+      <c r="F23" s="2">
+        <v>650</v>
+      </c>
+      <c r="G23" s="2">
+        <v>313.01</v>
+      </c>
+      <c r="H23" s="2">
+        <v>31301</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2">
+        <v>149</v>
+      </c>
+      <c r="D24" s="2">
+        <v>76714.49</v>
+      </c>
+      <c r="E24" s="2">
+        <v>514.86</v>
+      </c>
+      <c r="F24" s="2">
+        <v>250</v>
+      </c>
+      <c r="G24" s="2">
+        <v>264.86</v>
+      </c>
+      <c r="H24" s="2">
+        <v>39464.14</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="2">
+        <v>901.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2">
+        <v>50381.85</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2798.99</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>798.99</v>
+      </c>
+      <c r="H25" s="2">
+        <v>14381.82</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="2">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2">
+        <v>51142.94</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3008.41</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G26" s="2">
+        <v>8.4099999999999</v>
+      </c>
+      <c r="H26" s="2">
+        <v>142.97</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4723.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
         <v>6210</v>
       </c>
-      <c r="C21" s="2">
-        <v>1138</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1020072.16</v>
-      </c>
-      <c r="E21" s="2">
-        <v>896.37</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="C27" s="2">
+        <v>1809</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1536407.65</v>
+      </c>
+      <c r="E27" s="2">
+        <v>849.31</v>
+      </c>
+      <c r="F27" s="2">
         <v>500</v>
       </c>
-      <c r="G21" s="2">
-        <v>396.37</v>
-      </c>
-      <c r="H21" s="2">
-        <v>451069.06</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1773.23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <v>1229019.44</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <v>529896.71</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1229019.44</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G27" s="2">
+        <v>349.31</v>
+      </c>
+      <c r="H27" s="2">
+        <v>631901.79</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1681.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>2767443.5</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <v>1023088.18</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2767443.5</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="2">
         <v>0</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="2">
-        <v>529896.71</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1023088.18</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ozon_report/temp/report_.xlsx
+++ b/ozon_report/temp/report_.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>OZON ООО АНМАКС</t>
   </si>
   <si>
-    <t>Дата начала: 2025-06-01 ; Дата окончания : 2025-06-30</t>
+    <t>Дата начала: 2025-08-01 ; Дата окончания : 2025-08-16</t>
   </si>
   <si>
     <t>пп</t>
@@ -68,12 +68,12 @@
     <t>550x550x140</t>
   </si>
   <si>
+    <t>z000082401-км(фин)</t>
+  </si>
+  <si>
     <t>82401-К</t>
   </si>
   <si>
-    <t>82401-З</t>
-  </si>
-  <si>
     <t>82402-Ч</t>
   </si>
   <si>
@@ -104,9 +104,6 @@
     <t>520x520x130</t>
   </si>
   <si>
-    <t>82400-ч-2+10</t>
-  </si>
-  <si>
     <t>7280-К-6</t>
   </si>
   <si>
@@ -116,24 +113,6 @@
     <t>7280-К-6-18</t>
   </si>
   <si>
-    <t>7260-К-8</t>
-  </si>
-  <si>
-    <t>7260-К-8-24</t>
-  </si>
-  <si>
-    <t>7245-К-10</t>
-  </si>
-  <si>
-    <t>7245-К-10-30</t>
-  </si>
-  <si>
-    <t>7262-КП</t>
-  </si>
-  <si>
-    <t>1010x150x150</t>
-  </si>
-  <si>
     <t>8910-30</t>
   </si>
   <si>
@@ -150,6 +129,9 @@
   </si>
   <si>
     <t>380x380x75</t>
+  </si>
+  <si>
+    <t>SKU = 2544910111</t>
   </si>
   <si>
     <t>Выплата с учетом штрафов</t>
@@ -538,7 +520,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -608,28 +590,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>17810.37</v>
+        <v>4243.23</v>
       </c>
       <c r="E5" s="2">
-        <v>323.82</v>
+        <v>353.6</v>
       </c>
       <c r="F5" s="2">
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>73.82</v>
+        <v>103.6</v>
       </c>
       <c r="H5" s="2">
-        <v>4060.1</v>
+        <v>1243.2</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>1005.82</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -640,28 +622,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>537.48</v>
+        <v>4984.47</v>
       </c>
       <c r="E6" s="2">
-        <v>268.74</v>
+        <v>356.03</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>-31.26</v>
+        <v>56.03</v>
       </c>
       <c r="H6" s="2">
-        <v>-62.52</v>
+        <v>784.42</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>1080</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -672,28 +654,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2">
-        <v>87074.79</v>
+        <v>69201.48</v>
       </c>
       <c r="E7" s="2">
-        <v>569.12</v>
+        <v>581.53</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>269.12</v>
+        <v>281.53</v>
       </c>
       <c r="H7" s="2">
-        <v>41175.36</v>
+        <v>33502.07</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>1430.77</v>
+        <v>1814.62</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -704,28 +686,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>6340.5</v>
+        <v>729.21</v>
       </c>
       <c r="E8" s="2">
-        <v>264.19</v>
+        <v>729.21</v>
       </c>
       <c r="F8" s="2">
         <v>350</v>
       </c>
       <c r="G8" s="2">
-        <v>-85.81</v>
+        <v>379.21</v>
       </c>
       <c r="H8" s="2">
-        <v>-2059.44</v>
+        <v>379.21</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>1964.17</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -736,28 +718,28 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2">
-        <v>15909.7</v>
+        <v>32885.4</v>
       </c>
       <c r="E9" s="2">
-        <v>369.99</v>
+        <v>548.09</v>
       </c>
       <c r="F9" s="2">
         <v>350</v>
       </c>
       <c r="G9" s="2">
-        <v>19.99</v>
+        <v>198.09</v>
       </c>
       <c r="H9" s="2">
-        <v>859.57</v>
+        <v>11885.4</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>1704.65</v>
+        <v>2098.97</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -771,19 +753,19 @@
         <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>-3822.47</v>
+        <v>-5408.97</v>
       </c>
       <c r="E10" s="2">
-        <v>-1911.24</v>
+        <v>-2704.49</v>
       </c>
       <c r="F10" s="2">
         <v>400</v>
       </c>
       <c r="G10" s="2">
-        <v>-2311.24</v>
+        <v>-3104.49</v>
       </c>
       <c r="H10" s="2">
-        <v>-4622.48</v>
+        <v>-6208.98</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>20</v>
@@ -800,28 +782,28 @@
         <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2">
-        <v>3958.8</v>
+        <v>20338.18</v>
       </c>
       <c r="E11" s="2">
-        <v>791.76</v>
+        <v>415.06</v>
       </c>
       <c r="F11" s="2">
         <v>450</v>
       </c>
       <c r="G11" s="2">
-        <v>341.76</v>
+        <v>-34.94</v>
       </c>
       <c r="H11" s="2">
-        <v>1708.8</v>
+        <v>-1712.06</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="2">
-        <v>2600</v>
+        <v>2493.88</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -832,28 +814,28 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>16878.4</v>
+        <v>-224.96</v>
       </c>
       <c r="E12" s="2">
-        <v>649.17</v>
+        <v>-74.99</v>
       </c>
       <c r="F12" s="2">
         <v>450</v>
       </c>
       <c r="G12" s="2">
-        <v>199.17</v>
+        <v>-524.99</v>
       </c>
       <c r="H12" s="2">
-        <v>5178.42</v>
+        <v>-1574.97</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="2">
-        <v>2996.62</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -864,28 +846,28 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2">
-        <v>19813.22</v>
+        <v>17855.12</v>
       </c>
       <c r="E13" s="2">
-        <v>508.03</v>
+        <v>415.24</v>
       </c>
       <c r="F13" s="2">
         <v>250</v>
       </c>
       <c r="G13" s="2">
-        <v>258.03</v>
+        <v>165.24</v>
       </c>
       <c r="H13" s="2">
-        <v>10063.17</v>
+        <v>7105.32</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="2">
-        <v>964.62</v>
+        <v>966.98</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -896,28 +878,28 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>73481.18</v>
+        <v>18969.19</v>
       </c>
       <c r="E14" s="2">
-        <v>499.87</v>
+        <v>379.38</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>249.87</v>
+        <v>129.38</v>
       </c>
       <c r="H14" s="2">
-        <v>36730.89</v>
+        <v>6469</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="2">
-        <v>855.37</v>
+        <v>736.12</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -928,28 +910,28 @@
         <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>448</v>
+        <v>265</v>
       </c>
       <c r="D15" s="2">
-        <v>334964.2</v>
+        <v>196464.01</v>
       </c>
       <c r="E15" s="2">
-        <v>747.69</v>
+        <v>741.37</v>
       </c>
       <c r="F15" s="2">
         <v>500</v>
       </c>
       <c r="G15" s="2">
-        <v>247.69</v>
+        <v>241.37</v>
       </c>
       <c r="H15" s="2">
-        <v>110965.12</v>
+        <v>63963.05</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="2">
-        <v>2001.84</v>
+        <v>2353.2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -960,28 +942,28 @@
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2">
-        <v>11586.98</v>
+        <v>38912.85</v>
       </c>
       <c r="E16" s="2">
-        <v>1287.44</v>
+        <v>1051.7</v>
       </c>
       <c r="F16" s="2">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="G16" s="2">
-        <v>487.44</v>
+        <v>171.7</v>
       </c>
       <c r="H16" s="2">
-        <v>4386.96</v>
+        <v>6352.9</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2">
-        <v>2383.33</v>
+        <v>2410.11</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -989,31 +971,31 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2">
+        <v>167078.33</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1275.41</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>275.41</v>
+      </c>
+      <c r="H17" s="2">
+        <v>36078.71</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2">
-        <v>15919.64</v>
-      </c>
-      <c r="E17" s="2">
-        <v>936.45</v>
-      </c>
-      <c r="F17" s="2">
-        <v>880</v>
-      </c>
-      <c r="G17" s="2">
-        <v>56.45</v>
-      </c>
-      <c r="H17" s="2">
-        <v>959.65</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="J17" s="2">
-        <v>2550</v>
+        <v>2749.36</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1024,28 +1006,28 @@
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
-        <v>41706.79</v>
+        <v>13589.84</v>
       </c>
       <c r="E18" s="2">
-        <v>1097.55</v>
+        <v>438.38</v>
       </c>
       <c r="F18" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G18" s="2">
-        <v>97.55</v>
+        <v>188.38</v>
       </c>
       <c r="H18" s="2">
-        <v>3706.9</v>
+        <v>5839.78</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J18" s="2">
-        <v>2751.32</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1056,28 +1038,28 @@
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2">
-        <v>82974.37</v>
+        <v>21491.64</v>
       </c>
       <c r="E19" s="2">
-        <v>1430.59</v>
+        <v>2686.46</v>
       </c>
       <c r="F19" s="2">
-        <v>1020</v>
+        <v>2000</v>
       </c>
       <c r="G19" s="2">
-        <v>410.59</v>
+        <v>686.46</v>
       </c>
       <c r="H19" s="2">
-        <v>23814.22</v>
+        <v>5491.68</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2">
-        <v>2493.62</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1085,63 +1067,63 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>145262.07</v>
+        <v>39288.66</v>
       </c>
       <c r="E20" s="2">
-        <v>1650.71</v>
+        <v>3928.87</v>
       </c>
       <c r="F20" s="2">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G20" s="2">
-        <v>450.71</v>
+        <v>928.87</v>
       </c>
       <c r="H20" s="2">
-        <v>39662.48</v>
+        <v>9288.7</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J20" s="2">
-        <v>2900</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
+      <c r="B21" s="2">
+        <v>6210</v>
       </c>
       <c r="C21" s="2">
-        <v>19</v>
+        <v>804</v>
       </c>
       <c r="D21" s="2">
-        <v>31944.49</v>
+        <v>684235.68</v>
       </c>
       <c r="E21" s="2">
-        <v>1681.29</v>
+        <v>851.04</v>
       </c>
       <c r="F21" s="2">
-        <v>1170</v>
+        <v>500</v>
       </c>
       <c r="G21" s="2">
-        <v>511.29</v>
+        <v>351.04</v>
       </c>
       <c r="H21" s="2">
-        <v>9714.51</v>
+        <v>282236.16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J21" s="2">
-        <v>3060</v>
+        <v>1758.48</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1149,244 +1131,84 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2">
-        <v>54154.75</v>
+        <v>22650.66</v>
       </c>
       <c r="E22" s="2">
-        <v>2166.19</v>
+        <v>871.18</v>
       </c>
       <c r="F22" s="2">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>786.19</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>19654.75</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J22" s="2">
-        <v>3600</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="2">
-        <v>100</v>
-      </c>
-      <c r="D23" s="2">
-        <v>96301.31</v>
-      </c>
-      <c r="E23" s="2">
-        <v>963.01</v>
-      </c>
-      <c r="F23" s="2">
-        <v>650</v>
-      </c>
-      <c r="G23" s="2">
-        <v>313.01</v>
-      </c>
-      <c r="H23" s="2">
-        <v>31301</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1900</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>1347284.02</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>461123.59</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="2">
-        <v>149</v>
-      </c>
       <c r="D24" s="2">
-        <v>76714.49</v>
-      </c>
-      <c r="E24" s="2">
-        <v>514.86</v>
-      </c>
-      <c r="F24" s="2">
-        <v>250</v>
-      </c>
-      <c r="G24" s="2">
-        <v>264.86</v>
+        <v>1347284.02</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H24" s="2">
-        <v>39464.14</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="2">
-        <v>901.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2">
-        <v>50381.85</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2798.99</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G25" s="2">
-        <v>798.99</v>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H25" s="2">
-        <v>14381.82</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="2">
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="2">
-        <v>17</v>
-      </c>
-      <c r="D26" s="2">
-        <v>51142.94</v>
-      </c>
-      <c r="E26" s="2">
-        <v>3008.41</v>
-      </c>
-      <c r="F26" s="2">
-        <v>3000</v>
-      </c>
-      <c r="G26" s="2">
-        <v>8.4099999999999</v>
-      </c>
-      <c r="H26" s="2">
-        <v>142.97</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="2">
-        <v>4723.53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
-        <v>6210</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1809</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1536407.65</v>
-      </c>
-      <c r="E27" s="2">
-        <v>849.31</v>
-      </c>
-      <c r="F27" s="2">
-        <v>500</v>
-      </c>
-      <c r="G27" s="2">
-        <v>349.31</v>
-      </c>
-      <c r="H27" s="2">
-        <v>631901.79</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1681.22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3">
-        <v>2767443.5</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3">
-        <v>1023088.18</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2767443.5</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1023088.18</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+        <v>461123.59</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
